--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,22 +8,72 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B314D78-EEE5-4229-B6D8-68E324944CB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E595C-27FF-49FB-ACE4-774D69D3353F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Compartments" sheetId="1" r:id="rId1"/>
-    <sheet name="Transitions" sheetId="2" r:id="rId2"/>
-    <sheet name="Characteristics" sheetId="3" r:id="rId3"/>
-    <sheet name="Parameters" sheetId="4" r:id="rId4"/>
-    <sheet name="Program Types" sheetId="5" r:id="rId5"/>
+    <sheet name="Custom Databook Pages" sheetId="7" r:id="rId1"/>
+    <sheet name="Compartments" sheetId="1" r:id="rId2"/>
+    <sheet name="Transitions" sheetId="2" r:id="rId3"/>
+    <sheet name="Characteristics" sheetId="3" r:id="rId4"/>
+    <sheet name="Parameters" sheetId="4" r:id="rId5"/>
+    <sheet name="Program Types" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A933BB2F-BD44-4AA3-9747-9EE271A8A43E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the 'code name' of a custom databook sheet.
+Normally, when constructing a databook, data-input sections for
+compartments and characteristics are placed on a single page, while
+parameters are placed on another.
+This section allows custom sheets to be defined, allowing for more
+user-friendly databook organisation.
+Note: A code name is a representative key that developers interface
+with (e.g. in scripts and the codebase).
+It should be in lower case without spaces.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2C9FAE90-07ED-44EF-9D3B-D0E0456BD991}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the title of a custom databook sheet.
+Normally, when constructing a databook, data-input sections for
+compartments and characteristics are placed on a single page, while
+parameters are placed on another.
+This section allows custom sheets to be defined, allowing for more
+user-friendly databook organisation.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -206,7 +256,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -361,7 +411,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -470,7 +520,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -533,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="524">
   <si>
     <t>Code Name</t>
   </si>
@@ -2039,6 +2089,72 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Datasheet Code Name</t>
+  </si>
+  <si>
+    <t>Datasheet Title</t>
+  </si>
+  <si>
+    <t>sh_pop</t>
+  </si>
+  <si>
+    <t>General Demographics</t>
+  </si>
+  <si>
+    <t>sh_aprev</t>
+  </si>
+  <si>
+    <t>Active TB Prevalence</t>
+  </si>
+  <si>
+    <t>sh_lprev</t>
+  </si>
+  <si>
+    <t>Latent TB Prevalence</t>
+  </si>
+  <si>
+    <t>sh_notified</t>
+  </si>
+  <si>
+    <t>Notified Cases</t>
+  </si>
+  <si>
+    <t>sh_inf</t>
+  </si>
+  <si>
+    <t>Infection Susceptibility</t>
+  </si>
+  <si>
+    <t>sh_ltreat</t>
+  </si>
+  <si>
+    <t>Latent Testing and Treatment</t>
+  </si>
+  <si>
+    <t>sh_lprog</t>
+  </si>
+  <si>
+    <t>Latent Progression Rates</t>
+  </si>
+  <si>
+    <t>sh_atreat</t>
+  </si>
+  <si>
+    <t>Active TB Testing and Treatment</t>
+  </si>
+  <si>
+    <t>sh_aprog</t>
+  </si>
+  <si>
+    <t>Active TB Progression Rates</t>
+  </si>
+  <si>
+    <t>sh_death</t>
+  </si>
+  <si>
+    <t>Active TB Death Rates</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2117,6 +2233,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
@@ -2455,10 +2574,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337CD50C-13A1-4CF6-8BA4-65F2738C29EE}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="25.73046875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -3273,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
@@ -3657,7 +3884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
@@ -4954,7 +5181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F141"/>
   <sheetViews>
@@ -6671,7 +6898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E595C-27FF-49FB-ACE4-774D69D3353F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815FEF56-A265-450C-ACCB-25945B983BA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Databook Pages" sheetId="7" r:id="rId1"/>
@@ -209,22 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column currently denotes whether a databook should request
-values from the user for the historical size of this compartment.
-A value of '-1' suppresses it from appearing in the databook.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -249,6 +234,40 @@
 Framework file parsing should also warn the user about a compartment
 with nonzero setup weight that is suppressed in the databook, i.e.
 has a databook order of '-1'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{36495753-86C4-4D54-89E3-C16AFFF3861C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column optionally marks whether a data-input section should
+appear for this compartment in a custom databook sheet, if allowed
+to appear at all according to 'databook order'.
+Each value should be a code name for a desired page defined in
+the 'custom databook pages' worksheet page.
+If a cell is left empty, the enabled data-input section should appear
+in a default databook page dedicated to state variables.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B326D675-59B6-4C74-8331-BE959611E5E2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column currently denotes whether a databook should request
+values from the user for the historical size of this compartment.
+A value of '-1' suppresses it from appearing in the databook.</t>
         </r>
       </text>
     </comment>
@@ -583,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="525">
   <si>
     <t>Code Name</t>
   </si>
@@ -2155,6 +2174,9 @@
   </si>
   <si>
     <t>Active TB Death Rates</t>
+  </si>
+  <si>
+    <t>Databook Page</t>
   </si>
 </sst>
 </file>
@@ -2577,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337CD50C-13A1-4CF6-8BA4-65F2738C29EE}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2683,24 +2705,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.06640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2717,13 +2740,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>429</v>
       </c>
@@ -2739,12 +2765,15 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>431</v>
       </c>
@@ -2760,12 +2789,11 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>433</v>
       </c>
@@ -2781,12 +2809,11 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>434</v>
       </c>
@@ -2802,12 +2829,11 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>435</v>
       </c>
@@ -2823,12 +2849,11 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>436</v>
       </c>
@@ -2844,12 +2869,11 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>437</v>
       </c>
@@ -2865,12 +2889,11 @@
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>438</v>
       </c>
@@ -2886,12 +2909,11 @@
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>439</v>
       </c>
@@ -2907,12 +2929,11 @@
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>440</v>
       </c>
@@ -2928,12 +2949,11 @@
       <c r="E11" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>441</v>
       </c>
@@ -2949,12 +2969,11 @@
       <c r="E12" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>442</v>
       </c>
@@ -2970,12 +2989,11 @@
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>443</v>
       </c>
@@ -2991,12 +3009,11 @@
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>444</v>
       </c>
@@ -3012,12 +3029,11 @@
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>445</v>
       </c>
@@ -3033,12 +3049,11 @@
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>446</v>
       </c>
@@ -3054,12 +3069,11 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>447</v>
       </c>
@@ -3075,12 +3089,11 @@
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>448</v>
       </c>
@@ -3096,12 +3109,11 @@
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>449</v>
       </c>
@@ -3117,12 +3129,11 @@
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>450</v>
       </c>
@@ -3138,12 +3149,11 @@
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>451</v>
       </c>
@@ -3159,12 +3169,11 @@
       <c r="E22" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>452</v>
       </c>
@@ -3180,12 +3189,11 @@
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>453</v>
       </c>
@@ -3201,12 +3209,11 @@
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>454</v>
       </c>
@@ -3222,12 +3229,11 @@
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>455</v>
       </c>
@@ -3243,12 +3249,11 @@
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>456</v>
       </c>
@@ -3264,12 +3269,11 @@
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>457</v>
       </c>
@@ -3285,12 +3289,11 @@
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>458</v>
       </c>
@@ -3306,12 +3309,11 @@
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>459</v>
       </c>
@@ -3327,12 +3329,11 @@
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>460</v>
       </c>
@@ -3348,12 +3349,11 @@
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>461</v>
       </c>
@@ -3369,12 +3369,11 @@
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>464</v>
       </c>
@@ -3391,13 +3390,13 @@
         <v>7</v>
       </c>
       <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
         <v>-1</v>
       </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>495</v>
       </c>
@@ -3414,13 +3413,13 @@
         <v>7</v>
       </c>
       <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
         <v>-1</v>
       </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>462</v>
       </c>
@@ -3437,13 +3436,13 @@
         <v>7</v>
       </c>
       <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
         <v>-1</v>
       </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>463</v>
       </c>
@@ -3460,13 +3459,13 @@
         <v>7</v>
       </c>
       <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
         <v>-1</v>
       </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>497</v>
       </c>
@@ -3483,10 +3482,10 @@
         <v>7</v>
       </c>
       <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
         <v>-1</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3505,7 +3504,7 @@
   <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815FEF56-A265-450C-ACCB-25945B983BA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0422A822-67A8-45F0-A551-C0E6AA7097FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Databook Pages" sheetId="7" r:id="rId1"/>
     <sheet name="Compartments" sheetId="1" r:id="rId2"/>
     <sheet name="Transitions" sheetId="2" r:id="rId3"/>
-    <sheet name="Characteristics" sheetId="3" r:id="rId4"/>
+    <sheet name="Characteristics" sheetId="8" r:id="rId4"/>
     <sheet name="Parameters" sheetId="4" r:id="rId5"/>
     <sheet name="Program Types" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -281,7 +281,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{372EC140-ECAE-4029-8208-472BA67BB59C}">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9F1CBF49-B546-4519-ADBD-1C1ABD056371}">
       <text>
         <r>
           <rPr>
@@ -332,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7FE13E9B-AB62-4E65-90B2-C914793EBF3E}">
       <text>
         <r>
           <rPr>
@@ -341,13 +341,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This column currently denotes whether a databook should request
-historical values from the user for this characteristic.
-A value of '-1' suppresses it from appearing in the databook.</t>
+          <t>This column, and any that immediately follow without a specified
+header, is for the 'components' of a cascade characteristic.
+A component is either a compartment or a characteristic that has
+been previously defined, i.e. in a previous row, and should be
+listed in this (and appropriate subsequent columns) by 'Code Name'.
+For example, characteristic 'infected' may include 'dis_stage_1',
+'dis_stage_2' and 'dis_advanced', where 'dis_advanced' is another
+previously-defined characteristic including 'dis_stage_3' and
+'dis_stage_4'.
+In an example model, 'infected' would track population size summed
+across the four 'dis_stage' states.
+Note: If two or more components are listed in the same column, they
+must be separated by a comma.
+Whitespace is allowable and will be deleted during processing.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{73FB3BF4-C6BF-44C5-A4B2-48E11E90FD26}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'denominator' attribute for a 'charac' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7CC2EB5D-C699-4999-9402-99AFDFF2ADAD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'default_value' attribute for a 'charac' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{65665C00-4B48-4F63-A83D-BFD1056963D0}">
       <text>
         <r>
           <rPr>
@@ -374,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{F5D33B24-8673-47D8-A17D-383D1B97E311}">
       <text>
         <r>
           <rPr>
@@ -383,24 +420,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This column, and any that immediately follow without a specified
-header, is for the 'components' of a cascade characteristic.
-A component is either a compartment or a characteristic that has
-been previously defined, i.e. in a previous row, and should be
-listed in this (and appropriate subsequent columns) by 'Code Name'.
-For example, characteristic 'infected' may include 'dis_stage_1',
-'dis_stage_2' and 'dis_advanced', where 'dis_advanced' is another
-previously-defined characteristic including 'dis_stage_3' and
-'dis_stage_4'.
-In an example model, 'infected' would track population size summed
-across the four 'dis_stage' states.
-Note: If two or more components are listed in the same column, they
-must be separated by a comma.
-Whitespace is allowable and will be deleted during processing.</t>
+          <t>This column optionally marks whether a data-input section should
+appear for this characteristic in a custom databook sheet, if allowed
+to appear at all according to 'databook order'.
+Each value should be a code name for a desired page defined in
+the 'custom databook pages' worksheet page.
+If a cell is left empty, the enabled data-input section should appear
+in a default databook page dedicated to state variables.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4BB96F35-C249-49AE-9FB6-7C63D4CCA4CC}">
       <text>
         <r>
           <rPr>
@@ -409,20 +439,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This column defines a 'denominator' attribute for a 'charac' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'default_value' attribute for a 'charac' item.</t>
+          <t>This column currently denotes whether a databook should request
+historical values from the user for this characteristic.
+A value of '-1' suppresses it from appearing in the databook.</t>
         </r>
       </text>
     </comment>
@@ -602,7 +621,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="551">
   <si>
     <t>Code Name</t>
   </si>
@@ -637,366 +656,6 @@
     <t>Default Value</t>
   </si>
   <si>
-    <t>charac_0</t>
-  </si>
-  <si>
-    <t>Characteristic 0</t>
-  </si>
-  <si>
-    <t>charac_1</t>
-  </si>
-  <si>
-    <t>Characteristic 1</t>
-  </si>
-  <si>
-    <t>charac_2</t>
-  </si>
-  <si>
-    <t>Characteristic 2</t>
-  </si>
-  <si>
-    <t>charac_3</t>
-  </si>
-  <si>
-    <t>Characteristic 3</t>
-  </si>
-  <si>
-    <t>charac_4</t>
-  </si>
-  <si>
-    <t>Characteristic 4</t>
-  </si>
-  <si>
-    <t>charac_5</t>
-  </si>
-  <si>
-    <t>Characteristic 5</t>
-  </si>
-  <si>
-    <t>charac_6</t>
-  </si>
-  <si>
-    <t>Characteristic 6</t>
-  </si>
-  <si>
-    <t>charac_7</t>
-  </si>
-  <si>
-    <t>Characteristic 7</t>
-  </si>
-  <si>
-    <t>charac_8</t>
-  </si>
-  <si>
-    <t>Characteristic 8</t>
-  </si>
-  <si>
-    <t>charac_9</t>
-  </si>
-  <si>
-    <t>Characteristic 9</t>
-  </si>
-  <si>
-    <t>charac_10</t>
-  </si>
-  <si>
-    <t>Characteristic 10</t>
-  </si>
-  <si>
-    <t>charac_11</t>
-  </si>
-  <si>
-    <t>Characteristic 11</t>
-  </si>
-  <si>
-    <t>charac_12</t>
-  </si>
-  <si>
-    <t>Characteristic 12</t>
-  </si>
-  <si>
-    <t>charac_13</t>
-  </si>
-  <si>
-    <t>Characteristic 13</t>
-  </si>
-  <si>
-    <t>charac_14</t>
-  </si>
-  <si>
-    <t>Characteristic 14</t>
-  </si>
-  <si>
-    <t>charac_15</t>
-  </si>
-  <si>
-    <t>Characteristic 15</t>
-  </si>
-  <si>
-    <t>charac_16</t>
-  </si>
-  <si>
-    <t>Characteristic 16</t>
-  </si>
-  <si>
-    <t>charac_17</t>
-  </si>
-  <si>
-    <t>Characteristic 17</t>
-  </si>
-  <si>
-    <t>charac_18</t>
-  </si>
-  <si>
-    <t>Characteristic 18</t>
-  </si>
-  <si>
-    <t>charac_19</t>
-  </si>
-  <si>
-    <t>Characteristic 19</t>
-  </si>
-  <si>
-    <t>charac_20</t>
-  </si>
-  <si>
-    <t>Characteristic 20</t>
-  </si>
-  <si>
-    <t>charac_21</t>
-  </si>
-  <si>
-    <t>Characteristic 21</t>
-  </si>
-  <si>
-    <t>charac_22</t>
-  </si>
-  <si>
-    <t>Characteristic 22</t>
-  </si>
-  <si>
-    <t>charac_23</t>
-  </si>
-  <si>
-    <t>Characteristic 23</t>
-  </si>
-  <si>
-    <t>charac_24</t>
-  </si>
-  <si>
-    <t>Characteristic 24</t>
-  </si>
-  <si>
-    <t>charac_25</t>
-  </si>
-  <si>
-    <t>Characteristic 25</t>
-  </si>
-  <si>
-    <t>charac_26</t>
-  </si>
-  <si>
-    <t>Characteristic 26</t>
-  </si>
-  <si>
-    <t>charac_27</t>
-  </si>
-  <si>
-    <t>Characteristic 27</t>
-  </si>
-  <si>
-    <t>charac_28</t>
-  </si>
-  <si>
-    <t>Characteristic 28</t>
-  </si>
-  <si>
-    <t>charac_29</t>
-  </si>
-  <si>
-    <t>Characteristic 29</t>
-  </si>
-  <si>
-    <t>charac_30</t>
-  </si>
-  <si>
-    <t>Characteristic 30</t>
-  </si>
-  <si>
-    <t>charac_31</t>
-  </si>
-  <si>
-    <t>Characteristic 31</t>
-  </si>
-  <si>
-    <t>charac_32</t>
-  </si>
-  <si>
-    <t>Characteristic 32</t>
-  </si>
-  <si>
-    <t>charac_33</t>
-  </si>
-  <si>
-    <t>Characteristic 33</t>
-  </si>
-  <si>
-    <t>charac_34</t>
-  </si>
-  <si>
-    <t>Characteristic 34</t>
-  </si>
-  <si>
-    <t>charac_35</t>
-  </si>
-  <si>
-    <t>Characteristic 35</t>
-  </si>
-  <si>
-    <t>charac_36</t>
-  </si>
-  <si>
-    <t>Characteristic 36</t>
-  </si>
-  <si>
-    <t>charac_37</t>
-  </si>
-  <si>
-    <t>Characteristic 37</t>
-  </si>
-  <si>
-    <t>charac_38</t>
-  </si>
-  <si>
-    <t>Characteristic 38</t>
-  </si>
-  <si>
-    <t>charac_39</t>
-  </si>
-  <si>
-    <t>Characteristic 39</t>
-  </si>
-  <si>
-    <t>charac_40</t>
-  </si>
-  <si>
-    <t>Characteristic 40</t>
-  </si>
-  <si>
-    <t>charac_41</t>
-  </si>
-  <si>
-    <t>Characteristic 41</t>
-  </si>
-  <si>
-    <t>charac_42</t>
-  </si>
-  <si>
-    <t>Characteristic 42</t>
-  </si>
-  <si>
-    <t>charac_43</t>
-  </si>
-  <si>
-    <t>Characteristic 43</t>
-  </si>
-  <si>
-    <t>charac_44</t>
-  </si>
-  <si>
-    <t>Characteristic 44</t>
-  </si>
-  <si>
-    <t>charac_45</t>
-  </si>
-  <si>
-    <t>Characteristic 45</t>
-  </si>
-  <si>
-    <t>charac_46</t>
-  </si>
-  <si>
-    <t>Characteristic 46</t>
-  </si>
-  <si>
-    <t>charac_47</t>
-  </si>
-  <si>
-    <t>Characteristic 47</t>
-  </si>
-  <si>
-    <t>charac_48</t>
-  </si>
-  <si>
-    <t>Characteristic 48</t>
-  </si>
-  <si>
-    <t>charac_49</t>
-  </si>
-  <si>
-    <t>Characteristic 49</t>
-  </si>
-  <si>
-    <t>charac_50</t>
-  </si>
-  <si>
-    <t>Characteristic 50</t>
-  </si>
-  <si>
-    <t>charac_51</t>
-  </si>
-  <si>
-    <t>Characteristic 51</t>
-  </si>
-  <si>
-    <t>charac_52</t>
-  </si>
-  <si>
-    <t>Characteristic 52</t>
-  </si>
-  <si>
-    <t>charac_53</t>
-  </si>
-  <si>
-    <t>Characteristic 53</t>
-  </si>
-  <si>
-    <t>charac_54</t>
-  </si>
-  <si>
-    <t>Characteristic 54</t>
-  </si>
-  <si>
-    <t>charac_55</t>
-  </si>
-  <si>
-    <t>Characteristic 55</t>
-  </si>
-  <si>
-    <t>charac_56</t>
-  </si>
-  <si>
-    <t>Characteristic 56</t>
-  </si>
-  <si>
-    <t>charac_57</t>
-  </si>
-  <si>
-    <t>Characteristic 57</t>
-  </si>
-  <si>
-    <t>charac_58</t>
-  </si>
-  <si>
-    <t>Characteristic 58</t>
-  </si>
-  <si>
-    <t>charac_59</t>
-  </si>
-  <si>
-    <t>Characteristic 59</t>
-  </si>
-  <si>
     <t>Format</t>
   </si>
   <si>
@@ -1918,12 +1577,6 @@
     <t>ltr</t>
   </si>
   <si>
-    <t>lted</t>
-  </si>
-  <si>
-    <t>ltld</t>
-  </si>
-  <si>
     <t>acj</t>
   </si>
   <si>
@@ -1999,12 +1652,6 @@
     <t>bir</t>
   </si>
   <si>
-    <t>Early latent untreated</t>
-  </si>
-  <si>
-    <t>Late latent untreated</t>
-  </si>
-  <si>
     <t>Successfully treated (latent)</t>
   </si>
   <si>
@@ -2026,9 +1673,6 @@
     <t>DS-SP undiagnosed</t>
   </si>
   <si>
-    <t>DS-SP diagnosed</t>
-  </si>
-  <si>
     <t>DS-SP on treatment</t>
   </si>
   <si>
@@ -2041,45 +1685,30 @@
     <t>MDR-SP undiagnosed</t>
   </si>
   <si>
-    <t>MDR-SP diagnosed</t>
-  </si>
-  <si>
     <t>MDR-SP on treatment</t>
   </si>
   <si>
     <t>XDR-SP undiagnosed</t>
   </si>
   <si>
-    <t>XDR-SP diagnosed</t>
-  </si>
-  <si>
     <t>XDR-SP on treatment</t>
   </si>
   <si>
     <t>DS-SN undiagnosed</t>
   </si>
   <si>
-    <t>DS-SN diagnosed</t>
-  </si>
-  <si>
     <t>DS-SN on treatment</t>
   </si>
   <si>
     <t>MDR-SN undiagnosed</t>
   </si>
   <si>
-    <t>MDR-SN diagnosed</t>
-  </si>
-  <si>
     <t>MDR-SN on treatment</t>
   </si>
   <si>
     <t>XDR-SN undiagnosed</t>
   </si>
   <si>
-    <t>XDR-SN diagnosed</t>
-  </si>
-  <si>
     <t>XDR-SN on treatment</t>
   </si>
   <si>
@@ -2098,12 +1727,6 @@
     <t>emi</t>
   </si>
   <si>
-    <t>Sink: Cumulative deaths from TB over simulation</t>
-  </si>
-  <si>
-    <t>Sink: Cumulative deaths from non-TB over simulation</t>
-  </si>
-  <si>
     <t>Sink: Cumulative emigration over simulation</t>
   </si>
   <si>
@@ -2177,6 +1800,480 @@
   </si>
   <si>
     <t>Databook Page</t>
+  </si>
+  <si>
+    <t>Early latent untreated (diagnosable)</t>
+  </si>
+  <si>
+    <t>Late latent untreated (diagnosable)</t>
+  </si>
+  <si>
+    <t>ltt_inf</t>
+  </si>
+  <si>
+    <t>ltex</t>
+  </si>
+  <si>
+    <t>ltlx</t>
+  </si>
+  <si>
+    <t>ltx_inf</t>
+  </si>
+  <si>
+    <t>Suspected undiagnosable latent infections</t>
+  </si>
+  <si>
+    <t>Latent infections on treatment</t>
+  </si>
+  <si>
+    <t>lte_inf</t>
+  </si>
+  <si>
+    <t>ltl_inf</t>
+  </si>
+  <si>
+    <t>lt_inf</t>
+  </si>
+  <si>
+    <t>Suspected early latent infections</t>
+  </si>
+  <si>
+    <t>Suspected late latent infections</t>
+  </si>
+  <si>
+    <t>Suspected latent infections</t>
+  </si>
+  <si>
+    <t>ltet, ltlt</t>
+  </si>
+  <si>
+    <t>ltex, ltlx</t>
+  </si>
+  <si>
+    <t>lteu, ltet, ltex</t>
+  </si>
+  <si>
+    <t>ltlu, ltlt, ltlx</t>
+  </si>
+  <si>
+    <t>lte_inf, ltl_inf</t>
+  </si>
+  <si>
+    <t>spdk_inf</t>
+  </si>
+  <si>
+    <t>spmk_inf</t>
+  </si>
+  <si>
+    <t>spxk_inf</t>
+  </si>
+  <si>
+    <t>sndk_inf</t>
+  </si>
+  <si>
+    <t>snmk_inf</t>
+  </si>
+  <si>
+    <t>snxk_inf</t>
+  </si>
+  <si>
+    <t>spd_inf</t>
+  </si>
+  <si>
+    <t>spm_inf</t>
+  </si>
+  <si>
+    <t>spx_inf</t>
+  </si>
+  <si>
+    <t>snd_inf</t>
+  </si>
+  <si>
+    <t>snm_inf</t>
+  </si>
+  <si>
+    <t>snx_inf</t>
+  </si>
+  <si>
+    <t>Known SP drug-susceptible infections</t>
+  </si>
+  <si>
+    <t>Known SP multidrug-resistant infections</t>
+  </si>
+  <si>
+    <t>Known SP extensively drug-resistant infections</t>
+  </si>
+  <si>
+    <t>Known SN drug-susceptible infections</t>
+  </si>
+  <si>
+    <t>Known SN multidrug-resistant infections</t>
+  </si>
+  <si>
+    <t>Known SN extensively drug-resistant infections</t>
+  </si>
+  <si>
+    <t>Suspected SP drug-susceptible infections</t>
+  </si>
+  <si>
+    <t>Suspected SP multidrug-resistant infections</t>
+  </si>
+  <si>
+    <t>Suspected SP extensively drug-resistant infections</t>
+  </si>
+  <si>
+    <t>Suspected SN drug-susceptible infections</t>
+  </si>
+  <si>
+    <t>Suspected SN multidrug-resistant infections</t>
+  </si>
+  <si>
+    <t>Suspected SN extensively drug-resistant infections</t>
+  </si>
+  <si>
+    <t>sp_inf</t>
+  </si>
+  <si>
+    <t>sn_inf</t>
+  </si>
+  <si>
+    <t>ac_inf</t>
+  </si>
+  <si>
+    <t>mdr_inf</t>
+  </si>
+  <si>
+    <t>xdr_inf</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>dr_inf</t>
+  </si>
+  <si>
+    <t>ds_inf</t>
+  </si>
+  <si>
+    <t>Suspected smear-positive infections</t>
+  </si>
+  <si>
+    <t>Suspected smear-negative infections</t>
+  </si>
+  <si>
+    <t>Population size</t>
+  </si>
+  <si>
+    <t>spd_inf, spm_inf, spx_inf</t>
+  </si>
+  <si>
+    <t>snd_inf, snm_inf, snx_inf</t>
+  </si>
+  <si>
+    <t>sp_inf, sn_inf</t>
+  </si>
+  <si>
+    <t>sus, vac, ltr, acr</t>
+  </si>
+  <si>
+    <t>lt_inf, ac_inf</t>
+  </si>
+  <si>
+    <t>mdr_inf, xdr_inf</t>
+  </si>
+  <si>
+    <t>spd_infx</t>
+  </si>
+  <si>
+    <t>spm_infx</t>
+  </si>
+  <si>
+    <t>spx_infx</t>
+  </si>
+  <si>
+    <t>snd_infx</t>
+  </si>
+  <si>
+    <t>snm_infx</t>
+  </si>
+  <si>
+    <t>snx_infx</t>
+  </si>
+  <si>
+    <t>Suspected untreated DS-SP infections</t>
+  </si>
+  <si>
+    <t>Suspected untreated MDR-SP infections</t>
+  </si>
+  <si>
+    <t>Suspected untreated XDR-SP infections</t>
+  </si>
+  <si>
+    <t>Suspected untreated DS-SN infections</t>
+  </si>
+  <si>
+    <t>Suspected untreated MDR-SN infections</t>
+  </si>
+  <si>
+    <t>Suspected untreated XDR-SN infections</t>
+  </si>
+  <si>
+    <t>spd_prevx</t>
+  </si>
+  <si>
+    <t>spm_prevx</t>
+  </si>
+  <si>
+    <t>spx_prevx</t>
+  </si>
+  <si>
+    <t>snd_prevx</t>
+  </si>
+  <si>
+    <t>snm_prevx</t>
+  </si>
+  <si>
+    <t>snx_prevx</t>
+  </si>
+  <si>
+    <t>Suspected untreated DS-SP prevalence</t>
+  </si>
+  <si>
+    <t>Suspected untreated MDR-SP prevalence</t>
+  </si>
+  <si>
+    <t>Suspected untreated XDR-SP prevalence</t>
+  </si>
+  <si>
+    <t>Suspected untreated DS-SN prevalence</t>
+  </si>
+  <si>
+    <t>Suspected untreated MDR-SN prevalence</t>
+  </si>
+  <si>
+    <t>Suspected untreated XDR-SN prevalence</t>
+  </si>
+  <si>
+    <t>lt_prev</t>
+  </si>
+  <si>
+    <t>spd_prev</t>
+  </si>
+  <si>
+    <t>spm_prev</t>
+  </si>
+  <si>
+    <t>spx_prev</t>
+  </si>
+  <si>
+    <t>snd_prev</t>
+  </si>
+  <si>
+    <t>snm_prev</t>
+  </si>
+  <si>
+    <t>snx_prev</t>
+  </si>
+  <si>
+    <t>sp_prev</t>
+  </si>
+  <si>
+    <t>sn_prev</t>
+  </si>
+  <si>
+    <t>Suspected latent prevalence</t>
+  </si>
+  <si>
+    <t>Suspected SP drug-susceptible prevalence</t>
+  </si>
+  <si>
+    <t>Suspected SP multidrug-resistant prevalence</t>
+  </si>
+  <si>
+    <t>Suspected SP extensively drug-resistant prevalence</t>
+  </si>
+  <si>
+    <t>Suspected SN drug-susceptible prevalence</t>
+  </si>
+  <si>
+    <t>Suspected SN multidrug-resistant prevalence</t>
+  </si>
+  <si>
+    <t>Suspected SN extensively drug-resistant prevalence</t>
+  </si>
+  <si>
+    <t>Suspected smear-positive prevalence</t>
+  </si>
+  <si>
+    <t>Suspected smear-negative prevalence</t>
+  </si>
+  <si>
+    <t>ds_prev</t>
+  </si>
+  <si>
+    <t>mdr_prev</t>
+  </si>
+  <si>
+    <t>xdr_prev</t>
+  </si>
+  <si>
+    <t>ac_prev</t>
+  </si>
+  <si>
+    <t>Estimated number of people with active TB</t>
+  </si>
+  <si>
+    <t>Estimated number of people with DS TB</t>
+  </si>
+  <si>
+    <t>Estimated number of people with MDR TB</t>
+  </si>
+  <si>
+    <t>Estimated number of people with XDR TB</t>
+  </si>
+  <si>
+    <t>Estimated number of people with DR TB</t>
+  </si>
+  <si>
+    <t>Suspected DS prevalence</t>
+  </si>
+  <si>
+    <t>Suspected MDR prevalence</t>
+  </si>
+  <si>
+    <t>Suspected XDR prevalence</t>
+  </si>
+  <si>
+    <t>DS-SP diagnosed but not on treatment</t>
+  </si>
+  <si>
+    <t>MDR-SP diagnosed but not on treatment</t>
+  </si>
+  <si>
+    <t>XDR-SP diagnosed but not on treatment</t>
+  </si>
+  <si>
+    <t>DS-SN diagnosed but not on treatment</t>
+  </si>
+  <si>
+    <t>MDR-SN diagnosed but not on treatment</t>
+  </si>
+  <si>
+    <t>XDR-SN diagnosed but not on treatment</t>
+  </si>
+  <si>
+    <t>Sink: Cumulative non-TB deaths over simulation</t>
+  </si>
+  <si>
+    <t>Sink: Cumulative TB deaths over simulation</t>
+  </si>
+  <si>
+    <t>num_undiag_ds</t>
+  </si>
+  <si>
+    <t>num_undiag_mdr</t>
+  </si>
+  <si>
+    <t>num_undiag_xdr</t>
+  </si>
+  <si>
+    <t>num_diag_ds</t>
+  </si>
+  <si>
+    <t>num_diag_mdr</t>
+  </si>
+  <si>
+    <t>num_diag_xdr</t>
+  </si>
+  <si>
+    <t>Suspected active Prevalence</t>
+  </si>
+  <si>
+    <t>num_treat_ds</t>
+  </si>
+  <si>
+    <t>num_treat_mdr</t>
+  </si>
+  <si>
+    <t>num_treat_xdr</t>
+  </si>
+  <si>
+    <t>Suspected undiagnosed DS infections</t>
+  </si>
+  <si>
+    <t>Suspected undiagnosed MDR infections</t>
+  </si>
+  <si>
+    <t>Suspected undiagnosed XDR infections</t>
+  </si>
+  <si>
+    <t>Diagnosed DS infections</t>
+  </si>
+  <si>
+    <t>Diagnosed MDR infections</t>
+  </si>
+  <si>
+    <t>Diagnosed XDR infections</t>
+  </si>
+  <si>
+    <t>DS cases on treatment</t>
+  </si>
+  <si>
+    <t>MDR cases on treatment</t>
+  </si>
+  <si>
+    <t>XDR cases on treatment</t>
+  </si>
+  <si>
+    <t>spdd, spdt</t>
+  </si>
+  <si>
+    <t>spmd, spmt</t>
+  </si>
+  <si>
+    <t>spxd, spxt</t>
+  </si>
+  <si>
+    <t>sndd, sndt</t>
+  </si>
+  <si>
+    <t>snmd, snmt</t>
+  </si>
+  <si>
+    <t>snxd, snxt</t>
+  </si>
+  <si>
+    <t>diag_suff</t>
+  </si>
+  <si>
+    <t>treat_suff</t>
+  </si>
+  <si>
+    <t>Diagnosis sufficiency (known versus suspected infections)</t>
+  </si>
+  <si>
+    <t>Treatment sufficiency (on-treatment versus known infections)</t>
+  </si>
+  <si>
+    <t>known_inf</t>
+  </si>
+  <si>
+    <t>Known active TB infections</t>
+  </si>
+  <si>
+    <t>spdk_inf, spmk_inf, spxk_inf</t>
+  </si>
+  <si>
+    <t>sndk_inf, snmk_inf, snxk_inf</t>
+  </si>
+  <si>
+    <t>num_treat</t>
+  </si>
+  <si>
+    <t>TB cases on treatment</t>
+  </si>
+  <si>
+    <t>num_treat_mdr, num_treat_xdr</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2257,6 +2354,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2600,7 +2716,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2611,90 +2727,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>502</v>
+        <v>370</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>503</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>504</v>
+        <v>372</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>505</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>506</v>
+        <v>374</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>507</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>508</v>
+        <v>376</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>509</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>510</v>
+        <v>378</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>511</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>512</v>
+        <v>380</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>513</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>515</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>516</v>
+        <v>384</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>517</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>518</v>
+        <v>386</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>519</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>520</v>
+        <v>388</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>521</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>522</v>
+        <v>390</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>523</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -2707,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2719,8 +2835,8 @@
     <col min="4" max="4" width="5.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -2742,8 +2858,8 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>524</v>
+      <c r="G1" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -2751,10 +2867,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -2765,20 +2881,19 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2">
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
         <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>432</v>
+        <v>312</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -2789,16 +2904,19 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -2809,16 +2927,19 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>476</v>
+        <v>351</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -2829,16 +2950,19 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>466</v>
+        <v>394</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -2849,16 +2973,19 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>436</v>
+        <v>316</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>477</v>
+        <v>352</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -2869,16 +2996,19 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>437</v>
+        <v>317</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>467</v>
+        <v>343</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -2889,16 +3019,19 @@
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>468</v>
+        <v>344</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -2909,16 +3042,19 @@
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>469</v>
+        <v>345</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -2929,16 +3065,19 @@
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>471</v>
+        <v>347</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -2947,18 +3086,21 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
+        <v>369</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>441</v>
+        <v>319</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>470</v>
+        <v>346</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -2967,18 +3109,21 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
+        <v>369</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>442</v>
+        <v>320</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>473</v>
+        <v>349</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -2989,16 +3134,19 @@
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>443</v>
+        <v>321</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -3009,16 +3157,19 @@
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="2">
-        <v>1</v>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
@@ -3029,16 +3180,19 @@
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>445</v>
+        <v>323</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>478</v>
+        <v>353</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -3049,16 +3203,19 @@
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>446</v>
+        <v>324</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
@@ -3069,16 +3226,19 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>447</v>
+        <v>325</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -3089,16 +3249,19 @@
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>448</v>
+        <v>326</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>481</v>
+        <v>355</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -3109,16 +3272,19 @@
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>449</v>
+        <v>327</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -3129,16 +3295,19 @@
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>450</v>
+        <v>328</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>483</v>
+        <v>356</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
@@ -3149,16 +3318,19 @@
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>451</v>
+        <v>329</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>472</v>
+        <v>348</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -3167,18 +3339,21 @@
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+        <v>369</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>484</v>
+        <v>357</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
@@ -3189,16 +3364,19 @@
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>453</v>
+        <v>331</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
@@ -3209,16 +3387,19 @@
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
-        <v>454</v>
+        <v>332</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>486</v>
+        <v>358</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
@@ -3229,16 +3410,19 @@
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
-        <v>455</v>
+        <v>333</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>487</v>
+        <v>359</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
@@ -3249,16 +3433,19 @@
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
-        <v>456</v>
+        <v>334</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
@@ -3269,16 +3456,19 @@
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>457</v>
+        <v>335</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>489</v>
+        <v>360</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
@@ -3289,16 +3479,19 @@
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
-        <v>458</v>
+        <v>336</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>490</v>
+        <v>361</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
@@ -3309,16 +3502,19 @@
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
-        <v>459</v>
+        <v>337</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
@@ -3329,16 +3525,19 @@
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
-        <v>460</v>
+        <v>338</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>492</v>
+        <v>362</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
@@ -3349,16 +3548,19 @@
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>461</v>
+        <v>339</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>493</v>
+        <v>363</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
@@ -3369,19 +3571,22 @@
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="2">
-        <v>1</v>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>464</v>
+        <v>342</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>494</v>
+        <v>364</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>501</v>
+        <v>369</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>7</v>
@@ -3398,13 +3603,13 @@
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>495</v>
+        <v>365</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>496</v>
+        <v>366</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>501</v>
+        <v>369</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
@@ -3415,22 +3620,23 @@
       <c r="F34" s="4">
         <v>0</v>
       </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="7">
         <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>501</v>
+        <v>369</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -3444,16 +3650,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
-        <v>463</v>
+        <v>341</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>501</v>
+        <v>369</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
@@ -3467,16 +3673,16 @@
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
-        <v>497</v>
+        <v>367</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>500</v>
+        <v>368</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>501</v>
+        <v>369</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
@@ -3484,6 +3690,7 @@
       <c r="F37" s="4">
         <v>0</v>
       </c>
+      <c r="G37" s="11"/>
       <c r="H37" s="7">
         <v>-1</v>
       </c>
@@ -3540,11 +3747,11 @@
       </c>
       <c r="I1" s="1" t="str">
         <f>Compartments!A9</f>
-        <v>lted</v>
+        <v>ltex</v>
       </c>
       <c r="J1" s="1" t="str">
         <f>Compartments!A10</f>
-        <v>ltld</v>
+        <v>ltlx</v>
       </c>
       <c r="K1" s="1" t="str">
         <f>Compartments!A11</f>
@@ -3635,19 +3842,19 @@
         <v>acr</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>464</v>
+        <v>342</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>495</v>
+        <v>365</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>463</v>
+        <v>341</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>497</v>
+        <v>367</v>
       </c>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -3699,13 +3906,13 @@
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="str">
         <f>Compartments!A9</f>
-        <v>lted</v>
+        <v>ltex</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="str">
         <f>Compartments!A10</f>
-        <v>ltld</v>
+        <v>ltlx</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.45">
@@ -3842,27 +4049,27 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>464</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>495</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>463</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>497</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
@@ -3884,1295 +4091,1420 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B4020-084C-4F00-B628-93D126F8BCA7}">
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="7" width="20.73046875" customWidth="1"/>
+    <col min="1" max="1" width="14.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f>Compartments!A2</f>
-        <v>sus</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>CONCATENATE(Compartments!A3,",",A2)</f>
-        <v>vac,charac_0</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F34" si="0">A2</f>
-        <v>charac_0</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f>CONCATENATE(Compartments!A4,",",A3)</f>
-        <v>lteu,charac_1</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_1</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <f>CONCATENATE(Compartments!A5,",",A4)</f>
-        <v>ltet,charac_2</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_2</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <f>CONCATENATE(Compartments!A6,",",A5)</f>
-        <v>ltlu,charac_3</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_3</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f>CONCATENATE(Compartments!A7,",",A6)</f>
-        <v>ltlt,charac_4</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_4</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f>CONCATENATE(Compartments!A8,",",A7)</f>
-        <v>ltr,charac_5</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_5</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f>CONCATENATE(Compartments!A9,",",A8)</f>
-        <v>lted,charac_6</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_6</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f>CONCATENATE(Compartments!A10,",",A9)</f>
-        <v>ltld,charac_7</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_7</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f>CONCATENATE(Compartments!A11,",",A10)</f>
-        <v>acj,charac_8</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_8</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f>CONCATENATE(Compartments!A12,",",A11)</f>
-        <v>spj,charac_9</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_9</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f>CONCATENATE(Compartments!A13,",",A12)</f>
-        <v>spdu,charac_10</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_10</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f>CONCATENATE(Compartments!A14,",",A13)</f>
-        <v>spdd,charac_11</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_11</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="str">
-        <f>CONCATENATE(Compartments!A15,",",A14)</f>
-        <v>spdt,charac_12</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_12</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="str">
-        <f>CONCATENATE(Compartments!A16,",",A15)</f>
-        <v>spmu,charac_13</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_13</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f>CONCATENATE(Compartments!A17,",",A16)</f>
-        <v>spmd,charac_14</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_14</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f>CONCATENATE(Compartments!A18,",",A17)</f>
-        <v>spmt,charac_15</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_15</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="str">
-        <f>CONCATENATE(Compartments!A19,",",A18)</f>
-        <v>spxu,charac_16</v>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_16</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="str">
-        <f>CONCATENATE(Compartments!A20,",",A19)</f>
-        <v>spxd,charac_17</v>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_17</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f>CONCATENATE(Compartments!A21,",",A20)</f>
-        <v>spxt,charac_18</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_18</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="str">
-        <f>CONCATENATE(Compartments!A22,",",A21)</f>
-        <v>snj,charac_19</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_19</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="str">
-        <f>CONCATENATE(Compartments!A23,",",A22)</f>
-        <v>sndu,charac_20</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_20</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="str">
-        <f>CONCATENATE(Compartments!A24,",",A23)</f>
-        <v>sndd,charac_21</v>
-      </c>
-      <c r="F24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_21</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="str">
-        <f>CONCATENATE(Compartments!A25,",",A24)</f>
-        <v>sndt,charac_22</v>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_22</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="str">
-        <f>CONCATENATE(Compartments!A26,",",A25)</f>
-        <v>snmu,charac_23</v>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_23</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="str">
-        <f>CONCATENATE(Compartments!A27,",",A26)</f>
-        <v>snmd,charac_24</v>
-      </c>
-      <c r="F27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_24</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="str">
-        <f>CONCATENATE(Compartments!A28,",",A27)</f>
-        <v>snmt,charac_25</v>
-      </c>
-      <c r="F28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_25</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="str">
-        <f>CONCATENATE(Compartments!A29,",",A28)</f>
-        <v>snxu,charac_26</v>
-      </c>
-      <c r="F29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_26</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="str">
-        <f>CONCATENATE(Compartments!A30,",",A29)</f>
-        <v>snxd,charac_27</v>
-      </c>
-      <c r="F30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_27</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="str">
-        <f>CONCATENATE(Compartments!A31,",",A30)</f>
-        <v>snxt,charac_28</v>
-      </c>
-      <c r="F31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_28</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="str">
-        <f>CONCATENATE(Compartments!A32,",",A31)</f>
-        <v>acr,charac_29</v>
-      </c>
-      <c r="F32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_29</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="str">
-        <f>CONCATENATE(Compartments!A35,",",A32)</f>
-        <v>ddis,charac_30</v>
-      </c>
-      <c r="F33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_30</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="str">
-        <f>CONCATENATE(Compartments!A36,",",A33)</f>
-        <v>doth,charac_31</v>
-      </c>
-      <c r="F34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>charac_31</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="e">
-        <f>CONCATENATE(Compartments!#REF!,",",A34)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F35" s="2" t="str">
-        <f t="shared" ref="F35:F61" si="1">A34</f>
-        <v>charac_32</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="str">
-        <f>CONCATENATE(Compartments!A37,",",A35)</f>
-        <v>emi,charac_33</v>
-      </c>
-      <c r="F36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_33</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="e">
-        <f>CONCATENATE(Compartments!#REF!,",",A36)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_34</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="e">
-        <f>CONCATENATE(Compartments!#REF!,",",A37)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_35</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="e">
-        <f>CONCATENATE(Compartments!#REF!,",",A38)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_36</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="e">
-        <f>CONCATENATE(Compartments!#REF!,",",A39)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_37</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="e">
-        <f>CONCATENATE(Compartments!#REF!,",",A40)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_38</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="str">
-        <f t="shared" ref="E42:E61" si="2">A41</f>
-        <v>charac_39</v>
-      </c>
-      <c r="F42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_39</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_40</v>
-      </c>
-      <c r="F43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_40</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_41</v>
-      </c>
-      <c r="F44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_41</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_42</v>
-      </c>
-      <c r="F45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_42</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_43</v>
-      </c>
-      <c r="F46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_43</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_44</v>
-      </c>
-      <c r="F47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_44</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_45</v>
-      </c>
-      <c r="F48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_45</v>
-      </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_46</v>
-      </c>
-      <c r="F49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_46</v>
-      </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_47</v>
-      </c>
-      <c r="F50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_47</v>
-      </c>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_48</v>
-      </c>
-      <c r="F51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_48</v>
-      </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_49</v>
-      </c>
-      <c r="F52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_49</v>
-      </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_50</v>
-      </c>
-      <c r="F53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_50</v>
-      </c>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_51</v>
-      </c>
-      <c r="F54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_51</v>
-      </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_52</v>
-      </c>
-      <c r="F55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_52</v>
-      </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_53</v>
-      </c>
-      <c r="F56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_53</v>
-      </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_54</v>
-      </c>
-      <c r="F57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_54</v>
-      </c>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_55</v>
-      </c>
-      <c r="F58" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_55</v>
-      </c>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_56</v>
-      </c>
-      <c r="F59" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_56</v>
-      </c>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_57</v>
-      </c>
-      <c r="F60" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_57</v>
-      </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>charac_58</v>
-      </c>
-      <c r="F61" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>charac_58</v>
-      </c>
-      <c r="G61" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="G64" s="11">
+        <v>1</v>
+      </c>
+      <c r="I64" s="11">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5202,21 +5534,21 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5225,10 +5557,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5237,10 +5569,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5249,10 +5581,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5261,10 +5593,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5273,10 +5605,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5285,10 +5617,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5297,10 +5629,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5309,10 +5641,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5321,10 +5653,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5333,10 +5665,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5345,10 +5677,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5357,10 +5689,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5369,10 +5701,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5381,10 +5713,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5393,10 +5725,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -5405,10 +5737,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -5417,10 +5749,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5429,10 +5761,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -5441,10 +5773,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5453,10 +5785,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5465,10 +5797,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5477,10 +5809,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5489,10 +5821,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5501,10 +5833,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5513,10 +5845,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5525,10 +5857,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5537,10 +5869,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5549,10 +5881,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5561,10 +5893,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5573,10 +5905,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5585,10 +5917,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5597,10 +5929,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5609,10 +5941,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5621,10 +5953,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5633,10 +5965,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5645,10 +5977,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5657,10 +5989,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5669,10 +6001,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5681,10 +6013,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5693,10 +6025,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5705,10 +6037,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5717,10 +6049,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5729,10 +6061,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5741,10 +6073,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5753,10 +6085,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5765,10 +6097,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5777,10 +6109,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5789,10 +6121,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5801,10 +6133,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5813,10 +6145,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5825,10 +6157,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5837,10 +6169,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>237</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5849,10 +6181,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5861,10 +6193,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5873,10 +6205,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5885,10 +6217,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5897,10 +6229,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5909,10 +6241,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5921,10 +6253,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>251</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5933,10 +6265,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5945,10 +6277,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5957,10 +6289,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5969,10 +6301,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5981,10 +6313,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>262</v>
+        <v>142</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5993,10 +6325,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -6005,10 +6337,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -6017,10 +6349,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -6029,10 +6361,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -6041,10 +6373,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -6053,10 +6385,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
-        <v>273</v>
+        <v>153</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>274</v>
+        <v>154</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -6065,10 +6397,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>276</v>
+        <v>156</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -6077,10 +6409,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>278</v>
+        <v>158</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -6089,10 +6421,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -6101,10 +6433,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>281</v>
+        <v>161</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -6113,10 +6445,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -6125,10 +6457,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -6137,10 +6469,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -6149,10 +6481,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -6161,10 +6493,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -6173,10 +6505,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -6185,10 +6517,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -6197,10 +6529,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>298</v>
+        <v>178</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -6209,10 +6541,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -6221,10 +6553,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>301</v>
+        <v>181</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>302</v>
+        <v>182</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -6233,10 +6565,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>304</v>
+        <v>184</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -6245,10 +6577,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -6257,10 +6589,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -6269,10 +6601,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -6281,10 +6613,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
-        <v>311</v>
+        <v>191</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -6293,10 +6625,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>314</v>
+        <v>194</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -6305,10 +6637,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -6317,10 +6649,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -6329,10 +6661,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -6341,10 +6673,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>322</v>
+        <v>202</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -6353,10 +6685,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>323</v>
+        <v>203</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>324</v>
+        <v>204</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -6365,10 +6697,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
-        <v>325</v>
+        <v>205</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -6377,10 +6709,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>328</v>
+        <v>208</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -6389,10 +6721,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>329</v>
+        <v>209</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -6401,10 +6733,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
-        <v>331</v>
+        <v>211</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>332</v>
+        <v>212</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -6413,10 +6745,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>333</v>
+        <v>213</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -6425,10 +6757,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -6437,10 +6769,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
-        <v>337</v>
+        <v>217</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -6449,10 +6781,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -6461,10 +6793,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
-        <v>341</v>
+        <v>221</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>342</v>
+        <v>222</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -6473,10 +6805,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
-        <v>343</v>
+        <v>223</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -6485,10 +6817,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
-        <v>345</v>
+        <v>225</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>346</v>
+        <v>226</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -6497,10 +6829,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -6509,10 +6841,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
-        <v>349</v>
+        <v>229</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -6521,10 +6853,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
-        <v>351</v>
+        <v>231</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -6533,10 +6865,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
-        <v>353</v>
+        <v>233</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>354</v>
+        <v>234</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -6545,10 +6877,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
-        <v>355</v>
+        <v>235</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>356</v>
+        <v>236</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -6557,10 +6889,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
-        <v>357</v>
+        <v>237</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>358</v>
+        <v>238</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -6569,10 +6901,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
-        <v>359</v>
+        <v>239</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -6581,10 +6913,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
-        <v>361</v>
+        <v>241</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>362</v>
+        <v>242</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -6593,10 +6925,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
-        <v>363</v>
+        <v>243</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>364</v>
+        <v>244</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -6605,10 +6937,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>365</v>
+        <v>245</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -6617,10 +6949,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
-        <v>367</v>
+        <v>247</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>368</v>
+        <v>248</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -6629,10 +6961,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -6641,10 +6973,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -6653,10 +6985,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
-        <v>373</v>
+        <v>253</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>374</v>
+        <v>254</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -6665,10 +6997,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
-        <v>375</v>
+        <v>255</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>376</v>
+        <v>256</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -6677,10 +7009,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
-        <v>377</v>
+        <v>257</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>378</v>
+        <v>258</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -6689,10 +7021,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
-        <v>379</v>
+        <v>259</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -6701,10 +7033,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>382</v>
+        <v>262</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -6713,10 +7045,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>384</v>
+        <v>264</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -6725,10 +7057,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>386</v>
+        <v>266</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -6737,10 +7069,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
-        <v>387</v>
+        <v>267</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>388</v>
+        <v>268</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -6749,10 +7081,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
-        <v>389</v>
+        <v>269</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -6761,10 +7093,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
-        <v>391</v>
+        <v>271</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>392</v>
+        <v>272</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -6773,10 +7105,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
-        <v>393</v>
+        <v>273</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>394</v>
+        <v>274</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -6785,10 +7117,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
-        <v>395</v>
+        <v>275</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>396</v>
+        <v>276</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -6797,10 +7129,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -6809,10 +7141,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -6821,10 +7153,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
-        <v>401</v>
+        <v>281</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>402</v>
+        <v>282</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -6833,10 +7165,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -6845,10 +7177,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
-        <v>405</v>
+        <v>285</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -6857,10 +7189,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -6869,10 +7201,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -6881,10 +7213,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>412</v>
+        <v>292</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -6917,18 +7249,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE(A2,"_att_0")</f>
@@ -6961,10 +7293,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>CONCATENATE(A5,"_att_0")</f>
@@ -6997,10 +7329,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>CONCATENATE(A8,"_att_0")</f>
@@ -7033,10 +7365,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>421</v>
+        <v>301</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>CONCATENATE(A11,"_att_0")</f>
@@ -7069,10 +7401,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>424</v>
+        <v>304</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>CONCATENATE(A14,"_att_0")</f>
@@ -7105,10 +7437,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>CONCATENATE(A17,"_att_0")</f>
@@ -7141,10 +7473,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>427</v>
+        <v>307</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="C20" s="2" t="str">
         <f>CONCATENATE(A20,"_att_0")</f>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0422A822-67A8-45F0-A551-C0E6AA7097FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB85650-426A-4B63-A82E-C58E71D56190}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Databook Pages" sheetId="7" r:id="rId1"/>
     <sheet name="Compartments" sheetId="1" r:id="rId2"/>
     <sheet name="Transitions" sheetId="2" r:id="rId3"/>
     <sheet name="Characteristics" sheetId="8" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="4" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="9" r:id="rId5"/>
     <sheet name="Program Types" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
@@ -455,7 +455,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{410F4B41-B661-437F-9D6C-2630D6921AC9}">
       <text>
         <r>
           <rPr>
@@ -477,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0DBC5AF0-C99F-4338-8026-32E47EF8F945}">
       <text>
         <r>
           <rPr>
@@ -500,22 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column currently denotes whether a databook should request
-historical values from the user for this parameter.
-A value of '-1' suppresses it from appearing in the databook.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F0EF727C-04A2-4109-8C11-1B4C84DAE1F7}">
       <text>
         <r>
           <rPr>
@@ -528,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{43BA453A-8744-4032-8E7F-6491B9387A80}">
       <text>
         <r>
           <rPr>
@@ -541,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BAC0C8ED-DDB5-4067-82A2-58808108CB14}">
       <text>
         <r>
           <rPr>
@@ -551,6 +536,40 @@
             <family val="2"/>
           </rPr>
           <t>This column defines a 'func' attribute for a 'par' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column optionally marks whether a data-input section should
+appear for this parameter in a custom databook sheet, if allowed
+to appear at all according to 'databook order'.
+Each value should be a code name for a desired page defined in
+the 'custom databook pages' worksheet page.
+If a cell is left empty, the enabled data-input section should appear
+in a default databook page dedicated to parameters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column currently denotes whether a databook should request
+historical values from the user for this parameter.
+A value of '-1' suppresses it from appearing in the databook.</t>
         </r>
       </text>
     </comment>
@@ -621,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="598">
   <si>
     <t>Code Name</t>
   </si>
@@ -662,30 +681,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>par_0</t>
-  </si>
-  <si>
-    <t>Parameter 0</t>
-  </si>
-  <si>
-    <t>par_1</t>
-  </si>
-  <si>
-    <t>Parameter 1</t>
-  </si>
-  <si>
-    <t>par_2</t>
-  </si>
-  <si>
-    <t>Parameter 2</t>
-  </si>
-  <si>
-    <t>par_3</t>
-  </si>
-  <si>
-    <t>Parameter 3</t>
-  </si>
-  <si>
     <t>par_4</t>
   </si>
   <si>
@@ -2274,6 +2269,171 @@
   </si>
   <si>
     <t>num_treat_mdr, num_treat_xdr</t>
+  </si>
+  <si>
+    <t>b_rate</t>
+  </si>
+  <si>
+    <t>i_rate</t>
+  </si>
+  <si>
+    <t>e_rate</t>
+  </si>
+  <si>
+    <t>doth_rate</t>
+  </si>
+  <si>
+    <t>Number of births</t>
+  </si>
+  <si>
+    <t>Non-TB death rate</t>
+  </si>
+  <si>
+    <t>Emigration rate</t>
+  </si>
+  <si>
+    <t>Number of new immigrants</t>
+  </si>
+  <si>
+    <t>v_rate</t>
+  </si>
+  <si>
+    <t>v_act</t>
+  </si>
+  <si>
+    <t>l_inf</t>
+  </si>
+  <si>
+    <t>le_treat</t>
+  </si>
+  <si>
+    <t>lu_prog</t>
+  </si>
+  <si>
+    <t>le_fail</t>
+  </si>
+  <si>
+    <t>le_succ</t>
+  </si>
+  <si>
+    <t>leu_act</t>
+  </si>
+  <si>
+    <t>ll_treat</t>
+  </si>
+  <si>
+    <t>ll_fail</t>
+  </si>
+  <si>
+    <t>ll_succ</t>
+  </si>
+  <si>
+    <t>lr_act</t>
+  </si>
+  <si>
+    <t>lx_prog</t>
+  </si>
+  <si>
+    <t>llu_act</t>
+  </si>
+  <si>
+    <t>lex_act</t>
+  </si>
+  <si>
+    <t>llx_act</t>
+  </si>
+  <si>
+    <t>p_div</t>
+  </si>
+  <si>
+    <t>n_div</t>
+  </si>
+  <si>
+    <t>pd_div</t>
+  </si>
+  <si>
+    <t>pm_div</t>
+  </si>
+  <si>
+    <t>px_div</t>
+  </si>
+  <si>
+    <t>nd_div</t>
+  </si>
+  <si>
+    <t>nm_div</t>
+  </si>
+  <si>
+    <t>nx_div</t>
+  </si>
+  <si>
+    <t>pd_diag</t>
+  </si>
+  <si>
+    <t>pd_treat</t>
+  </si>
+  <si>
+    <t>pm_treat</t>
+  </si>
+  <si>
+    <t>px_treat</t>
+  </si>
+  <si>
+    <t>nd_treat</t>
+  </si>
+  <si>
+    <t>nm_treat</t>
+  </si>
+  <si>
+    <t>nx_treat</t>
+  </si>
+  <si>
+    <t>pd_fail</t>
+  </si>
+  <si>
+    <t>pd_esc</t>
+  </si>
+  <si>
+    <t>pm_diag</t>
+  </si>
+  <si>
+    <t>pm_fail</t>
+  </si>
+  <si>
+    <t>pm_esc</t>
+  </si>
+  <si>
+    <t>px_diag</t>
+  </si>
+  <si>
+    <t>px_fail</t>
+  </si>
+  <si>
+    <t>nd_diag</t>
+  </si>
+  <si>
+    <t>nd_fail</t>
+  </si>
+  <si>
+    <t>nd_esc</t>
+  </si>
+  <si>
+    <t>nm_diag</t>
+  </si>
+  <si>
+    <t>nm_fail</t>
+  </si>
+  <si>
+    <t>nm_esc</t>
+  </si>
+  <si>
+    <t>nx_diag</t>
+  </si>
+  <si>
+    <t>nx_fail</t>
+  </si>
+  <si>
+    <t>ar_act</t>
   </si>
 </sst>
 </file>
@@ -2727,90 +2887,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -2859,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -2867,10 +3027,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -2890,10 +3050,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -2908,15 +3068,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -2931,15 +3091,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -2954,15 +3114,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -2977,15 +3137,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -3000,15 +3160,15 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -3023,15 +3183,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -3046,15 +3206,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -3069,15 +3229,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -3086,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -3097,10 +3257,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -3109,7 +3269,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -3120,10 +3280,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -3143,10 +3303,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -3166,10 +3326,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
@@ -3184,15 +3344,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -3212,10 +3372,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
@@ -3235,10 +3395,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -3253,15 +3413,15 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -3281,10 +3441,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -3304,10 +3464,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
@@ -3322,15 +3482,15 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -3339,7 +3499,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
@@ -3350,10 +3510,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
@@ -3373,10 +3533,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
@@ -3396,10 +3556,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
@@ -3414,15 +3574,15 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
@@ -3442,10 +3602,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
@@ -3465,10 +3625,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
@@ -3483,15 +3643,15 @@
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
@@ -3511,10 +3671,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
@@ -3534,10 +3694,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
@@ -3552,15 +3712,15 @@
         <v>1</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
@@ -3575,18 +3735,18 @@
         <v>1</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>7</v>
@@ -3603,13 +3763,13 @@
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
@@ -3627,16 +3787,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -3650,16 +3810,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
@@ -3673,16 +3833,16 @@
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
@@ -3710,11 +3870,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK34" sqref="AK34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.53125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.53125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.9296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="str">
@@ -3842,19 +4042,19 @@
         <v>acr</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -3866,222 +4066,709 @@
         <f>Compartments!A2</f>
         <v>sus</v>
       </c>
+      <c r="C2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="str">
         <f>Compartments!A3</f>
         <v>vac</v>
       </c>
+      <c r="I3" t="s">
+        <v>552</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="str">
         <f>Compartments!A4</f>
         <v>lteu</v>
       </c>
+      <c r="E4" t="s">
+        <v>554</v>
+      </c>
+      <c r="F4" t="s">
+        <v>555</v>
+      </c>
+      <c r="K4" t="s">
+        <v>558</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="str">
         <f>Compartments!A5</f>
         <v>ltet</v>
       </c>
+      <c r="D5" t="s">
+        <v>556</v>
+      </c>
+      <c r="H5" t="s">
+        <v>557</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="str">
         <f>Compartments!A6</f>
         <v>ltlu</v>
       </c>
+      <c r="G6" t="s">
+        <v>559</v>
+      </c>
+      <c r="K6" t="s">
+        <v>564</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="str">
         <f>Compartments!A7</f>
         <v>ltlt</v>
       </c>
+      <c r="F7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H7" t="s">
+        <v>561</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="str">
         <f>Compartments!A8</f>
         <v>ltr</v>
       </c>
+      <c r="I8" t="s">
+        <v>562</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="str">
         <f>Compartments!A9</f>
         <v>ltex</v>
       </c>
+      <c r="J9" t="s">
+        <v>563</v>
+      </c>
+      <c r="K9" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="str">
         <f>Compartments!A10</f>
         <v>ltlx</v>
       </c>
+      <c r="K10" t="s">
+        <v>566</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK10" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="str">
         <f>Compartments!A11</f>
         <v>acj</v>
       </c>
+      <c r="L11" t="s">
+        <v>567</v>
+      </c>
+      <c r="V11" t="s">
+        <v>568</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="str">
         <f>Compartments!A12</f>
         <v>spj</v>
       </c>
+      <c r="M12" t="s">
+        <v>569</v>
+      </c>
+      <c r="P12" t="s">
+        <v>570</v>
+      </c>
+      <c r="S12" t="s">
+        <v>571</v>
+      </c>
+      <c r="AJ12" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="str">
         <f>Compartments!A13</f>
         <v>spdu</v>
       </c>
+      <c r="N13" t="s">
+        <v>575</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="str">
         <f>Compartments!A14</f>
         <v>spdd</v>
       </c>
+      <c r="O14" t="s">
+        <v>576</v>
+      </c>
+      <c r="AJ14" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="str">
         <f>Compartments!A15</f>
         <v>spdt</v>
       </c>
+      <c r="N15" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>583</v>
+      </c>
+      <c r="AJ15" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK15" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="str">
         <f>Compartments!A16</f>
         <v>spmu</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="Q16" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ16" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK16" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="str">
         <f>Compartments!A17</f>
         <v>spmd</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="R17" t="s">
+        <v>577</v>
+      </c>
+      <c r="AJ17" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK17" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="str">
         <f>Compartments!A18</f>
         <v>spmt</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="Q18" t="s">
+        <v>585</v>
+      </c>
+      <c r="T18" t="s">
+        <v>586</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="str">
         <f>Compartments!A19</f>
         <v>spxu</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="T19" t="s">
+        <v>587</v>
+      </c>
+      <c r="AJ19" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK19" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="str">
         <f>Compartments!A20</f>
         <v>spxd</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="U20" t="s">
+        <v>578</v>
+      </c>
+      <c r="AJ20" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK20" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="str">
         <f>Compartments!A21</f>
         <v>spxt</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="T21" t="s">
+        <v>588</v>
+      </c>
+      <c r="AJ21" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK21" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="str">
         <f>Compartments!A22</f>
         <v>snj</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="W22" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>574</v>
+      </c>
+      <c r="AJ22" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK22" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="str">
         <f>Compartments!A23</f>
         <v>sndu</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="X23" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AJ23" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK23" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="str">
         <f>Compartments!A24</f>
         <v>sndd</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AJ24" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK24" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="str">
         <f>Compartments!A25</f>
         <v>sndt</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="X25" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AJ25" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK25" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="str">
         <f>Compartments!A26</f>
         <v>snmu</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AJ26" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK26" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="str">
         <f>Compartments!A27</f>
         <v>snmd</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AJ27" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK27" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="str">
         <f>Compartments!A28</f>
         <v>snmt</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="AE28" s="10"/>
+      <c r="AJ28" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK28" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="str">
         <f>Compartments!A29</f>
         <v>snxu</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE29" s="10"/>
+      <c r="AJ29" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK29" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="str">
         <f>Compartments!A30</f>
         <v>snxd</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="AJ30" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK30" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="str">
         <f>Compartments!A31</f>
         <v>snxt</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE31" s="10"/>
+      <c r="AJ31" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK31" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="str">
         <f>Compartments!A32</f>
         <v>acr</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="K32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ32" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AK32" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+        <v>334</v>
+      </c>
+      <c r="B33" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+        <v>357</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="AB34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE34" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF34" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+        <v>332</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+        <v>333</v>
+      </c>
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+        <v>359</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -4094,7 +4781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B4020-084C-4F00-B628-93D126F8BCA7}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -4133,7 +4820,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>5</v>
@@ -4141,13 +4828,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7">
@@ -4160,13 +4847,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7">
@@ -4179,13 +4866,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>409</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7">
@@ -4198,13 +4885,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>402</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>410</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7">
@@ -4217,13 +4904,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>411</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7">
@@ -4236,148 +4923,148 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7">
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7">
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7">
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7">
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7">
@@ -4390,148 +5077,148 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7">
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7">
         <v>1</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>444</v>
-      </c>
       <c r="C20" s="11" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7">
@@ -4544,16 +5231,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>445</v>
-      </c>
       <c r="C21" s="11" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7">
@@ -4566,16 +5253,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7">
@@ -4588,16 +5275,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7">
@@ -4610,16 +5297,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7">
@@ -4632,13 +5319,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7">
@@ -4651,16 +5338,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7">
@@ -4673,38 +5360,38 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7">
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7">
@@ -4717,16 +5404,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7">
@@ -4739,16 +5426,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7">
@@ -4761,16 +5448,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7">
@@ -4783,16 +5470,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7">
@@ -4805,16 +5492,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7">
@@ -4827,16 +5514,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7">
@@ -4849,16 +5536,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7">
@@ -4871,16 +5558,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7">
@@ -4893,16 +5580,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7">
@@ -4915,16 +5602,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7">
@@ -4937,16 +5624,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7">
@@ -4959,16 +5646,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7">
@@ -4981,16 +5668,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7">
@@ -5003,16 +5690,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7">
@@ -5025,16 +5712,16 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7">
@@ -5047,16 +5734,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7">
@@ -5069,16 +5756,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7">
@@ -5091,16 +5778,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7">
@@ -5113,16 +5800,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7">
@@ -5135,16 +5822,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7">
@@ -5157,16 +5844,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7">
@@ -5179,16 +5866,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7">
@@ -5201,16 +5888,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7">
@@ -5223,16 +5910,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7">
@@ -5245,16 +5932,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7">
@@ -5267,16 +5954,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7">
@@ -5289,16 +5976,16 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7">
@@ -5311,16 +5998,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7">
@@ -5333,16 +6020,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7">
@@ -5355,16 +6042,16 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7">
@@ -5377,16 +6064,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7">
@@ -5399,16 +6086,16 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7">
@@ -5421,16 +6108,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7">
@@ -5443,16 +6130,16 @@
     </row>
     <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
@@ -5466,16 +6153,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7">
@@ -5488,16 +6175,16 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G64" s="11">
         <v>1</v>
@@ -5513,1715 +6200,1867 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="20.73046875" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.53125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B34" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B35" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B36" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B38" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B39" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B41" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B42" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B43" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B44" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B45" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B46" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B47" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B48" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B49" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B52" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B53" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B54" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B55" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B56" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B57" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B58" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B59" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B60" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B61" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B62" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B63" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B64" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B65" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B66" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="2" t="s">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B67" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="2" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B68" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="2" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B69" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="2" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B70" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="2" t="s">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B71" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="2" t="s">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B72" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B73" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="2" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B74" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="2" t="s">
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B75" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="2" t="s">
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B76" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="2" t="s">
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B77" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" s="2" t="s">
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B78" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="2" t="s">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B79" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="2" t="s">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B80" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B81" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="2" t="s">
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B82" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="2" t="s">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B83" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="2" t="s">
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B84" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="2" t="s">
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B85" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="2" t="s">
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B86" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="2" t="s">
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B87" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="2" t="s">
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B88" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="2" t="s">
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B89" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="2" t="s">
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B90" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="2" t="s">
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B91" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="2" t="s">
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B92" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="2" t="s">
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B93" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="2" t="s">
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B94" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="2" t="s">
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B95" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A92" s="2" t="s">
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B96" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A93" s="2" t="s">
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B97" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94" s="2" t="s">
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B98" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95" s="2" t="s">
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B99" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A96" s="2" t="s">
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B100" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" s="2" t="s">
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B101" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A98" s="2" t="s">
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B102" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A99" s="2" t="s">
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B103" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A100" s="2" t="s">
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B104" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A101" s="2" t="s">
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B105" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A102" s="2" t="s">
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B106" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A103" s="2" t="s">
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B107" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A104" s="2" t="s">
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B108" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A105" s="2" t="s">
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B109" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A106" s="2" t="s">
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B110" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A107" s="2" t="s">
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B111" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A108" s="2" t="s">
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B112" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A109" s="2" t="s">
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B113" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A110" s="2" t="s">
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B114" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A111" s="2" t="s">
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B115" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A112" s="2" t="s">
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B116" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A113" s="2" t="s">
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B117" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A114" s="2" t="s">
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B118" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A115" s="2" t="s">
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B119" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A116" s="2" t="s">
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B120" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A117" s="2" t="s">
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B121" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A118" s="2" t="s">
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B122" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A119" s="2" t="s">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B123" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A120" s="2" t="s">
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B124" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A121" s="2" t="s">
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B125" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A122" s="2" t="s">
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B126" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A123" s="2" t="s">
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B127" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A124" s="2" t="s">
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B128" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A125" s="2" t="s">
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B129" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A126" s="2" t="s">
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B130" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A127" s="2" t="s">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B131" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A128" s="2" t="s">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B132" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A129" s="2" t="s">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A133" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B133" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A130" s="2" t="s">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A134" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B134" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A131" s="2" t="s">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A135" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B135" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A132" s="2" t="s">
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A136" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B136" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A133" s="2" t="s">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B137" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A134" s="2" t="s">
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B138" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A135" s="2" t="s">
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A139" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B139" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A136" s="2" t="s">
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A140" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B140" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A137" s="2" t="s">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A141" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B141" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A138" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A139" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A140" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A141" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7249,18 +8088,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE(A2,"_att_0")</f>
@@ -7293,10 +8132,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>CONCATENATE(A5,"_att_0")</f>
@@ -7329,10 +8168,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>CONCATENATE(A8,"_att_0")</f>
@@ -7365,10 +8204,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>CONCATENATE(A11,"_att_0")</f>
@@ -7401,10 +8240,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>CONCATENATE(A14,"_att_0")</f>
@@ -7437,10 +8276,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>CONCATENATE(A17,"_att_0")</f>
@@ -7473,10 +8312,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C20" s="2" t="str">
         <f>CONCATENATE(A20,"_att_0")</f>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB85650-426A-4B63-A82E-C58E71D56190}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68124BBB-F46B-4AEB-AC5B-DA8B45A5B0B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="598">
   <si>
     <t>Code Name</t>
   </si>
@@ -3871,8 +3871,8 @@
   <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK34" sqref="AK34"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4650,96 +4650,36 @@
       <c r="B34" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="U34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="V34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="X34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="Y34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="Z34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="AA34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="AB34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="AC34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="AD34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="AE34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="AF34" s="10" t="s">
-        <v>544</v>
-      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68124BBB-F46B-4AEB-AC5B-DA8B45A5B0B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86BAEC3-6403-4932-A5E5-ED2167EAAFD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Databook Pages" sheetId="7" r:id="rId1"/>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="421">
   <si>
     <t>Code Name</t>
   </si>
@@ -681,822 +681,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>par_4</t>
-  </si>
-  <si>
-    <t>Parameter 4</t>
-  </si>
-  <si>
-    <t>par_5</t>
-  </si>
-  <si>
-    <t>Parameter 5</t>
-  </si>
-  <si>
-    <t>par_6</t>
-  </si>
-  <si>
-    <t>Parameter 6</t>
-  </si>
-  <si>
-    <t>par_7</t>
-  </si>
-  <si>
-    <t>Parameter 7</t>
-  </si>
-  <si>
-    <t>par_8</t>
-  </si>
-  <si>
-    <t>Parameter 8</t>
-  </si>
-  <si>
-    <t>par_9</t>
-  </si>
-  <si>
-    <t>Parameter 9</t>
-  </si>
-  <si>
-    <t>par_10</t>
-  </si>
-  <si>
-    <t>Parameter 10</t>
-  </si>
-  <si>
-    <t>par_11</t>
-  </si>
-  <si>
-    <t>Parameter 11</t>
-  </si>
-  <si>
-    <t>par_12</t>
-  </si>
-  <si>
-    <t>Parameter 12</t>
-  </si>
-  <si>
-    <t>par_13</t>
-  </si>
-  <si>
-    <t>Parameter 13</t>
-  </si>
-  <si>
-    <t>par_14</t>
-  </si>
-  <si>
-    <t>Parameter 14</t>
-  </si>
-  <si>
-    <t>par_15</t>
-  </si>
-  <si>
-    <t>Parameter 15</t>
-  </si>
-  <si>
-    <t>par_16</t>
-  </si>
-  <si>
-    <t>Parameter 16</t>
-  </si>
-  <si>
-    <t>par_17</t>
-  </si>
-  <si>
-    <t>Parameter 17</t>
-  </si>
-  <si>
-    <t>par_18</t>
-  </si>
-  <si>
-    <t>Parameter 18</t>
-  </si>
-  <si>
-    <t>par_19</t>
-  </si>
-  <si>
-    <t>Parameter 19</t>
-  </si>
-  <si>
-    <t>par_20</t>
-  </si>
-  <si>
-    <t>Parameter 20</t>
-  </si>
-  <si>
-    <t>par_21</t>
-  </si>
-  <si>
-    <t>Parameter 21</t>
-  </si>
-  <si>
-    <t>par_22</t>
-  </si>
-  <si>
-    <t>Parameter 22</t>
-  </si>
-  <si>
-    <t>par_23</t>
-  </si>
-  <si>
-    <t>Parameter 23</t>
-  </si>
-  <si>
-    <t>par_24</t>
-  </si>
-  <si>
-    <t>Parameter 24</t>
-  </si>
-  <si>
-    <t>par_25</t>
-  </si>
-  <si>
-    <t>Parameter 25</t>
-  </si>
-  <si>
-    <t>par_26</t>
-  </si>
-  <si>
-    <t>Parameter 26</t>
-  </si>
-  <si>
-    <t>par_27</t>
-  </si>
-  <si>
-    <t>Parameter 27</t>
-  </si>
-  <si>
-    <t>par_28</t>
-  </si>
-  <si>
-    <t>Parameter 28</t>
-  </si>
-  <si>
-    <t>par_29</t>
-  </si>
-  <si>
-    <t>Parameter 29</t>
-  </si>
-  <si>
-    <t>par_30</t>
-  </si>
-  <si>
-    <t>Parameter 30</t>
-  </si>
-  <si>
-    <t>par_31</t>
-  </si>
-  <si>
-    <t>Parameter 31</t>
-  </si>
-  <si>
-    <t>par_32</t>
-  </si>
-  <si>
-    <t>Parameter 32</t>
-  </si>
-  <si>
-    <t>par_33</t>
-  </si>
-  <si>
-    <t>Parameter 33</t>
-  </si>
-  <si>
-    <t>par_34</t>
-  </si>
-  <si>
-    <t>Parameter 34</t>
-  </si>
-  <si>
-    <t>par_35</t>
-  </si>
-  <si>
-    <t>Parameter 35</t>
-  </si>
-  <si>
-    <t>par_36</t>
-  </si>
-  <si>
-    <t>Parameter 36</t>
-  </si>
-  <si>
-    <t>par_37</t>
-  </si>
-  <si>
-    <t>Parameter 37</t>
-  </si>
-  <si>
-    <t>par_38</t>
-  </si>
-  <si>
-    <t>Parameter 38</t>
-  </si>
-  <si>
-    <t>par_39</t>
-  </si>
-  <si>
-    <t>Parameter 39</t>
-  </si>
-  <si>
-    <t>par_40</t>
-  </si>
-  <si>
-    <t>Parameter 40</t>
-  </si>
-  <si>
-    <t>par_41</t>
-  </si>
-  <si>
-    <t>Parameter 41</t>
-  </si>
-  <si>
-    <t>par_42</t>
-  </si>
-  <si>
-    <t>Parameter 42</t>
-  </si>
-  <si>
-    <t>par_43</t>
-  </si>
-  <si>
-    <t>Parameter 43</t>
-  </si>
-  <si>
-    <t>par_44</t>
-  </si>
-  <si>
-    <t>Parameter 44</t>
-  </si>
-  <si>
-    <t>par_45</t>
-  </si>
-  <si>
-    <t>Parameter 45</t>
-  </si>
-  <si>
-    <t>par_46</t>
-  </si>
-  <si>
-    <t>Parameter 46</t>
-  </si>
-  <si>
-    <t>par_47</t>
-  </si>
-  <si>
-    <t>Parameter 47</t>
-  </si>
-  <si>
-    <t>par_48</t>
-  </si>
-  <si>
-    <t>Parameter 48</t>
-  </si>
-  <si>
-    <t>par_49</t>
-  </si>
-  <si>
-    <t>Parameter 49</t>
-  </si>
-  <si>
-    <t>par_50</t>
-  </si>
-  <si>
-    <t>Parameter 50</t>
-  </si>
-  <si>
-    <t>par_51</t>
-  </si>
-  <si>
-    <t>Parameter 51</t>
-  </si>
-  <si>
-    <t>par_52</t>
-  </si>
-  <si>
-    <t>Parameter 52</t>
-  </si>
-  <si>
-    <t>par_53</t>
-  </si>
-  <si>
-    <t>Parameter 53</t>
-  </si>
-  <si>
-    <t>par_54</t>
-  </si>
-  <si>
-    <t>Parameter 54</t>
-  </si>
-  <si>
-    <t>par_55</t>
-  </si>
-  <si>
-    <t>Parameter 55</t>
-  </si>
-  <si>
-    <t>par_56</t>
-  </si>
-  <si>
-    <t>Parameter 56</t>
-  </si>
-  <si>
-    <t>par_57</t>
-  </si>
-  <si>
-    <t>Parameter 57</t>
-  </si>
-  <si>
-    <t>par_58</t>
-  </si>
-  <si>
-    <t>Parameter 58</t>
-  </si>
-  <si>
-    <t>par_59</t>
-  </si>
-  <si>
-    <t>Parameter 59</t>
-  </si>
-  <si>
-    <t>par_60</t>
-  </si>
-  <si>
-    <t>Parameter 60</t>
-  </si>
-  <si>
-    <t>par_61</t>
-  </si>
-  <si>
-    <t>Parameter 61</t>
-  </si>
-  <si>
-    <t>par_62</t>
-  </si>
-  <si>
-    <t>Parameter 62</t>
-  </si>
-  <si>
-    <t>par_63</t>
-  </si>
-  <si>
-    <t>Parameter 63</t>
-  </si>
-  <si>
-    <t>par_64</t>
-  </si>
-  <si>
-    <t>Parameter 64</t>
-  </si>
-  <si>
-    <t>par_65</t>
-  </si>
-  <si>
-    <t>Parameter 65</t>
-  </si>
-  <si>
-    <t>par_66</t>
-  </si>
-  <si>
-    <t>Parameter 66</t>
-  </si>
-  <si>
-    <t>par_67</t>
-  </si>
-  <si>
-    <t>Parameter 67</t>
-  </si>
-  <si>
-    <t>par_68</t>
-  </si>
-  <si>
-    <t>Parameter 68</t>
-  </si>
-  <si>
-    <t>par_69</t>
-  </si>
-  <si>
-    <t>Parameter 69</t>
-  </si>
-  <si>
-    <t>par_70</t>
-  </si>
-  <si>
-    <t>Parameter 70</t>
-  </si>
-  <si>
-    <t>par_71</t>
-  </si>
-  <si>
-    <t>Parameter 71</t>
-  </si>
-  <si>
-    <t>par_72</t>
-  </si>
-  <si>
-    <t>Parameter 72</t>
-  </si>
-  <si>
-    <t>par_73</t>
-  </si>
-  <si>
-    <t>Parameter 73</t>
-  </si>
-  <si>
-    <t>par_74</t>
-  </si>
-  <si>
-    <t>Parameter 74</t>
-  </si>
-  <si>
-    <t>par_75</t>
-  </si>
-  <si>
-    <t>Parameter 75</t>
-  </si>
-  <si>
-    <t>par_76</t>
-  </si>
-  <si>
-    <t>Parameter 76</t>
-  </si>
-  <si>
-    <t>par_77</t>
-  </si>
-  <si>
-    <t>Parameter 77</t>
-  </si>
-  <si>
-    <t>par_78</t>
-  </si>
-  <si>
-    <t>Parameter 78</t>
-  </si>
-  <si>
-    <t>par_79</t>
-  </si>
-  <si>
-    <t>Parameter 79</t>
-  </si>
-  <si>
-    <t>par_80</t>
-  </si>
-  <si>
-    <t>Parameter 80</t>
-  </si>
-  <si>
-    <t>par_81</t>
-  </si>
-  <si>
-    <t>Parameter 81</t>
-  </si>
-  <si>
-    <t>par_82</t>
-  </si>
-  <si>
-    <t>Parameter 82</t>
-  </si>
-  <si>
-    <t>par_83</t>
-  </si>
-  <si>
-    <t>Parameter 83</t>
-  </si>
-  <si>
-    <t>par_84</t>
-  </si>
-  <si>
-    <t>Parameter 84</t>
-  </si>
-  <si>
-    <t>par_85</t>
-  </si>
-  <si>
-    <t>Parameter 85</t>
-  </si>
-  <si>
-    <t>par_86</t>
-  </si>
-  <si>
-    <t>Parameter 86</t>
-  </si>
-  <si>
-    <t>par_87</t>
-  </si>
-  <si>
-    <t>Parameter 87</t>
-  </si>
-  <si>
-    <t>par_88</t>
-  </si>
-  <si>
-    <t>Parameter 88</t>
-  </si>
-  <si>
-    <t>par_89</t>
-  </si>
-  <si>
-    <t>Parameter 89</t>
-  </si>
-  <si>
-    <t>par_90</t>
-  </si>
-  <si>
-    <t>Parameter 90</t>
-  </si>
-  <si>
-    <t>par_91</t>
-  </si>
-  <si>
-    <t>Parameter 91</t>
-  </si>
-  <si>
-    <t>par_92</t>
-  </si>
-  <si>
-    <t>Parameter 92</t>
-  </si>
-  <si>
-    <t>par_93</t>
-  </si>
-  <si>
-    <t>Parameter 93</t>
-  </si>
-  <si>
-    <t>par_94</t>
-  </si>
-  <si>
-    <t>Parameter 94</t>
-  </si>
-  <si>
-    <t>par_95</t>
-  </si>
-  <si>
-    <t>Parameter 95</t>
-  </si>
-  <si>
-    <t>par_96</t>
-  </si>
-  <si>
-    <t>Parameter 96</t>
-  </si>
-  <si>
-    <t>par_97</t>
-  </si>
-  <si>
-    <t>Parameter 97</t>
-  </si>
-  <si>
-    <t>par_98</t>
-  </si>
-  <si>
-    <t>Parameter 98</t>
-  </si>
-  <si>
-    <t>par_99</t>
-  </si>
-  <si>
-    <t>Parameter 99</t>
-  </si>
-  <si>
-    <t>par_100</t>
-  </si>
-  <si>
-    <t>Parameter 100</t>
-  </si>
-  <si>
-    <t>par_101</t>
-  </si>
-  <si>
-    <t>Parameter 101</t>
-  </si>
-  <si>
-    <t>par_102</t>
-  </si>
-  <si>
-    <t>Parameter 102</t>
-  </si>
-  <si>
-    <t>par_103</t>
-  </si>
-  <si>
-    <t>Parameter 103</t>
-  </si>
-  <si>
-    <t>par_104</t>
-  </si>
-  <si>
-    <t>Parameter 104</t>
-  </si>
-  <si>
-    <t>par_105</t>
-  </si>
-  <si>
-    <t>Parameter 105</t>
-  </si>
-  <si>
-    <t>par_106</t>
-  </si>
-  <si>
-    <t>Parameter 106</t>
-  </si>
-  <si>
-    <t>par_107</t>
-  </si>
-  <si>
-    <t>Parameter 107</t>
-  </si>
-  <si>
-    <t>par_108</t>
-  </si>
-  <si>
-    <t>Parameter 108</t>
-  </si>
-  <si>
-    <t>par_109</t>
-  </si>
-  <si>
-    <t>Parameter 109</t>
-  </si>
-  <si>
-    <t>par_110</t>
-  </si>
-  <si>
-    <t>Parameter 110</t>
-  </si>
-  <si>
-    <t>par_111</t>
-  </si>
-  <si>
-    <t>Parameter 111</t>
-  </si>
-  <si>
-    <t>par_112</t>
-  </si>
-  <si>
-    <t>Parameter 112</t>
-  </si>
-  <si>
-    <t>par_113</t>
-  </si>
-  <si>
-    <t>Parameter 113</t>
-  </si>
-  <si>
-    <t>par_114</t>
-  </si>
-  <si>
-    <t>Parameter 114</t>
-  </si>
-  <si>
-    <t>par_115</t>
-  </si>
-  <si>
-    <t>Parameter 115</t>
-  </si>
-  <si>
-    <t>par_116</t>
-  </si>
-  <si>
-    <t>Parameter 116</t>
-  </si>
-  <si>
-    <t>par_117</t>
-  </si>
-  <si>
-    <t>Parameter 117</t>
-  </si>
-  <si>
-    <t>par_118</t>
-  </si>
-  <si>
-    <t>Parameter 118</t>
-  </si>
-  <si>
-    <t>par_119</t>
-  </si>
-  <si>
-    <t>Parameter 119</t>
-  </si>
-  <si>
-    <t>par_120</t>
-  </si>
-  <si>
-    <t>Parameter 120</t>
-  </si>
-  <si>
-    <t>par_121</t>
-  </si>
-  <si>
-    <t>Parameter 121</t>
-  </si>
-  <si>
-    <t>par_122</t>
-  </si>
-  <si>
-    <t>Parameter 122</t>
-  </si>
-  <si>
-    <t>par_123</t>
-  </si>
-  <si>
-    <t>Parameter 123</t>
-  </si>
-  <si>
-    <t>par_124</t>
-  </si>
-  <si>
-    <t>Parameter 124</t>
-  </si>
-  <si>
-    <t>par_125</t>
-  </si>
-  <si>
-    <t>Parameter 125</t>
-  </si>
-  <si>
-    <t>par_126</t>
-  </si>
-  <si>
-    <t>Parameter 126</t>
-  </si>
-  <si>
-    <t>par_127</t>
-  </si>
-  <si>
-    <t>Parameter 127</t>
-  </si>
-  <si>
-    <t>par_128</t>
-  </si>
-  <si>
-    <t>Parameter 128</t>
-  </si>
-  <si>
-    <t>par_129</t>
-  </si>
-  <si>
-    <t>Parameter 129</t>
-  </si>
-  <si>
-    <t>par_130</t>
-  </si>
-  <si>
-    <t>Parameter 130</t>
-  </si>
-  <si>
-    <t>par_131</t>
-  </si>
-  <si>
-    <t>Parameter 131</t>
-  </si>
-  <si>
-    <t>par_132</t>
-  </si>
-  <si>
-    <t>Parameter 132</t>
-  </si>
-  <si>
-    <t>par_133</t>
-  </si>
-  <si>
-    <t>Parameter 133</t>
-  </si>
-  <si>
-    <t>par_134</t>
-  </si>
-  <si>
-    <t>Parameter 134</t>
-  </si>
-  <si>
-    <t>par_135</t>
-  </si>
-  <si>
-    <t>Parameter 135</t>
-  </si>
-  <si>
-    <t>par_136</t>
-  </si>
-  <si>
-    <t>Parameter 136</t>
-  </si>
-  <si>
-    <t>par_137</t>
-  </si>
-  <si>
-    <t>Parameter 137</t>
-  </si>
-  <si>
-    <t>par_138</t>
-  </si>
-  <si>
-    <t>Parameter 138</t>
-  </si>
-  <si>
-    <t>par_139</t>
-  </si>
-  <si>
-    <t>Parameter 139</t>
-  </si>
-  <si>
     <t>Attribute Code Name</t>
   </si>
   <si>
@@ -2298,9 +1482,6 @@
     <t>v_rate</t>
   </si>
   <si>
-    <t>v_act</t>
-  </si>
-  <si>
     <t>l_inf</t>
   </si>
   <si>
@@ -2328,9 +1509,6 @@
     <t>ll_succ</t>
   </si>
   <si>
-    <t>lr_act</t>
-  </si>
-  <si>
     <t>lx_prog</t>
   </si>
   <si>
@@ -2434,6 +1612,297 @@
   </si>
   <si>
     <t>ar_act</t>
+  </si>
+  <si>
+    <t>pd_rec</t>
+  </si>
+  <si>
+    <t>pd_succ</t>
+  </si>
+  <si>
+    <t>pm_rec</t>
+  </si>
+  <si>
+    <t>pm_succ</t>
+  </si>
+  <si>
+    <t>px_rec</t>
+  </si>
+  <si>
+    <t>px_succ</t>
+  </si>
+  <si>
+    <t>nd_rec</t>
+  </si>
+  <si>
+    <t>nd_succ</t>
+  </si>
+  <si>
+    <t>nm_rec</t>
+  </si>
+  <si>
+    <t>nm_succ</t>
+  </si>
+  <si>
+    <t>nx_rec</t>
+  </si>
+  <si>
+    <t>nx_succ</t>
+  </si>
+  <si>
+    <t>pd_term</t>
+  </si>
+  <si>
+    <t>pd_sad</t>
+  </si>
+  <si>
+    <t>pm_term</t>
+  </si>
+  <si>
+    <t>pm_sad</t>
+  </si>
+  <si>
+    <t>px_term</t>
+  </si>
+  <si>
+    <t>px_sad</t>
+  </si>
+  <si>
+    <t>nd_term</t>
+  </si>
+  <si>
+    <t>nd_sad</t>
+  </si>
+  <si>
+    <t>nm_term</t>
+  </si>
+  <si>
+    <t>nm_sad</t>
+  </si>
+  <si>
+    <t>nx_term</t>
+  </si>
+  <si>
+    <t>nx_sad</t>
+  </si>
+  <si>
+    <t>Vaccination rate</t>
+  </si>
+  <si>
+    <t>Early-LTBI treatment uptake rate</t>
+  </si>
+  <si>
+    <t>Early-LTBI treatment abandonment rate</t>
+  </si>
+  <si>
+    <t>Early-LTBI treatment success rate</t>
+  </si>
+  <si>
+    <t>Late-LTBI treatment uptake rate</t>
+  </si>
+  <si>
+    <t>Late-LTBI treatment abandonment rate</t>
+  </si>
+  <si>
+    <t>Late-LTBI treatment success rate</t>
+  </si>
+  <si>
+    <t>v_inf</t>
+  </si>
+  <si>
+    <t>Early-late LTBI progression rate (diagnosable)</t>
+  </si>
+  <si>
+    <t>Early-late LTBI progression rate (undiagnosable)</t>
+  </si>
+  <si>
+    <t>LTBI-active progression rate (early diagnosable)</t>
+  </si>
+  <si>
+    <t>LTBI-active progression rate (early undiagnosable)</t>
+  </si>
+  <si>
+    <t>LTBI-active progression rate (late diagnosable)</t>
+  </si>
+  <si>
+    <t>LTBI-active progression rate (late undiagnosable)</t>
+  </si>
+  <si>
+    <t>lr_inf</t>
+  </si>
+  <si>
+    <t>Infection rate (vaccinated to undiagnosable latent)</t>
+  </si>
+  <si>
+    <t>Infection rate (susceptible to diagnosable latent)</t>
+  </si>
+  <si>
+    <t>Reinfection rate (recovered latent to undiagnosable latent)</t>
+  </si>
+  <si>
+    <t>Reactivation rate for recovered active cases</t>
+  </si>
+  <si>
+    <t>SP proportion of new active infections</t>
+  </si>
+  <si>
+    <t>SN proportion of new active infections</t>
+  </si>
+  <si>
+    <t>DS proportion of new SP infections</t>
+  </si>
+  <si>
+    <t>MDR proportion of new SP infections</t>
+  </si>
+  <si>
+    <t>XDR proportion of new SP infections</t>
+  </si>
+  <si>
+    <t>DS proportion of new SN infections</t>
+  </si>
+  <si>
+    <t>MDR proportion of new SN infections</t>
+  </si>
+  <si>
+    <t>XDR proportion of new SN infections</t>
+  </si>
+  <si>
+    <t>DS-SP diagnosis rate</t>
+  </si>
+  <si>
+    <t>DS-SP treatment uptake rate</t>
+  </si>
+  <si>
+    <t>DS-SP treatment abandonment rate</t>
+  </si>
+  <si>
+    <t>DS-SP treatment success rate</t>
+  </si>
+  <si>
+    <t>MDR-SP diagnosis rate</t>
+  </si>
+  <si>
+    <t>MDR-SP treatment uptake rate</t>
+  </si>
+  <si>
+    <t>MDR-SP treatment abandonment rate</t>
+  </si>
+  <si>
+    <t>MDR-SPtreatment success rate</t>
+  </si>
+  <si>
+    <t>XDR-SP diagnosis rate</t>
+  </si>
+  <si>
+    <t>XDR-SP treatment uptake rate</t>
+  </si>
+  <si>
+    <t>XDR-SP treatment abandonment rate</t>
+  </si>
+  <si>
+    <t>XDR-SP treatment success rate</t>
+  </si>
+  <si>
+    <t>DS-SN diagnosis rate</t>
+  </si>
+  <si>
+    <t>DS-SN treatment uptake rate</t>
+  </si>
+  <si>
+    <t>DS-SN treatment abandonment rate</t>
+  </si>
+  <si>
+    <t>DS-SN treatment success rate</t>
+  </si>
+  <si>
+    <t>MDR-SN diagnosis rate</t>
+  </si>
+  <si>
+    <t>MDR-SN treatment uptake rate</t>
+  </si>
+  <si>
+    <t>MDR-SN treatment abandonment rate</t>
+  </si>
+  <si>
+    <t>MDR-SN treatment success rate</t>
+  </si>
+  <si>
+    <t>XDR-SN diagnosis rate</t>
+  </si>
+  <si>
+    <t>XDR-SN treatment uptake rate</t>
+  </si>
+  <si>
+    <t>XDR-SN treatment abandonment rate</t>
+  </si>
+  <si>
+    <t>XDR-SN treatment success rate</t>
+  </si>
+  <si>
+    <t>DS-SP natural recovery rate</t>
+  </si>
+  <si>
+    <t>MDR-SP natural recovery rate</t>
+  </si>
+  <si>
+    <t>XDR-SP natural recovery rate</t>
+  </si>
+  <si>
+    <t>DS-SN natural recovery rate</t>
+  </si>
+  <si>
+    <t>MDR-SN natural recovery rate</t>
+  </si>
+  <si>
+    <t>XDR-SN natural recovery rate</t>
+  </si>
+  <si>
+    <t>SN DS-MDR escalation rate via improper treatment</t>
+  </si>
+  <si>
+    <t>SN MDR-XDR escalation rate via improper treatment</t>
+  </si>
+  <si>
+    <t>SP DS-MDR escalation rate via improper treatment</t>
+  </si>
+  <si>
+    <t>SP MDR-XDR escalation rate via improper treatment</t>
+  </si>
+  <si>
+    <t>DS-SP death rate (untreated)</t>
+  </si>
+  <si>
+    <t>MDR-SP death rate (untreated)</t>
+  </si>
+  <si>
+    <t>XDR-SP death rate (untreated)</t>
+  </si>
+  <si>
+    <t>DS-SP death rate (treated)</t>
+  </si>
+  <si>
+    <t>MDR-SP death rate (treated)</t>
+  </si>
+  <si>
+    <t>XDR-SP death rate (treated)</t>
+  </si>
+  <si>
+    <t>DS-SN death rate (untreated)</t>
+  </si>
+  <si>
+    <t>MDR-SN death rate (untreated)</t>
+  </si>
+  <si>
+    <t>XDR-SN death rate (untreated)</t>
+  </si>
+  <si>
+    <t>DS-SN death rate (treated)</t>
+  </si>
+  <si>
+    <t>MDR-SN death rate (treated)</t>
+  </si>
+  <si>
+    <t>XDR-SN death rate (treated)</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +1965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2533,6 +2002,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2887,90 +2362,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>362</v>
+        <v>90</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>364</v>
+        <v>92</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>365</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>367</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>368</v>
+        <v>96</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>369</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>370</v>
+        <v>98</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>371</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>372</v>
+        <v>100</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>373</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>374</v>
+        <v>102</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>375</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>376</v>
+        <v>104</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>377</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>379</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>381</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>383</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2983,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3019,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>384</v>
+        <v>112</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -3027,10 +2502,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>302</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -3050,10 +2525,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>303</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -3064,19 +2539,17 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
+      <c r="F3" s="7"/>
       <c r="G3" s="11" t="s">
-        <v>374</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>385</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -3087,19 +2560,17 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="11" t="s">
-        <v>368</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>306</v>
+        <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>343</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -3110,19 +2581,17 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
-        <v>374</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>307</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>386</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -3133,19 +2602,17 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="11" t="s">
-        <v>368</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>308</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -3156,19 +2623,17 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="11" t="s">
-        <v>374</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>309</v>
+        <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>335</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -3179,19 +2644,17 @@
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="11" t="s">
-        <v>368</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>388</v>
+        <v>116</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>336</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -3202,19 +2665,17 @@
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="11" t="s">
-        <v>368</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>389</v>
+        <v>117</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>337</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -3225,19 +2686,17 @@
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="11" t="s">
-        <v>368</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>339</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -3246,7 +2705,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>361</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -3257,10 +2716,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>311</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>338</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -3269,7 +2728,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>361</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -3280,10 +2739,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>341</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -3303,10 +2762,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>499</v>
+        <v>227</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -3326,10 +2785,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>342</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
@@ -3340,19 +2799,17 @@
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="11" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -3372,10 +2829,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>500</v>
+        <v>228</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
@@ -3395,10 +2852,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>346</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -3409,19 +2866,17 @@
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="11" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>318</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>347</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -3441,10 +2896,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>319</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>501</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -3464,10 +2919,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
@@ -3478,19 +2933,17 @@
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="11" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>321</v>
+        <v>49</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>340</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -3499,7 +2952,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>361</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
@@ -3510,10 +2963,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
@@ -3533,10 +2986,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>323</v>
+        <v>51</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>502</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
@@ -3556,10 +3009,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
-        <v>324</v>
+        <v>52</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
@@ -3570,19 +3023,17 @@
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="11" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
@@ -3602,10 +3053,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>503</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
@@ -3625,10 +3076,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>327</v>
+        <v>55</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
@@ -3639,19 +3090,17 @@
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="11" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
-        <v>328</v>
+        <v>56</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
@@ -3671,10 +3120,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>504</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
@@ -3694,10 +3143,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>354</v>
+        <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
@@ -3708,19 +3157,17 @@
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="11" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>355</v>
+        <v>83</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
@@ -3731,22 +3178,20 @@
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="11" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>356</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>361</v>
+        <v>89</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>7</v>
@@ -3763,13 +3208,13 @@
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>357</v>
+        <v>85</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>358</v>
+        <v>86</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>361</v>
+        <v>89</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
@@ -3787,16 +3232,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
-        <v>332</v>
+        <v>60</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>506</v>
+        <v>234</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>361</v>
+        <v>89</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -3810,16 +3255,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
-        <v>333</v>
+        <v>61</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>505</v>
+        <v>233</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>361</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
@@ -3833,16 +3278,16 @@
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
-        <v>359</v>
+        <v>87</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>360</v>
+        <v>88</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>361</v>
+        <v>89</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
@@ -3870,846 +3315,861 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C34" sqref="C34"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.9296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.06640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.06640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.06640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="12" t="str">
         <f>Compartments!A3</f>
         <v>vac</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="12" t="str">
         <f>Compartments!A4</f>
         <v>lteu</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="12" t="str">
         <f>Compartments!A5</f>
         <v>ltet</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="12" t="str">
         <f>Compartments!A6</f>
         <v>ltlu</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="12" t="str">
         <f>Compartments!A7</f>
         <v>ltlt</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="12" t="str">
         <f>Compartments!A8</f>
         <v>ltr</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="12" t="str">
         <f>Compartments!A9</f>
         <v>ltex</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="12" t="str">
         <f>Compartments!A10</f>
         <v>ltlx</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="12" t="str">
         <f>Compartments!A11</f>
         <v>acj</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="12" t="str">
         <f>Compartments!A12</f>
         <v>spj</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="12" t="str">
         <f>Compartments!A13</f>
         <v>spdu</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="12" t="str">
         <f>Compartments!A14</f>
         <v>spdd</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="12" t="str">
         <f>Compartments!A15</f>
         <v>spdt</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="12" t="str">
         <f>Compartments!A16</f>
         <v>spmu</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="12" t="str">
         <f>Compartments!A17</f>
         <v>spmd</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="R1" s="12" t="str">
         <f>Compartments!A18</f>
         <v>spmt</v>
       </c>
-      <c r="S1" s="1" t="str">
+      <c r="S1" s="12" t="str">
         <f>Compartments!A19</f>
         <v>spxu</v>
       </c>
-      <c r="T1" s="1" t="str">
+      <c r="T1" s="12" t="str">
         <f>Compartments!A20</f>
         <v>spxd</v>
       </c>
-      <c r="U1" s="1" t="str">
+      <c r="U1" s="12" t="str">
         <f>Compartments!A21</f>
         <v>spxt</v>
       </c>
-      <c r="V1" s="1" t="str">
+      <c r="V1" s="12" t="str">
         <f>Compartments!A22</f>
         <v>snj</v>
       </c>
-      <c r="W1" s="1" t="str">
+      <c r="W1" s="12" t="str">
         <f>Compartments!A23</f>
         <v>sndu</v>
       </c>
-      <c r="X1" s="1" t="str">
+      <c r="X1" s="12" t="str">
         <f>Compartments!A24</f>
         <v>sndd</v>
       </c>
-      <c r="Y1" s="1" t="str">
+      <c r="Y1" s="12" t="str">
         <f>Compartments!A25</f>
         <v>sndt</v>
       </c>
-      <c r="Z1" s="1" t="str">
+      <c r="Z1" s="12" t="str">
         <f>Compartments!A26</f>
         <v>snmu</v>
       </c>
-      <c r="AA1" s="1" t="str">
+      <c r="AA1" s="12" t="str">
         <f>Compartments!A27</f>
         <v>snmd</v>
       </c>
-      <c r="AB1" s="1" t="str">
+      <c r="AB1" s="12" t="str">
         <f>Compartments!A28</f>
         <v>snmt</v>
       </c>
-      <c r="AC1" s="1" t="str">
+      <c r="AC1" s="12" t="str">
         <f>Compartments!A29</f>
         <v>snxu</v>
       </c>
-      <c r="AD1" s="1" t="str">
+      <c r="AD1" s="12" t="str">
         <f>Compartments!A30</f>
         <v>snxd</v>
       </c>
-      <c r="AE1" s="1" t="str">
+      <c r="AE1" s="12" t="str">
         <f>Compartments!A31</f>
         <v>snxt</v>
       </c>
-      <c r="AF1" s="1" t="str">
+      <c r="AF1" s="12" t="str">
         <f>Compartments!A32</f>
         <v>acr</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
+      <c r="AG1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
       </c>
-      <c r="C2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D2" t="s">
-        <v>553</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>545</v>
+      <c r="C2" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="12" t="str">
         <f>Compartments!A3</f>
         <v>vac</v>
       </c>
-      <c r="I3" t="s">
-        <v>552</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>545</v>
+      <c r="I3" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="12" t="str">
         <f>Compartments!A4</f>
         <v>lteu</v>
       </c>
-      <c r="E4" t="s">
-        <v>554</v>
-      </c>
-      <c r="F4" t="s">
-        <v>555</v>
-      </c>
-      <c r="K4" t="s">
-        <v>558</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK4" s="10" t="s">
-        <v>545</v>
+      <c r="E4" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="12" t="str">
         <f>Compartments!A5</f>
         <v>ltet</v>
       </c>
-      <c r="D5" t="s">
-        <v>556</v>
-      </c>
-      <c r="H5" t="s">
-        <v>557</v>
-      </c>
-      <c r="AJ5" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK5" s="10" t="s">
-        <v>545</v>
+      <c r="D5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="12" t="str">
         <f>Compartments!A6</f>
         <v>ltlu</v>
       </c>
-      <c r="G6" t="s">
-        <v>559</v>
-      </c>
-      <c r="K6" t="s">
-        <v>564</v>
-      </c>
-      <c r="AJ6" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK6" s="10" t="s">
-        <v>545</v>
+      <c r="G6" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK6" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="12" t="str">
         <f>Compartments!A7</f>
         <v>ltlt</v>
       </c>
-      <c r="F7" t="s">
-        <v>560</v>
-      </c>
-      <c r="H7" t="s">
-        <v>561</v>
-      </c>
-      <c r="AJ7" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK7" s="10" t="s">
-        <v>545</v>
+      <c r="F7" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK7" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="12" t="str">
         <f>Compartments!A8</f>
         <v>ltr</v>
       </c>
-      <c r="I8" t="s">
-        <v>562</v>
-      </c>
-      <c r="AJ8" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK8" s="10" t="s">
-        <v>545</v>
+      <c r="I8" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK8" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="12" t="str">
         <f>Compartments!A9</f>
         <v>ltex</v>
       </c>
-      <c r="J9" t="s">
-        <v>563</v>
-      </c>
-      <c r="K9" t="s">
-        <v>565</v>
-      </c>
-      <c r="AJ9" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK9" s="10" t="s">
-        <v>545</v>
+      <c r="J9" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="12" t="str">
         <f>Compartments!A10</f>
         <v>ltlx</v>
       </c>
-      <c r="K10" t="s">
-        <v>566</v>
-      </c>
-      <c r="AJ10" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK10" s="10" t="s">
-        <v>545</v>
+      <c r="K10" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK10" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="12" t="str">
         <f>Compartments!A11</f>
         <v>acj</v>
       </c>
-      <c r="L11" t="s">
-        <v>567</v>
-      </c>
-      <c r="V11" t="s">
-        <v>568</v>
-      </c>
-      <c r="AJ11" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK11" s="10" t="s">
-        <v>545</v>
+      <c r="L11" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK11" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="12" t="str">
         <f>Compartments!A12</f>
         <v>spj</v>
       </c>
-      <c r="M12" t="s">
-        <v>569</v>
-      </c>
-      <c r="P12" t="s">
-        <v>570</v>
-      </c>
-      <c r="S12" t="s">
-        <v>571</v>
-      </c>
-      <c r="AJ12" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK12" s="10" t="s">
-        <v>545</v>
+      <c r="M12" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ12" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK12" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="12" t="str">
         <f>Compartments!A13</f>
         <v>spdu</v>
       </c>
-      <c r="N13" t="s">
-        <v>575</v>
-      </c>
-      <c r="AJ13" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK13" s="10" t="s">
-        <v>545</v>
+      <c r="N13" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI13" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ13" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK13" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="12" t="str">
         <f>Compartments!A14</f>
         <v>spdd</v>
       </c>
-      <c r="O14" t="s">
-        <v>576</v>
-      </c>
-      <c r="AJ14" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK14" s="10" t="s">
-        <v>545</v>
+      <c r="O14" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI14" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK14" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="12" t="str">
         <f>Compartments!A15</f>
         <v>spdt</v>
       </c>
-      <c r="N15" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>583</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK15" s="10" t="s">
-        <v>545</v>
+      <c r="N15" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK15" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="str">
+      <c r="A16" s="12" t="str">
         <f>Compartments!A16</f>
         <v>spmu</v>
       </c>
-      <c r="Q16" t="s">
-        <v>584</v>
-      </c>
-      <c r="AJ16" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK16" s="10" t="s">
-        <v>545</v>
+      <c r="Q16" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF16" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI16" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AJ16" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK16" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="str">
+      <c r="A17" s="12" t="str">
         <f>Compartments!A17</f>
         <v>spmd</v>
       </c>
-      <c r="R17" t="s">
-        <v>577</v>
-      </c>
-      <c r="AJ17" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK17" s="10" t="s">
-        <v>545</v>
+      <c r="R17" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF17" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK17" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="str">
+      <c r="A18" s="12" t="str">
         <f>Compartments!A18</f>
         <v>spmt</v>
       </c>
-      <c r="Q18" t="s">
-        <v>585</v>
-      </c>
-      <c r="T18" t="s">
-        <v>586</v>
-      </c>
-      <c r="AJ18" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>545</v>
+      <c r="Q18" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF18" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="AI18" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK18" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="str">
+      <c r="A19" s="12" t="str">
         <f>Compartments!A19</f>
         <v>spxu</v>
       </c>
-      <c r="T19" t="s">
-        <v>587</v>
-      </c>
-      <c r="AJ19" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK19" s="10" t="s">
-        <v>545</v>
+      <c r="T19" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF19" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="AI19" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK19" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="str">
+      <c r="A20" s="12" t="str">
         <f>Compartments!A20</f>
         <v>spxd</v>
       </c>
-      <c r="U20" t="s">
-        <v>578</v>
-      </c>
-      <c r="AJ20" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK20" s="10" t="s">
-        <v>545</v>
+      <c r="U20" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF20" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="AI20" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="AJ20" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK20" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="str">
+      <c r="A21" s="12" t="str">
         <f>Compartments!A21</f>
         <v>spxt</v>
       </c>
-      <c r="T21" t="s">
-        <v>588</v>
-      </c>
-      <c r="AJ21" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK21" s="10" t="s">
-        <v>545</v>
+      <c r="T21" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF21" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI21" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ21" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK21" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="str">
+      <c r="A22" s="12" t="str">
         <f>Compartments!A22</f>
         <v>snj</v>
       </c>
-      <c r="W22" t="s">
-        <v>572</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>573</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>574</v>
-      </c>
-      <c r="AJ22" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK22" s="10" t="s">
-        <v>545</v>
+      <c r="W22" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z22" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC22" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ22" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK22" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="str">
+      <c r="A23" s="12" t="str">
         <f>Compartments!A23</f>
         <v>sndu</v>
       </c>
-      <c r="X23" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AJ23" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK23" s="10" t="s">
-        <v>545</v>
+      <c r="X23" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF23" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI23" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ23" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK23" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="str">
+      <c r="A24" s="12" t="str">
         <f>Compartments!A24</f>
         <v>sndd</v>
       </c>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AJ24" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK24" s="10" t="s">
-        <v>545</v>
+      <c r="Y24" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF24" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI24" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ24" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK24" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="str">
+      <c r="A25" s="12" t="str">
         <f>Compartments!A25</f>
         <v>sndt</v>
       </c>
-      <c r="X25" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AJ25" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK25" s="10" t="s">
-        <v>545</v>
+      <c r="X25" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF25" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI25" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ25" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK25" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="str">
+      <c r="A26" s="12" t="str">
         <f>Compartments!A26</f>
         <v>snmu</v>
       </c>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AJ26" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK26" s="10" t="s">
-        <v>545</v>
+      <c r="AA26" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF26" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI26" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ26" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK26" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="str">
+      <c r="A27" s="12" t="str">
         <f>Compartments!A27</f>
         <v>snmd</v>
       </c>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AJ27" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK27" s="10" t="s">
-        <v>545</v>
+      <c r="AB27" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF27" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI27" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ27" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK27" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="str">
+      <c r="A28" s="12" t="str">
         <f>Compartments!A28</f>
         <v>snmt</v>
       </c>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="AE28" s="10"/>
-      <c r="AJ28" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK28" s="10" t="s">
-        <v>545</v>
+      <c r="AA28" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD28" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF28" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI28" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ28" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK28" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="str">
+      <c r="A29" s="12" t="str">
         <f>Compartments!A29</f>
         <v>snxu</v>
       </c>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE29" s="10"/>
-      <c r="AJ29" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK29" s="10" t="s">
-        <v>545</v>
+      <c r="AD29" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF29" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI29" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ29" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK29" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="str">
+      <c r="A30" s="12" t="str">
         <f>Compartments!A30</f>
         <v>snxd</v>
       </c>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="AJ30" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK30" s="10" t="s">
-        <v>545</v>
+      <c r="AE30" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF30" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI30" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ30" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK30" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="str">
+      <c r="A31" s="12" t="str">
         <f>Compartments!A31</f>
         <v>snxt</v>
       </c>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="AE31" s="10"/>
-      <c r="AJ31" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK31" s="10" t="s">
-        <v>545</v>
+      <c r="AD31" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF31" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ31" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK31" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="str">
+      <c r="A32" s="12" t="str">
         <f>Compartments!A32</f>
         <v>acr</v>
       </c>
-      <c r="K32" t="s">
-        <v>597</v>
-      </c>
-      <c r="AJ32" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK32" s="10" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B33" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A41" s="1"/>
+      <c r="K32" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ32" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK32" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4722,7 +4182,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4760,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>384</v>
+        <v>112</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>5</v>
@@ -4768,17 +4228,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>387</v>
+        <v>115</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>392</v>
+        <v>120</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>399</v>
+        <v>127</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7">
@@ -4787,17 +4247,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
-        <v>390</v>
+        <v>118</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>391</v>
+        <v>119</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>400</v>
+        <v>128</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="7">
-        <v>1</v>
+      <c r="G3" s="11">
+        <v>0</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="11">
@@ -4806,17 +4266,17 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>393</v>
+        <v>121</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>396</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>401</v>
+        <v>129</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7">
-        <v>1</v>
+      <c r="G4" s="11">
+        <v>0</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="11">
@@ -4825,17 +4285,17 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>394</v>
+        <v>122</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>397</v>
+        <v>125</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>402</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7">
-        <v>1</v>
+      <c r="G5" s="11">
+        <v>0</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="11">
@@ -4844,17 +4304,17 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
-        <v>395</v>
+        <v>123</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>398</v>
+        <v>126</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>403</v>
+        <v>131</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7">
-        <v>1</v>
+      <c r="G6" s="11">
+        <v>0</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="11">
@@ -4863,152 +4323,152 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>404</v>
+        <v>132</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>416</v>
+        <v>144</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7">
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
-        <v>405</v>
+        <v>133</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>417</v>
+        <v>145</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="G8" s="11">
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>406</v>
+        <v>134</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>418</v>
+        <v>146</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>319</v>
+        <v>47</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7">
+      <c r="G9" s="11">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
-        <v>407</v>
+        <v>135</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>419</v>
+        <v>147</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>323</v>
+        <v>51</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>324</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
-        <v>408</v>
+        <v>136</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>420</v>
+        <v>148</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>327</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7">
+      <c r="G11" s="11">
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>409</v>
+        <v>137</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>421</v>
+        <v>149</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7">
+      <c r="G12" s="11">
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>536</v>
+        <v>264</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>537</v>
+        <v>265</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>538</v>
+        <v>266</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>539</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7">
@@ -5017,196 +4477,196 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>422</v>
+        <v>150</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>404</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7">
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>411</v>
+        <v>139</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>423</v>
+        <v>151</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>405</v>
+        <v>133</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7">
+      <c r="G15" s="11">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>412</v>
+        <v>140</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>424</v>
+        <v>152</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>318</v>
+        <v>46</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>406</v>
+        <v>134</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7">
+      <c r="G16" s="11">
         <v>1</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
-        <v>413</v>
+        <v>141</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>425</v>
+        <v>153</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>407</v>
+        <v>135</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="7">
+      <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
-        <v>414</v>
+        <v>142</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>426</v>
+        <v>154</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>408</v>
+        <v>136</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>415</v>
+        <v>143</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>328</v>
+        <v>56</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>409</v>
+        <v>137</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>436</v>
+        <v>164</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>311</v>
+        <v>39</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>439</v>
+        <v>167</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7">
-        <v>-1</v>
-      </c>
+      <c r="H20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>429</v>
+        <v>157</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>437</v>
+        <v>165</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>321</v>
+        <v>49</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>440</v>
+        <v>168</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="7">
+      <c r="G21" s="11">
         <v>1</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11">
-        <v>-1</v>
-      </c>
+      <c r="H21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>435</v>
+        <v>163</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>492</v>
+        <v>220</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>413</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7">
-        <v>1</v>
+      <c r="G22" s="11">
+        <v>0</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="11">
@@ -5215,20 +4675,20 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
-        <v>431</v>
+        <v>159</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>493</v>
+        <v>221</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>411</v>
+        <v>139</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>414</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7">
-        <v>1</v>
+      <c r="G23" s="11">
+        <v>0</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="11">
@@ -5237,20 +4697,20 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
-        <v>432</v>
+        <v>160</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>494</v>
+        <v>222</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>412</v>
+        <v>140</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>415</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="7">
-        <v>1</v>
+      <c r="G24" s="11">
+        <v>0</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="11">
@@ -5259,17 +4719,17 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>434</v>
+        <v>162</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>495</v>
+        <v>223</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>444</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <v>1</v>
+      <c r="G25" s="11">
+        <v>0</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="11">
@@ -5278,64 +4738,64 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>430</v>
+        <v>158</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>491</v>
+        <v>219</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>441</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="7">
+      <c r="G26" s="11">
         <v>1</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="11">
-        <v>-1</v>
-      </c>
+      <c r="H26" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>438</v>
+        <v>166</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>442</v>
+        <v>170</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>443</v>
+        <v>171</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7">
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>364</v>
+        <v>92</v>
       </c>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
-        <v>445</v>
+        <v>173</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>451</v>
+        <v>179</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7">
@@ -5344,20 +4804,20 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
-        <v>446</v>
+        <v>174</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>452</v>
+        <v>180</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="7">
-        <v>1</v>
+      <c r="G29" s="11">
+        <v>0</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="11">
@@ -5366,20 +4826,20 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
-        <v>447</v>
+        <v>175</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>453</v>
+        <v>181</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>318</v>
+        <v>46</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>319</v>
+        <v>47</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="7">
-        <v>1</v>
+      <c r="G30" s="11">
+        <v>0</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="11">
@@ -5388,20 +4848,20 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
-        <v>448</v>
+        <v>176</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>454</v>
+        <v>182</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>323</v>
+        <v>51</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="7">
-        <v>1</v>
+      <c r="G31" s="11">
+        <v>0</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="11">
@@ -5410,20 +4870,20 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
-        <v>449</v>
+        <v>177</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>455</v>
+        <v>183</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="7">
-        <v>1</v>
+      <c r="G32" s="11">
+        <v>0</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="11">
@@ -5432,20 +4892,20 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
-        <v>450</v>
+        <v>178</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>456</v>
+        <v>184</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>328</v>
+        <v>56</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="7">
-        <v>1</v>
+      <c r="G33" s="11">
+        <v>0</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="11">
@@ -5454,20 +4914,20 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
-        <v>457</v>
+        <v>185</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>463</v>
+        <v>191</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>445</v>
+        <v>173</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="7">
-        <v>1</v>
+      <c r="G34" s="11">
+        <v>0</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="11">
@@ -5476,20 +4936,20 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
-        <v>458</v>
+        <v>186</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>464</v>
+        <v>192</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>446</v>
+        <v>174</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="7">
-        <v>1</v>
+      <c r="G35" s="11">
+        <v>0</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="11">
@@ -5498,20 +4958,20 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
-        <v>459</v>
+        <v>187</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>465</v>
+        <v>193</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>447</v>
+        <v>175</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="7">
-        <v>1</v>
+      <c r="G36" s="11">
+        <v>0</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="11">
@@ -5520,20 +4980,20 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
-        <v>460</v>
+        <v>188</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>466</v>
+        <v>194</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>448</v>
+        <v>176</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="7">
-        <v>1</v>
+      <c r="G37" s="11">
+        <v>0</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="11">
@@ -5542,20 +5002,20 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
-        <v>461</v>
+        <v>189</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>467</v>
+        <v>195</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>449</v>
+        <v>177</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="7">
-        <v>1</v>
+      <c r="G38" s="11">
+        <v>0</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="11">
@@ -5564,20 +5024,20 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
-        <v>462</v>
+        <v>190</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>468</v>
+        <v>196</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>450</v>
+        <v>178</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="7">
-        <v>1</v>
+      <c r="G39" s="11">
+        <v>0</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="11">
@@ -5586,20 +5046,20 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
-        <v>469</v>
+        <v>197</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>478</v>
+        <v>206</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>395</v>
+        <v>123</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="7">
-        <v>1</v>
+      <c r="G40" s="11">
+        <v>0</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="11">
@@ -5608,20 +5068,20 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
-        <v>470</v>
+        <v>198</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>479</v>
+        <v>207</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="7">
-        <v>1</v>
+      <c r="G41" s="11">
+        <v>0</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="11">
@@ -5630,20 +5090,20 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
-        <v>471</v>
+        <v>199</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>480</v>
+        <v>208</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>411</v>
+        <v>139</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="7">
-        <v>1</v>
+      <c r="G42" s="11">
+        <v>0</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="11">
@@ -5652,20 +5112,20 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
-        <v>472</v>
+        <v>200</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>481</v>
+        <v>209</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>412</v>
+        <v>140</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F43" s="7"/>
-      <c r="G43" s="7">
-        <v>1</v>
+      <c r="G43" s="11">
+        <v>0</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="11">
@@ -5674,20 +5134,20 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>482</v>
+        <v>210</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>413</v>
+        <v>141</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="7">
-        <v>1</v>
+      <c r="G44" s="11">
+        <v>0</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="11">
@@ -5696,20 +5156,20 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
-        <v>474</v>
+        <v>202</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>483</v>
+        <v>211</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>414</v>
+        <v>142</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="7">
-        <v>1</v>
+      <c r="G45" s="11">
+        <v>0</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="11">
@@ -5718,20 +5178,20 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
-        <v>475</v>
+        <v>203</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>484</v>
+        <v>212</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>415</v>
+        <v>143</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F46" s="7"/>
-      <c r="G46" s="7">
-        <v>1</v>
+      <c r="G46" s="11">
+        <v>0</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="11">
@@ -5740,20 +5200,20 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
-        <v>476</v>
+        <v>204</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>485</v>
+        <v>213</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="7">
-        <v>1</v>
+      <c r="G47" s="11">
+        <v>0</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="11">
@@ -5762,20 +5222,20 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
-        <v>477</v>
+        <v>205</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>486</v>
+        <v>214</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>429</v>
+        <v>157</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="7">
-        <v>1</v>
+      <c r="G48" s="11">
+        <v>0</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="11">
@@ -5784,20 +5244,20 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
-        <v>487</v>
+        <v>215</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>496</v>
+        <v>224</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>435</v>
+        <v>163</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F49" s="7"/>
-      <c r="G49" s="7">
-        <v>1</v>
+      <c r="G49" s="11">
+        <v>0</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="11">
@@ -5806,20 +5266,20 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
-        <v>488</v>
+        <v>216</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>497</v>
+        <v>225</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>431</v>
+        <v>159</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="7">
-        <v>1</v>
+      <c r="G50" s="11">
+        <v>0</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="11">
@@ -5828,20 +5288,20 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
-        <v>489</v>
+        <v>217</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>498</v>
+        <v>226</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>432</v>
+        <v>160</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="7">
-        <v>1</v>
+      <c r="G51" s="11">
+        <v>0</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="11">
@@ -5850,20 +5310,20 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
-        <v>490</v>
+        <v>218</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>513</v>
+        <v>241</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>430</v>
+        <v>158</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>433</v>
+        <v>161</v>
       </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="7">
-        <v>1</v>
+      <c r="G52" s="11">
+        <v>0</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="11">
@@ -5872,20 +5332,20 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
-        <v>507</v>
+        <v>235</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>517</v>
+        <v>245</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="7">
-        <v>1</v>
+      <c r="G53" s="11">
+        <v>0</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="11">
@@ -5894,20 +5354,20 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
-        <v>508</v>
+        <v>236</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>518</v>
+        <v>246</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="7">
-        <v>1</v>
+      <c r="G54" s="11">
+        <v>0</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="11">
@@ -5916,20 +5376,20 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
-        <v>509</v>
+        <v>237</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>519</v>
+        <v>247</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>318</v>
+        <v>46</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>328</v>
+        <v>56</v>
       </c>
       <c r="F55" s="7"/>
-      <c r="G55" s="7">
-        <v>1</v>
+      <c r="G55" s="11">
+        <v>0</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="11">
@@ -5938,20 +5398,20 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
-        <v>510</v>
+        <v>238</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>520</v>
+        <v>248</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>526</v>
+        <v>254</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>529</v>
+        <v>257</v>
       </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="7">
-        <v>1</v>
+      <c r="G56" s="11">
+        <v>0</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="11">
@@ -5960,20 +5420,20 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
-        <v>511</v>
+        <v>239</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>521</v>
+        <v>249</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>527</v>
+        <v>255</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>530</v>
+        <v>258</v>
       </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="7">
-        <v>1</v>
+      <c r="G57" s="11">
+        <v>0</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="11">
@@ -5982,20 +5442,20 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
-        <v>512</v>
+        <v>240</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>522</v>
+        <v>250</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>528</v>
+        <v>256</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>531</v>
+        <v>259</v>
       </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="7">
-        <v>1</v>
+      <c r="G58" s="11">
+        <v>0</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="11">
@@ -6004,20 +5464,20 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
-        <v>514</v>
+        <v>242</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>523</v>
+        <v>251</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>324</v>
+        <v>52</v>
       </c>
       <c r="F59" s="7"/>
-      <c r="G59" s="7">
-        <v>1</v>
+      <c r="G59" s="11">
+        <v>0</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="11">
@@ -6026,20 +5486,20 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
-        <v>515</v>
+        <v>243</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>524</v>
+        <v>252</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>327</v>
+        <v>55</v>
       </c>
       <c r="F60" s="7"/>
-      <c r="G60" s="7">
-        <v>1</v>
+      <c r="G60" s="11">
+        <v>0</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="11">
@@ -6048,20 +5508,20 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
-        <v>516</v>
+        <v>244</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>525</v>
+        <v>253</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="7">
-        <v>1</v>
+      <c r="G61" s="11">
+        <v>0</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="11">
@@ -6070,21 +5530,21 @@
     </row>
     <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
-        <v>540</v>
+        <v>268</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>541</v>
+        <v>269</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>514</v>
+        <v>242</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>542</v>
+        <v>270</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11">
@@ -6093,20 +5553,20 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
-        <v>532</v>
+        <v>260</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>534</v>
+        <v>262</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>536</v>
+        <v>264</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>430</v>
+        <v>158</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="7">
-        <v>1</v>
+      <c r="G63" s="11">
+        <v>0</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="11">
@@ -6115,19 +5575,19 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
-        <v>533</v>
+        <v>261</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>535</v>
+        <v>263</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>540</v>
+        <v>268</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>536</v>
+        <v>264</v>
       </c>
       <c r="G64" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="11">
         <v>-1</v>
@@ -6141,16 +5601,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.53125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.796875" style="10" bestFit="1" customWidth="1"/>
@@ -6159,7 +5619,7 @@
     <col min="8" max="16384" width="9.06640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6176,7 +5636,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>384</v>
+        <v>112</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>5</v>
@@ -6184,10 +5644,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>547</v>
+        <v>271</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -6197,10 +5657,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>548</v>
+        <v>274</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -6210,10 +5670,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>550</v>
+        <v>272</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6223,10 +5683,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>549</v>
+        <v>273</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -6236,10 +5696,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>14</v>
+        <v>279</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -6249,10 +5709,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>16</v>
+        <v>281</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>349</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -6262,10 +5722,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>18</v>
+        <v>283</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -6275,10 +5735,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>20</v>
+        <v>284</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>351</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -6288,10 +5748,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>286</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -6301,10 +5761,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>24</v>
+        <v>287</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>353</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -6314,10 +5774,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>26</v>
+        <v>288</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>354</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -6326,11 +5786,11 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>28</v>
+      <c r="A13" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>356</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -6339,11 +5799,11 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>30</v>
+      <c r="A14" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>357</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -6352,11 +5812,11 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>32</v>
+      <c r="A15" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>358</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -6365,11 +5825,11 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>34</v>
+      <c r="A16" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>359</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -6378,11 +5838,11 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>36</v>
+      <c r="A17" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>360</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -6391,11 +5851,11 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
+      <c r="A18" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>361</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -6405,10 +5865,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>40</v>
+        <v>280</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -6418,10 +5878,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>42</v>
+        <v>355</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -6431,10 +5891,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>44</v>
+        <v>362</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>365</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -6444,10 +5904,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>46</v>
+        <v>323</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -6456,11 +5916,11 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>48</v>
+      <c r="A23" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>367</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -6469,11 +5929,11 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>50</v>
+      <c r="A24" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -6482,11 +5942,11 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>52</v>
+      <c r="A25" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -6495,11 +5955,11 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>54</v>
+      <c r="A26" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -6508,11 +5968,11 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>56</v>
+      <c r="A27" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>371</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -6521,11 +5981,11 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>58</v>
+      <c r="A28" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -6534,11 +5994,11 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>60</v>
+      <c r="A29" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>373</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -6547,11 +6007,11 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>62</v>
+      <c r="A30" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>374</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -6560,11 +6020,11 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>64</v>
+      <c r="A31" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>375</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -6573,11 +6033,11 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>66</v>
+      <c r="A32" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>376</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -6586,11 +6046,11 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>68</v>
+      <c r="A33" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>377</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -6599,11 +6059,11 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>70</v>
+      <c r="A34" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -6612,11 +6072,11 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>72</v>
+      <c r="A35" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>379</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -6625,11 +6085,11 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>74</v>
+      <c r="A36" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>380</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -6638,11 +6098,11 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>76</v>
+      <c r="A37" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>381</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -6651,11 +6111,11 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>78</v>
+      <c r="A38" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>382</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -6664,11 +6124,11 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>80</v>
+      <c r="A39" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>383</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -6677,11 +6137,11 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>82</v>
+      <c r="A40" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>384</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -6690,11 +6150,11 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>84</v>
+      <c r="A41" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -6703,11 +6163,11 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>86</v>
+      <c r="A42" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -6716,11 +6176,11 @@
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>88</v>
+      <c r="A43" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -6729,11 +6189,11 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>90</v>
+      <c r="A44" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -6742,11 +6202,11 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>92</v>
+      <c r="A45" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -6755,11 +6215,11 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>94</v>
+      <c r="A46" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -6768,11 +6228,11 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>96</v>
+      <c r="A47" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -6781,11 +6241,11 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>98</v>
+      <c r="A48" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>392</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -6794,11 +6254,11 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>100</v>
+      <c r="A49" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>393</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -6807,11 +6267,11 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>102</v>
+      <c r="A50" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -6820,11 +6280,11 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>104</v>
+      <c r="A51" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -6833,11 +6293,11 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>106</v>
+      <c r="A52" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>396</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -6846,11 +6306,11 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>108</v>
+      <c r="A53" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>397</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -6859,11 +6319,11 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>110</v>
+      <c r="A54" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>398</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -6872,11 +6332,11 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>112</v>
+      <c r="A55" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>399</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -6885,11 +6345,11 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>114</v>
+      <c r="A56" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>400</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -6898,11 +6358,11 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>116</v>
+      <c r="A57" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>401</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -6911,11 +6371,11 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>118</v>
+      <c r="A58" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>402</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -6924,11 +6384,11 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>120</v>
+      <c r="A59" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>403</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -6937,11 +6397,11 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>122</v>
+      <c r="A60" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -6950,11 +6410,11 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>124</v>
+      <c r="A61" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>405</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -6963,11 +6423,11 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>126</v>
+      <c r="A62" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>406</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -6976,11 +6436,11 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>128</v>
+      <c r="A63" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -6989,11 +6449,11 @@
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>130</v>
+      <c r="A64" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>408</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -7002,11 +6462,11 @@
       <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>132</v>
+      <c r="A65" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>409</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -7015,11 +6475,11 @@
       <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>134</v>
+      <c r="A66" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>410</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -7028,11 +6488,11 @@
       <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>136</v>
+      <c r="A67" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -7041,11 +6501,11 @@
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>138</v>
+      <c r="A68" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>412</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -7054,11 +6514,11 @@
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>140</v>
+      <c r="A69" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>413</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -7067,11 +6527,11 @@
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>142</v>
+      <c r="A70" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>414</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -7080,11 +6540,11 @@
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>144</v>
+      <c r="A71" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>415</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -7093,11 +6553,11 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>146</v>
+      <c r="A72" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>416</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -7106,11 +6566,11 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>148</v>
+      <c r="A73" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>417</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -7119,11 +6579,11 @@
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>150</v>
+      <c r="A74" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -7132,11 +6592,11 @@
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>152</v>
+      <c r="A75" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>419</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -7145,862 +6605,17 @@
       <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>154</v>
+      <c r="A76" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>420</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A87" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A89" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A90" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A91" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A94" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A95" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A96" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A97" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A99" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A100" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A101" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A102" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A103" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A105" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A106" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A107" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A108" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A109" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A110" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A111" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A112" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A113" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A114" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A115" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A116" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A117" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A118" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A119" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A120" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A121" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A122" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A123" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A124" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A125" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A126" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A127" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A128" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A129" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A130" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A131" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A132" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A133" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A134" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A135" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A136" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A137" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A138" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A139" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A140" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A141" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8028,18 +6643,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>CONCATENATE(A2,"_att_0")</f>
@@ -8072,10 +6687,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>CONCATENATE(A5,"_att_0")</f>
@@ -8108,10 +6723,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>CONCATENATE(A8,"_att_0")</f>
@@ -8144,10 +6759,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>CONCATENATE(A11,"_att_0")</f>
@@ -8180,10 +6795,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>295</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>CONCATENATE(A14,"_att_0")</f>
@@ -8216,10 +6831,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>CONCATENATE(A17,"_att_0")</f>
@@ -8252,10 +6867,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="str">
         <f>CONCATENATE(A20,"_att_0")</f>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86BAEC3-6403-4932-A5E5-ED2167EAAFD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4333B03-4EBA-47F3-A0F9-830A6424E3D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Databook Pages" sheetId="7" r:id="rId1"/>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="476">
   <si>
     <t>Code Name</t>
   </si>
@@ -1903,6 +1903,171 @@
   </si>
   <si>
     <t>XDR-SN death rate (treated)</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>l_treat</t>
+  </si>
+  <si>
+    <t>l_fail</t>
+  </si>
+  <si>
+    <t>l_succ</t>
+  </si>
+  <si>
+    <t>LTBI treatment uptake rate</t>
+  </si>
+  <si>
+    <t>LTBI treatment abandonment rate</t>
+  </si>
+  <si>
+    <t>LTBI treatment success rate</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>e_dep</t>
+  </si>
+  <si>
+    <t>l_dep</t>
+  </si>
+  <si>
+    <t>Early latency departure rate</t>
+  </si>
+  <si>
+    <t>Late latency departure rate</t>
+  </si>
+  <si>
+    <t>p_branch</t>
+  </si>
+  <si>
+    <t>Probability of activation versus early-late progression</t>
+  </si>
+  <si>
+    <t>(1-p_branch)*e_dep</t>
+  </si>
+  <si>
+    <t>p_branch*e_dep</t>
+  </si>
+  <si>
+    <t>spd_infxness</t>
+  </si>
+  <si>
+    <t>spm_infxness</t>
+  </si>
+  <si>
+    <t>spx_infxness</t>
+  </si>
+  <si>
+    <t>snd_infxness</t>
+  </si>
+  <si>
+    <t>snm_infxness</t>
+  </si>
+  <si>
+    <t>snx_infxness</t>
+  </si>
+  <si>
+    <t>vac_fac</t>
+  </si>
+  <si>
+    <t>lat_fac</t>
+  </si>
+  <si>
+    <t>sn_fac</t>
+  </si>
+  <si>
+    <t>mdr_fac</t>
+  </si>
+  <si>
+    <t>xdr_fac</t>
+  </si>
+  <si>
+    <t>foi</t>
+  </si>
+  <si>
+    <t>Infection vulnerability factor (vaccinated versus susceptible)</t>
+  </si>
+  <si>
+    <t>Infection vulnerability factor (treated latent versus susceptible)</t>
+  </si>
+  <si>
+    <t>DS-SP infectiousness</t>
+  </si>
+  <si>
+    <t>Relative infectiousness (SN versus SP)</t>
+  </si>
+  <si>
+    <t>Relative infectiousness (MDR versus DS)</t>
+  </si>
+  <si>
+    <t>Relative infectiousness (XDR versus DS)</t>
+  </si>
+  <si>
+    <t>MDR-SP infectiousness</t>
+  </si>
+  <si>
+    <t>XDR-SP infectiousness</t>
+  </si>
+  <si>
+    <t>DS-SN infectiousness</t>
+  </si>
+  <si>
+    <t>MDR-SN infectiousness</t>
+  </si>
+  <si>
+    <t>XDR-SN infectiousness</t>
+  </si>
+  <si>
+    <t>Force of infection</t>
+  </si>
+  <si>
+    <t>foi*lat_fac</t>
+  </si>
+  <si>
+    <t>foi*vac_fac</t>
+  </si>
+  <si>
+    <t>foi_p</t>
+  </si>
+  <si>
+    <t>foi_n</t>
+  </si>
+  <si>
+    <t>Force of infection from SP prevalence</t>
+  </si>
+  <si>
+    <t>Force of infection from SN prevalence</t>
+  </si>
+  <si>
+    <t>spd_infxness*spd_prevx+spm_infxness*spm_prevx+spx_infxness*spx_prevx</t>
+  </si>
+  <si>
+    <t>snd_infxness*snd_prevx+snm_infxness*snm_prevx+snx_infxness*snx_prevx</t>
+  </si>
+  <si>
+    <t>foi_p+foi_n</t>
+  </si>
+  <si>
+    <t>spd_infxness*mdr_fac</t>
+  </si>
+  <si>
+    <t>spd_infxness*xdr_fac</t>
+  </si>
+  <si>
+    <t>sn_fac*spd_infxness*xdr_fac</t>
+  </si>
+  <si>
+    <t>sn_fac*spd_infxness*mdr_fac</t>
+  </si>
+  <si>
+    <t>sn_fac*spd_infxness</t>
+  </si>
+  <si>
+    <t>proportion</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +2130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2008,6 +2173,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3315,9 +3483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ22" sqref="AJ22:AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3674,12 +3842,6 @@
       <c r="V11" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="AJ11" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="str">
@@ -3695,12 +3857,6 @@
       <c r="S12" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="AJ12" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK12" s="11" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="str">
@@ -3910,12 +4066,6 @@
       </c>
       <c r="AC22" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="AJ22" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK22" s="11" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.45">
@@ -5601,19 +5751,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="C43" sqref="C43:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.9296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.06640625" style="10"/>
@@ -5649,10 +5801,14 @@
       <c r="B2" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>421</v>
+      </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -5665,7 +5821,9 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5675,10 +5833,14 @@
       <c r="B4" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>421</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -5691,7 +5853,9 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -5704,587 +5868,771 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
-        <v>281</v>
+        <v>422</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>349</v>
+        <v>425</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>283</v>
+        <v>423</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>284</v>
+        <v>424</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>351</v>
+        <v>427</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" s="11"/>
+        <v>349</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>350</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>423</v>
+      </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B15" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>424</v>
+      </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
-        <v>291</v>
+      <c r="A16" s="11" t="s">
+        <v>429</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>359</v>
+        <v>431</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="13" t="s">
-        <v>290</v>
+      <c r="A17" s="11" t="s">
+        <v>430</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="13" t="s">
-        <v>292</v>
+      <c r="A18" s="11" t="s">
+        <v>433</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>361</v>
+        <v>434</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C19" s="11"/>
+      <c r="A19" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C20" s="11"/>
+      <c r="A20" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C21" s="11"/>
+      <c r="A21" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C22" s="11"/>
+      <c r="A22" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C23" s="11"/>
+        <v>290</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C24" s="11"/>
+        <v>292</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>369</v>
+        <v>443</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>449</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>370</v>
+        <v>444</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>450</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>371</v>
+        <v>437</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>451</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>372</v>
+        <v>445</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>452</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>373</v>
+      <c r="A29" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>453</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>374</v>
+      <c r="A30" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>454</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>375</v>
+        <v>438</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="13" t="s">
+        <v>470</v>
+      </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>376</v>
+        <v>439</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>456</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="13" t="s">
+        <v>471</v>
+      </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>377</v>
+        <v>440</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>457</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>474</v>
+      </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>378</v>
+        <v>441</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>458</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="13" t="s">
+        <v>473</v>
+      </c>
       <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>379</v>
+        <v>442</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="13" t="s">
+        <v>472</v>
+      </c>
       <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>380</v>
+        <v>463</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>465</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>467</v>
+      </c>
       <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>381</v>
+        <v>464</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>466</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>382</v>
+        <v>448</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>460</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="13" t="s">
+        <v>469</v>
+      </c>
       <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="C39" s="11"/>
+      <c r="A39" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="C40" s="11"/>
+      <c r="A40" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>462</v>
+      </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="C41" s="11"/>
+      <c r="A41" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="11" t="s">
+        <v>461</v>
+      </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C42" s="11"/>
+      <c r="A42" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="C43" s="11"/>
+        <v>367</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C44" s="11"/>
+        <v>368</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="F44" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C45" s="11"/>
+        <v>369</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="F45" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="C46" s="11"/>
+        <v>370</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="C47" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="F47" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C48" s="11"/>
+        <v>298</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="F48" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="C49" s="11"/>
+        <v>299</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C50" s="11"/>
+        <v>300</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="F50" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -6294,10 +6642,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -6307,10 +6655,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -6320,10 +6668,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -6333,10 +6681,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -6346,10 +6694,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -6359,10 +6707,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -6372,10 +6720,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -6385,10 +6733,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -6398,10 +6746,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -6411,10 +6759,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>405</v>
+        <v>314</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -6424,10 +6772,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>406</v>
+        <v>329</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -6437,10 +6785,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -6450,10 +6798,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -6463,10 +6811,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>409</v>
+        <v>316</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -6476,10 +6824,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>410</v>
+        <v>331</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -6489,10 +6837,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>411</v>
+        <v>318</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -6502,10 +6850,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>412</v>
+        <v>306</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>392</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -6515,10 +6863,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>413</v>
+        <v>319</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>393</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -6528,10 +6876,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>414</v>
+        <v>333</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -6541,10 +6889,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>415</v>
+        <v>321</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -6554,10 +6902,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>416</v>
+        <v>307</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>396</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -6567,10 +6915,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>417</v>
+        <v>322</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>397</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -6580,10 +6928,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>418</v>
+        <v>335</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>398</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -6593,10 +6941,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>419</v>
+        <v>324</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>399</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -6606,16 +6954,276 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>420</v>
+        <v>326</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>400</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4333B03-4EBA-47F3-A0F9-830A6424E3D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1275155F-C1F3-4FE4-9F9B-5687C174B3C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Databook Pages" sheetId="7" r:id="rId1"/>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="476">
   <si>
     <t>Code Name</t>
   </si>
@@ -2519,7 +2519,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3483,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AJ22" sqref="AJ22:AK22"/>
     </sheetView>
   </sheetViews>
@@ -5753,10 +5753,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="C43" sqref="C43:C50"/>
+      <selection pane="topRight" activeCell="F75" sqref="F75:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6637,7 +6637,9 @@
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -6650,7 +6652,9 @@
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
+      <c r="F52" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -6663,7 +6667,9 @@
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -6676,7 +6682,9 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="F54" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -6689,7 +6697,9 @@
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="F55" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -6702,7 +6712,9 @@
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="F56" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
@@ -6715,7 +6727,9 @@
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="F57" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -6728,7 +6742,9 @@
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+      <c r="F58" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -6741,7 +6757,9 @@
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+      <c r="F59" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
@@ -6754,7 +6772,9 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="F60" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
@@ -6767,7 +6787,9 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="F61" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
@@ -6780,7 +6802,9 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+      <c r="F62" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
@@ -6793,7 +6817,9 @@
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -6806,7 +6832,9 @@
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
+      <c r="F64" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
@@ -6819,7 +6847,9 @@
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
@@ -6832,7 +6862,9 @@
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
+      <c r="F66" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
@@ -6845,7 +6877,9 @@
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="F67" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
@@ -6858,7 +6892,9 @@
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="F68" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
@@ -6871,7 +6907,9 @@
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
@@ -6884,7 +6922,9 @@
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
+      <c r="F70" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
@@ -6897,7 +6937,9 @@
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
+      <c r="F71" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
@@ -6910,7 +6952,9 @@
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
+      <c r="F72" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
@@ -6923,7 +6967,9 @@
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
+      <c r="F73" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
@@ -6936,7 +6982,9 @@
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
+      <c r="F74" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
@@ -6949,7 +6997,9 @@
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
+      <c r="F75" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
@@ -6962,7 +7012,9 @@
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
+      <c r="F76" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
@@ -6975,7 +7027,9 @@
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
+      <c r="F77" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
@@ -6988,7 +7042,9 @@
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
+      <c r="F78" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
@@ -7001,7 +7057,9 @@
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
+      <c r="F79" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
@@ -7014,7 +7072,9 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
+      <c r="F80" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
@@ -7027,7 +7087,9 @@
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
+      <c r="F81" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
@@ -7040,7 +7102,9 @@
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
+      <c r="F82" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
@@ -7053,7 +7117,9 @@
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
+      <c r="F83" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
@@ -7066,7 +7132,9 @@
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
+      <c r="F84" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
@@ -7079,7 +7147,9 @@
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
+      <c r="F85" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
@@ -7092,7 +7162,9 @@
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
+      <c r="F86" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
@@ -7105,7 +7177,9 @@
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
+      <c r="F87" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
@@ -7118,7 +7192,9 @@
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
+      <c r="F88" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
@@ -7131,7 +7207,9 @@
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
+      <c r="F89" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G89" s="11"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
@@ -7144,7 +7222,9 @@
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
+      <c r="F90" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G90" s="11"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
@@ -7157,7 +7237,9 @@
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
+      <c r="F91" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
@@ -7170,7 +7252,9 @@
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
+      <c r="F92" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G92" s="11"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
@@ -7183,7 +7267,9 @@
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
+      <c r="F93" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
@@ -7196,7 +7282,9 @@
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
+      <c r="F94" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
@@ -7209,7 +7297,9 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
+      <c r="F95" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
@@ -7222,7 +7312,9 @@
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
+      <c r="F96" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G96" s="11"/>
     </row>
   </sheetData>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1275155F-C1F3-4FE4-9F9B-5687C174B3C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F3167-4165-4EC9-BF22-04297819BDDA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,9 +1788,6 @@
     <t>MDR-SP treatment abandonment rate</t>
   </si>
   <si>
-    <t>MDR-SPtreatment success rate</t>
-  </si>
-  <si>
     <t>XDR-SP diagnosis rate</t>
   </si>
   <si>
@@ -2068,6 +2065,9 @@
   </si>
   <si>
     <t>proportion</t>
+  </si>
+  <si>
+    <t>MDR-SP treatment success rate</t>
   </si>
 </sst>
 </file>
@@ -2626,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -4331,7 +4331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B4020-084C-4F00-B628-93D126F8BCA7}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -5753,10 +5753,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="F75" sqref="F75:F84"/>
+      <selection pane="topRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5802,7 +5802,7 @@
         <v>275</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -5834,7 +5834,7 @@
         <v>278</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -5890,10 +5890,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -5905,10 +5905,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -5926,11 +5926,11 @@
         <v>349</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11">
@@ -5945,11 +5945,11 @@
         <v>350</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11">
@@ -5964,11 +5964,11 @@
         <v>351</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11">
@@ -5983,11 +5983,11 @@
         <v>352</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
@@ -6002,11 +6002,11 @@
         <v>353</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11">
@@ -6021,11 +6021,11 @@
         <v>354</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11">
@@ -6034,10 +6034,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -6064,10 +6064,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>433</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>434</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -6085,11 +6085,11 @@
         <v>356</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
@@ -6104,11 +6104,11 @@
         <v>357</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
@@ -6123,11 +6123,11 @@
         <v>358</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11">
@@ -6142,11 +6142,11 @@
         <v>359</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11">
@@ -6161,11 +6161,11 @@
         <v>360</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
@@ -6180,11 +6180,11 @@
         <v>361</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
@@ -6193,10 +6193,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -6208,10 +6208,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -6223,10 +6223,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -6238,10 +6238,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -6253,10 +6253,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -6268,10 +6268,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -6283,15 +6283,15 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11">
@@ -6300,15 +6300,15 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11">
@@ -6317,15 +6317,15 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11">
@@ -6334,15 +6334,15 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11">
@@ -6351,15 +6351,15 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11">
@@ -6368,15 +6368,15 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11">
@@ -6385,15 +6385,15 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11">
@@ -6402,15 +6402,15 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11">
@@ -6425,11 +6425,11 @@
         <v>364</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11">
@@ -6444,11 +6444,11 @@
         <v>363</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11">
@@ -6463,11 +6463,11 @@
         <v>365</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11">
@@ -6482,7 +6482,7 @@
         <v>366</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -6499,7 +6499,7 @@
         <v>367</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -6516,7 +6516,7 @@
         <v>368</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -6533,7 +6533,7 @@
         <v>369</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -6550,7 +6550,7 @@
         <v>370</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -6567,7 +6567,7 @@
         <v>371</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -6584,7 +6584,7 @@
         <v>372</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -6601,7 +6601,7 @@
         <v>373</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -6618,7 +6618,7 @@
         <v>374</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -6737,7 +6737,7 @@
         <v>327</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>382</v>
+        <v>475</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -6752,7 +6752,7 @@
         <v>313</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -6767,7 +6767,7 @@
         <v>304</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -6782,7 +6782,7 @@
         <v>314</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -6797,7 +6797,7 @@
         <v>329</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -6812,7 +6812,7 @@
         <v>315</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -6827,7 +6827,7 @@
         <v>305</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -6842,7 +6842,7 @@
         <v>316</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -6857,7 +6857,7 @@
         <v>331</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -6872,7 +6872,7 @@
         <v>318</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -6887,7 +6887,7 @@
         <v>306</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -6902,7 +6902,7 @@
         <v>319</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -6917,7 +6917,7 @@
         <v>333</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -6932,7 +6932,7 @@
         <v>321</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -6947,7 +6947,7 @@
         <v>307</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -6962,7 +6962,7 @@
         <v>322</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -6977,7 +6977,7 @@
         <v>335</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -6992,7 +6992,7 @@
         <v>324</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -7007,7 +7007,7 @@
         <v>326</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -7022,7 +7022,7 @@
         <v>328</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -7037,7 +7037,7 @@
         <v>330</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -7052,7 +7052,7 @@
         <v>332</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -7067,7 +7067,7 @@
         <v>334</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -7082,7 +7082,7 @@
         <v>317</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -7097,7 +7097,7 @@
         <v>320</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -7112,7 +7112,7 @@
         <v>309</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -7127,7 +7127,7 @@
         <v>312</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -7142,7 +7142,7 @@
         <v>336</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -7157,7 +7157,7 @@
         <v>338</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -7172,7 +7172,7 @@
         <v>340</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -7187,7 +7187,7 @@
         <v>337</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -7202,7 +7202,7 @@
         <v>339</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -7217,7 +7217,7 @@
         <v>341</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -7232,7 +7232,7 @@
         <v>342</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -7247,7 +7247,7 @@
         <v>344</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -7262,7 +7262,7 @@
         <v>346</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -7277,7 +7277,7 @@
         <v>343</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -7292,7 +7292,7 @@
         <v>345</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -7307,7 +7307,7 @@
         <v>347</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F3167-4165-4EC9-BF22-04297819BDDA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3CF666-6904-41C5-89A2-E9E5A4D7AE07}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Transitions" sheetId="2" r:id="rId3"/>
     <sheet name="Characteristics" sheetId="8" r:id="rId4"/>
     <sheet name="Parameters" sheetId="9" r:id="rId5"/>
-    <sheet name="Program Types" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -513,7 +512,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{43BA453A-8744-4032-8E7F-6491B9387A80}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8FBB2234-65EA-4B56-A9DE-DC00D84C33D9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for tagging a parameter as an impact, which means
+that programs can map a budget to a value for this parameter.
+Currently, the user will choose which programs impact this
+parameter within a databook constructed from this framework file.
+Notably, if this tag is active, the parameter cannot be expressed
+as a function of other parameters as its value will be directly
+overwritten if programs are active.
+Note: This tag is only enabled for a parameter by marking the
+corresponding cell 'y'.
+Anything else, including keeping the cell blank, disables the tag.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{43BA453A-8744-4032-8E7F-6491B9387A80}">
       <text>
         <r>
           <rPr>
@@ -526,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BAC0C8ED-DDB5-4067-82A2-58808108CB14}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BAC0C8ED-DDB5-4067-82A2-58808108CB14}">
       <text>
         <r>
           <rPr>
@@ -539,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
       <text>
         <r>
           <rPr>
@@ -558,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
       <text>
         <r>
           <rPr>
@@ -577,70 +598,8 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'name' attribute for a 'progtype' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'label' attribute for a 'progtype' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'name' attribute for a 'progatt' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'label' attribute for a 'progatt' item.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="461">
   <si>
     <t>Code Name</t>
   </si>
@@ -681,54 +640,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>Attribute Code Name</t>
-  </si>
-  <si>
-    <t>Attribute Display Name</t>
-  </si>
-  <si>
-    <t>progtype_0</t>
-  </si>
-  <si>
-    <t>Program Type 0</t>
-  </si>
-  <si>
-    <t>progtype_1</t>
-  </si>
-  <si>
-    <t>Program Type 1</t>
-  </si>
-  <si>
-    <t>progtype_2</t>
-  </si>
-  <si>
-    <t>Program Type 2</t>
-  </si>
-  <si>
-    <t>progtype_3</t>
-  </si>
-  <si>
-    <t>Program Type 3</t>
-  </si>
-  <si>
-    <t>progtype_4</t>
-  </si>
-  <si>
-    <t>Program Type 4</t>
-  </si>
-  <si>
-    <t>progtype_5</t>
-  </si>
-  <si>
-    <t>Program Type 5</t>
-  </si>
-  <si>
-    <t>progtype_6</t>
-  </si>
-  <si>
-    <t>Program Type 6</t>
-  </si>
-  <si>
     <t>sus</t>
   </si>
   <si>
@@ -2068,6 +1979,9 @@
   </si>
   <si>
     <t>MDR-SP treatment success rate</t>
+  </si>
+  <si>
+    <t>Is Impact</t>
   </si>
 </sst>
 </file>
@@ -2530,90 +2444,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -2670,10 +2584,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -2693,10 +2607,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -2709,15 +2623,15 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -2730,15 +2644,15 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -2751,15 +2665,15 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -2772,15 +2686,15 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -2793,15 +2707,15 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -2814,15 +2728,15 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -2835,15 +2749,15 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -2856,15 +2770,15 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -2873,7 +2787,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -2884,10 +2798,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -2896,7 +2810,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -2907,10 +2821,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -2930,10 +2844,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -2953,10 +2867,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
@@ -2969,15 +2883,15 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -2997,10 +2911,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
@@ -3020,10 +2934,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -3036,15 +2950,15 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -3064,10 +2978,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -3087,10 +3001,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
@@ -3103,15 +3017,15 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -3120,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
@@ -3131,10 +3045,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
@@ -3154,10 +3068,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
@@ -3177,10 +3091,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
@@ -3193,15 +3107,15 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
@@ -3221,10 +3135,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
@@ -3244,10 +3158,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
@@ -3260,15 +3174,15 @@
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
@@ -3288,10 +3202,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
@@ -3311,10 +3225,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
@@ -3327,15 +3241,15 @@
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
@@ -3348,18 +3262,18 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>7</v>
@@ -3376,13 +3290,13 @@
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
@@ -3400,16 +3314,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -3423,16 +3337,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
@@ -3446,16 +3360,16 @@
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
@@ -3656,19 +3570,19 @@
         <v>acr</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="AH1" s="12" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="AK1" s="12" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="AL1" s="12"/>
       <c r="AM1" s="12"/>
@@ -3681,16 +3595,16 @@
         <v>sus</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.45">
@@ -3699,13 +3613,13 @@
         <v>vac</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.45">
@@ -3714,19 +3628,19 @@
         <v>lteu</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.45">
@@ -3735,16 +3649,16 @@
         <v>ltet</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK5" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.45">
@@ -3753,16 +3667,16 @@
         <v>ltlu</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.45">
@@ -3771,16 +3685,16 @@
         <v>ltlt</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.45">
@@ -3789,13 +3703,13 @@
         <v>ltr</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK8" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
@@ -3804,16 +3718,16 @@
         <v>ltex</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK9" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.45">
@@ -3822,13 +3736,13 @@
         <v>ltlx</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.45">
@@ -3837,10 +3751,10 @@
         <v>acj</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.45">
@@ -3849,13 +3763,13 @@
         <v>spj</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.45">
@@ -3864,19 +3778,19 @@
         <v>spdu</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AF13" s="11" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="AI13" s="11" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.45">
@@ -3885,19 +3799,19 @@
         <v>spdd</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AF14" s="11" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="AI14" s="11" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.45">
@@ -3906,22 +3820,22 @@
         <v>spdt</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF15" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="AF15" s="11" t="s">
-        <v>325</v>
-      </c>
       <c r="AI15" s="11" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.45">
@@ -3930,19 +3844,19 @@
         <v>spmu</v>
       </c>
       <c r="Q16" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF16" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="AF16" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="AI16" s="11" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="AJ16" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK16" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.45">
@@ -3951,19 +3865,19 @@
         <v>spmd</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="AF17" s="11" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="AI17" s="11" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="AJ17" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK17" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.45">
@@ -3972,22 +3886,22 @@
         <v>spmt</v>
       </c>
       <c r="Q18" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF18" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="T18" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AF18" s="11" t="s">
-        <v>327</v>
-      </c>
       <c r="AI18" s="11" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.45">
@@ -3996,19 +3910,19 @@
         <v>spxu</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="AF19" s="11" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AI19" s="11" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AJ19" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.45">
@@ -4017,19 +3931,19 @@
         <v>spxd</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="AF20" s="11" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AI20" s="11" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AJ20" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.45">
@@ -4038,19 +3952,19 @@
         <v>spxt</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="AF21" s="11" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AI21" s="11" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="AJ21" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.45">
@@ -4059,13 +3973,13 @@
         <v>snj</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.45">
@@ -4074,19 +3988,19 @@
         <v>sndu</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="AF23" s="11" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AI23" s="11" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="AJ23" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.45">
@@ -4095,19 +4009,19 @@
         <v>sndd</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AF24" s="11" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AI24" s="11" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="AJ24" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.45">
@@ -4116,22 +4030,22 @@
         <v>sndt</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="AA25" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="AF25" s="11" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AI25" s="11" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="AJ25" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK25" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.45">
@@ -4140,19 +4054,19 @@
         <v>snmu</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="AF26" s="11" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AI26" s="11" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="AJ26" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK26" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.45">
@@ -4161,19 +4075,19 @@
         <v>snmd</v>
       </c>
       <c r="AB27" s="11" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AF27" s="11" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AI27" s="11" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="AJ27" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK27" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.45">
@@ -4182,22 +4096,22 @@
         <v>snmt</v>
       </c>
       <c r="AA28" s="11" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="AF28" s="11" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="AI28" s="11" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="AJ28" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK28" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.45">
@@ -4206,19 +4120,19 @@
         <v>snxu</v>
       </c>
       <c r="AD29" s="11" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="AF29" s="11" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="AI29" s="11" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="AJ29" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK29" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.45">
@@ -4227,19 +4141,19 @@
         <v>snxd</v>
       </c>
       <c r="AE30" s="11" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="AF30" s="11" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="AI30" s="11" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="AJ30" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK30" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.45">
@@ -4248,19 +4162,19 @@
         <v>snxt</v>
       </c>
       <c r="AD31" s="11" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="AF31" s="11" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="AI31" s="11" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="AJ31" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK31" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.45">
@@ -4269,44 +4183,44 @@
         <v>acr</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="AJ32" s="11" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AK32" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -4370,7 +4284,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>5</v>
@@ -4378,13 +4292,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7">
@@ -4397,13 +4311,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="11">
@@ -4416,13 +4330,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="11">
@@ -4435,13 +4349,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="11">
@@ -4454,13 +4368,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="11">
@@ -4473,148 +4387,148 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7">
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="11">
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="11">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="11">
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="11">
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7">
@@ -4627,192 +4541,192 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7">
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="11">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="11">
         <v>1</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="11">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="11">
@@ -4825,16 +4739,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="11">
@@ -4847,16 +4761,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="11">
@@ -4869,13 +4783,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="11">
@@ -4888,60 +4802,60 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="11">
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7">
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7">
@@ -4954,16 +4868,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="11">
@@ -4976,16 +4890,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="11">
@@ -4998,16 +4912,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="11">
@@ -5020,16 +4934,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="11">
@@ -5042,16 +4956,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="11">
@@ -5064,16 +4978,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="11">
@@ -5086,16 +5000,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="11">
@@ -5108,16 +5022,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="11">
@@ -5130,16 +5044,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="11">
@@ -5152,16 +5066,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="11">
@@ -5174,16 +5088,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="11">
@@ -5196,16 +5110,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="11">
@@ -5218,16 +5132,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="11">
@@ -5240,16 +5154,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="11">
@@ -5262,16 +5176,16 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="11">
@@ -5284,16 +5198,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="11">
@@ -5306,16 +5220,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="11">
@@ -5328,16 +5242,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="11">
@@ -5350,16 +5264,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="11">
@@ -5372,16 +5286,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="11">
@@ -5394,16 +5308,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="11">
@@ -5416,16 +5330,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="11">
@@ -5438,16 +5352,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="11">
@@ -5460,16 +5374,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="11">
@@ -5482,16 +5396,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="11">
@@ -5504,16 +5418,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="11">
@@ -5526,16 +5440,16 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="11">
@@ -5548,16 +5462,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>254</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="11">
@@ -5570,16 +5484,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="D57" s="11" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="11">
@@ -5592,16 +5506,16 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="D58" s="11" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="11">
@@ -5614,16 +5528,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="11">
@@ -5636,16 +5550,16 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="11">
@@ -5658,16 +5572,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="11">
@@ -5680,16 +5594,16 @@
     </row>
     <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
@@ -5703,16 +5617,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="11">
@@ -5725,16 +5639,16 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="G64" s="11">
         <v>0</v>
@@ -5751,12 +5665,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="B58" sqref="B58"/>
+      <selection pane="topRight" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5764,14 +5678,15 @@
     <col min="1" max="1" width="11.265625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.9296875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="10"/>
+    <col min="4" max="4" width="8.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5782,1826 +5697,1970 @@
         <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="G1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B14" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B22" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="B27" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="11" t="s">
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H84" s="11"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="13" t="s">
+      <c r="B89" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="13" t="s">
+      <c r="B90" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H93" s="11"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="13" t="s">
+      <c r="B94" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G62" s="11"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="13" t="s">
+      <c r="B95" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A96" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="B80" s="15" t="s">
+      <c r="B96" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G83" s="11"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G84" s="11"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G85" s="11"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G86" s="11"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A87" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G87" s="11"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G88" s="11"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A89" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A90" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G90" s="11"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A91" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G91" s="11"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A94" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A95" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G95" s="11"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A96" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>419</v>
-      </c>
       <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="D96" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E96" s="11"/>
-      <c r="F96" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D104" s="11"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D111" s="11"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D112" s="11"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D113" s="11"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D122" s="11"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D126" s="11"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D127" s="11"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D128" s="11"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D131" s="11"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D132" s="11"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D133" s="11"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D134" s="11"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D135" s="11"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D137" s="11"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D138" s="11"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D139" s="11"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D140" s="11"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D141" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="3" width="20.73046875" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f>CONCATENATE(A2,"_att_0")</f>
-        <v>progtype_0_att_0</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f>CONCATENATE(B2," - Attribute 0")</f>
-        <v>Program Type 0 - Attribute 0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C3" s="2" t="str">
-        <f>CONCATENATE(A2,"_att_1")</f>
-        <v>progtype_0_att_1</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>CONCATENATE(B2," - Attribute 1")</f>
-        <v>Program Type 0 - Attribute 1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C4" s="2" t="str">
-        <f>CONCATENATE(A2,"_att_2")</f>
-        <v>progtype_0_att_2</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f>CONCATENATE(B2," - Attribute 2")</f>
-        <v>Program Type 0 - Attribute 2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f>CONCATENATE(A5,"_att_0")</f>
-        <v>progtype_1_att_0</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f>CONCATENATE(B5," - Attribute 0")</f>
-        <v>Program Type 1 - Attribute 0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C6" s="2" t="str">
-        <f>CONCATENATE(A5,"_att_1")</f>
-        <v>progtype_1_att_1</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f>CONCATENATE(B5," - Attribute 1")</f>
-        <v>Program Type 1 - Attribute 1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C7" s="2" t="str">
-        <f>CONCATENATE(A5,"_att_2")</f>
-        <v>progtype_1_att_2</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f>CONCATENATE(B5," - Attribute 2")</f>
-        <v>Program Type 1 - Attribute 2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f>CONCATENATE(A8,"_att_0")</f>
-        <v>progtype_2_att_0</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f>CONCATENATE(B8," - Attribute 0")</f>
-        <v>Program Type 2 - Attribute 0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C9" s="2" t="str">
-        <f>CONCATENATE(A8,"_att_1")</f>
-        <v>progtype_2_att_1</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f>CONCATENATE(B8," - Attribute 1")</f>
-        <v>Program Type 2 - Attribute 1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C10" s="2" t="str">
-        <f>CONCATENATE(A8,"_att_2")</f>
-        <v>progtype_2_att_2</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>CONCATENATE(B8," - Attribute 2")</f>
-        <v>Program Type 2 - Attribute 2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f>CONCATENATE(A11,"_att_0")</f>
-        <v>progtype_3_att_0</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f>CONCATENATE(B11," - Attribute 0")</f>
-        <v>Program Type 3 - Attribute 0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C12" s="2" t="str">
-        <f>CONCATENATE(A11,"_att_1")</f>
-        <v>progtype_3_att_1</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f>CONCATENATE(B11," - Attribute 1")</f>
-        <v>Program Type 3 - Attribute 1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C13" s="2" t="str">
-        <f>CONCATENATE(A11,"_att_2")</f>
-        <v>progtype_3_att_2</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f>CONCATENATE(B11," - Attribute 2")</f>
-        <v>Program Type 3 - Attribute 2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f>CONCATENATE(A14,"_att_0")</f>
-        <v>progtype_4_att_0</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>CONCATENATE(B14," - Attribute 0")</f>
-        <v>Program Type 4 - Attribute 0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C15" s="2" t="str">
-        <f>CONCATENATE(A14,"_att_1")</f>
-        <v>progtype_4_att_1</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>CONCATENATE(B14," - Attribute 1")</f>
-        <v>Program Type 4 - Attribute 1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C16" s="2" t="str">
-        <f>CONCATENATE(A14,"_att_2")</f>
-        <v>progtype_4_att_2</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>CONCATENATE(B14," - Attribute 2")</f>
-        <v>Program Type 4 - Attribute 2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>CONCATENATE(A17,"_att_0")</f>
-        <v>progtype_5_att_0</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f>CONCATENATE(B17," - Attribute 0")</f>
-        <v>Program Type 5 - Attribute 0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C18" s="2" t="str">
-        <f>CONCATENATE(A17,"_att_1")</f>
-        <v>progtype_5_att_1</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f>CONCATENATE(B17," - Attribute 1")</f>
-        <v>Program Type 5 - Attribute 1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C19" s="2" t="str">
-        <f>CONCATENATE(A17,"_att_2")</f>
-        <v>progtype_5_att_2</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f>CONCATENATE(B17," - Attribute 2")</f>
-        <v>Program Type 5 - Attribute 2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <f>CONCATENATE(A20,"_att_0")</f>
-        <v>progtype_6_att_0</v>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f>CONCATENATE(B20," - Attribute 0")</f>
-        <v>Program Type 6 - Attribute 0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C21" s="2" t="str">
-        <f>CONCATENATE(A20,"_att_1")</f>
-        <v>progtype_6_att_1</v>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f>CONCATENATE(B20," - Attribute 1")</f>
-        <v>Program Type 6 - Attribute 1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C22" s="2" t="str">
-        <f>CONCATENATE(A20,"_att_2")</f>
-        <v>progtype_6_att_2</v>
-      </c>
-      <c r="D22" s="2" t="str">
-        <f>CONCATENATE(B20," - Attribute 2")</f>
-        <v>Program Type 6 - Attribute 2</v>
-      </c>
-    </row>
-  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D141" xr:uid="{954730B5-53BD-4573-A572-BA4ACED51291}">
+      <formula1>"n,y"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3CF666-6904-41C5-89A2-E9E5A4D7AE07}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55452BB-63CE-4684-BA7F-D58F0B1A3872}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BAC0C8ED-DDB5-4067-82A2-58808108CB14}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{47C55848-BD43-4665-A107-37C6F3772D00}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'min' attribute for a 'par' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{9C3BB8A1-4EC5-4BFF-90C4-A9B9E8912274}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'max' attribute for a 'par' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{BAC0C8ED-DDB5-4067-82A2-58808108CB14}">
       <text>
         <r>
           <rPr>
@@ -560,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
       <text>
         <r>
           <rPr>
@@ -579,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
       <text>
         <r>
           <rPr>
@@ -599,7 +625,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="463">
   <si>
     <t>Code Name</t>
   </si>
@@ -1982,6 +2008,12 @@
   </si>
   <si>
     <t>Is Impact</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
   </si>
 </sst>
 </file>
@@ -5665,12 +5697,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="F106" sqref="F106"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5680,13 +5712,15 @@
     <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1328125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="10"/>
+    <col min="6" max="6" width="13.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.06640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.06640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5703,16 +5737,22 @@
         <v>10</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>255</v>
       </c>
@@ -5727,12 +5767,14 @@
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -5745,12 +5787,14 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>256</v>
       </c>
@@ -5765,12 +5809,14 @@
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>257</v>
       </c>
@@ -5783,12 +5829,14 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>263</v>
       </c>
@@ -5801,12 +5849,14 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>405</v>
       </c>
@@ -5819,12 +5869,14 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>406</v>
       </c>
@@ -5836,13 +5888,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>407</v>
       </c>
@@ -5854,13 +5906,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>265</v>
       </c>
@@ -5874,15 +5926,15 @@
         <v>7</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -5896,15 +5948,15 @@
         <v>7</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>268</v>
       </c>
@@ -5918,15 +5970,15 @@
         <v>7</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>270</v>
       </c>
@@ -5940,15 +5992,15 @@
         <v>7</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
@@ -5962,15 +6014,15 @@
         <v>7</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -5984,15 +6036,15 @@
         <v>7</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>412</v>
       </c>
@@ -6004,13 +6056,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="13" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>413</v>
       </c>
@@ -6022,13 +6074,13 @@
         <v>7</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="13" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>416</v>
       </c>
@@ -6040,13 +6092,13 @@
         <v>7</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="13" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>266</v>
       </c>
@@ -6060,15 +6112,15 @@
         <v>7</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>273</v>
       </c>
@@ -6082,15 +6134,15 @@
         <v>7</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>269</v>
       </c>
@@ -6104,15 +6156,15 @@
         <v>7</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
@@ -6126,15 +6178,15 @@
         <v>7</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>274</v>
       </c>
@@ -6148,15 +6200,15 @@
         <v>7</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>276</v>
       </c>
@@ -6170,15 +6222,15 @@
         <v>7</v>
       </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" s="11"/>
+      <c r="J24" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>426</v>
       </c>
@@ -6190,13 +6242,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>427</v>
       </c>
@@ -6208,13 +6260,13 @@
         <v>7</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -6226,13 +6278,13 @@
         <v>7</v>
       </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>428</v>
       </c>
@@ -6244,13 +6296,13 @@
         <v>7</v>
       </c>
       <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
         <v>429</v>
       </c>
@@ -6262,13 +6314,13 @@
         <v>7</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>430</v>
       </c>
@@ -6280,13 +6332,13 @@
         <v>7</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>421</v>
       </c>
@@ -6298,15 +6350,15 @@
         <v>7</v>
       </c>
       <c r="E31" s="11"/>
-      <c r="F31" s="13" t="s">
+      <c r="H31" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" s="11"/>
+      <c r="J31" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>422</v>
       </c>
@@ -6318,15 +6370,15 @@
         <v>7</v>
       </c>
       <c r="E32" s="11"/>
-      <c r="F32" s="13" t="s">
+      <c r="H32" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="11"/>
+      <c r="J32" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>423</v>
       </c>
@@ -6338,15 +6390,15 @@
         <v>7</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>424</v>
       </c>
@@ -6358,15 +6410,15 @@
         <v>7</v>
       </c>
       <c r="E34" s="11"/>
-      <c r="F34" s="13" t="s">
+      <c r="H34" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" s="11"/>
+      <c r="J34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>425</v>
       </c>
@@ -6378,15 +6430,15 @@
         <v>7</v>
       </c>
       <c r="E35" s="11"/>
-      <c r="F35" s="13" t="s">
+      <c r="H35" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I35" s="11"/>
+      <c r="J35" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>446</v>
       </c>
@@ -6398,15 +6450,15 @@
         <v>7</v>
       </c>
       <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" s="11"/>
+      <c r="J36" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>447</v>
       </c>
@@ -6418,15 +6470,15 @@
         <v>7</v>
       </c>
       <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>431</v>
       </c>
@@ -6438,15 +6490,15 @@
         <v>7</v>
       </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I38" s="11"/>
+      <c r="J38" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
         <v>264</v>
       </c>
@@ -6460,15 +6512,15 @@
         <v>7</v>
       </c>
       <c r="E39" s="11"/>
-      <c r="F39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I39" s="11"/>
+      <c r="J39" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>339</v>
       </c>
@@ -6482,15 +6534,15 @@
         <v>7</v>
       </c>
       <c r="E40" s="11"/>
-      <c r="F40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I40" s="11"/>
+      <c r="J40" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
         <v>346</v>
       </c>
@@ -6504,15 +6556,15 @@
         <v>7</v>
       </c>
       <c r="E41" s="11"/>
-      <c r="F41" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I41" s="11"/>
+      <c r="J41" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>307</v>
       </c>
@@ -6526,13 +6578,13 @@
         <v>7</v>
       </c>
       <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11" t="s">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
         <v>277</v>
       </c>
@@ -6546,13 +6598,13 @@
         <v>7</v>
       </c>
       <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11" t="s">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
         <v>278</v>
       </c>
@@ -6566,13 +6618,13 @@
         <v>7</v>
       </c>
       <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
         <v>279</v>
       </c>
@@ -6586,13 +6638,13 @@
         <v>7</v>
       </c>
       <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11" t="s">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>280</v>
       </c>
@@ -6606,13 +6658,13 @@
         <v>7</v>
       </c>
       <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11" t="s">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
         <v>281</v>
       </c>
@@ -6626,13 +6678,13 @@
         <v>7</v>
       </c>
       <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11" t="s">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
         <v>282</v>
       </c>
@@ -6646,13 +6698,13 @@
         <v>7</v>
       </c>
       <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
         <v>283</v>
       </c>
@@ -6666,13 +6718,13 @@
         <v>7</v>
       </c>
       <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11" t="s">
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
         <v>284</v>
       </c>
@@ -6686,13 +6738,13 @@
         <v>7</v>
       </c>
       <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
         <v>285</v>
       </c>
@@ -6704,13 +6756,13 @@
         <v>7</v>
       </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11" t="s">
+      <c r="H51" s="11"/>
+      <c r="I51" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
         <v>286</v>
       </c>
@@ -6722,13 +6774,13 @@
         <v>7</v>
       </c>
       <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11" t="s">
+      <c r="H52" s="11"/>
+      <c r="I52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
         <v>292</v>
       </c>
@@ -6740,13 +6792,13 @@
         <v>7</v>
       </c>
       <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11" t="s">
+      <c r="H53" s="11"/>
+      <c r="I53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>309</v>
       </c>
@@ -6758,13 +6810,13 @@
         <v>7</v>
       </c>
       <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11" t="s">
+      <c r="H54" s="11"/>
+      <c r="I54" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
         <v>294</v>
       </c>
@@ -6776,13 +6828,13 @@
         <v>7</v>
       </c>
       <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11" t="s">
+      <c r="H55" s="11"/>
+      <c r="I55" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>287</v>
       </c>
@@ -6794,13 +6846,13 @@
         <v>7</v>
       </c>
       <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11" t="s">
+      <c r="H56" s="11"/>
+      <c r="I56" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>295</v>
       </c>
@@ -6812,13 +6864,13 @@
         <v>7</v>
       </c>
       <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11" t="s">
+      <c r="H57" s="11"/>
+      <c r="I57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
         <v>311</v>
       </c>
@@ -6830,13 +6882,13 @@
         <v>7</v>
       </c>
       <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11" t="s">
+      <c r="H58" s="11"/>
+      <c r="I58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>297</v>
       </c>
@@ -6848,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11" t="s">
+      <c r="H59" s="11"/>
+      <c r="I59" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
         <v>288</v>
       </c>
@@ -6866,13 +6918,13 @@
         <v>7</v>
       </c>
       <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11" t="s">
+      <c r="H60" s="11"/>
+      <c r="I60" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>298</v>
       </c>
@@ -6884,13 +6936,13 @@
         <v>7</v>
       </c>
       <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11" t="s">
+      <c r="H61" s="11"/>
+      <c r="I61" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
         <v>313</v>
       </c>
@@ -6902,13 +6954,13 @@
         <v>7</v>
       </c>
       <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11" t="s">
+      <c r="H62" s="11"/>
+      <c r="I62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
         <v>299</v>
       </c>
@@ -6920,13 +6972,13 @@
         <v>7</v>
       </c>
       <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11" t="s">
+      <c r="H63" s="11"/>
+      <c r="I63" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
         <v>289</v>
       </c>
@@ -6938,13 +6990,13 @@
         <v>7</v>
       </c>
       <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11" t="s">
+      <c r="H64" s="11"/>
+      <c r="I64" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
         <v>300</v>
       </c>
@@ -6956,13 +7008,13 @@
         <v>7</v>
       </c>
       <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11" t="s">
+      <c r="H65" s="11"/>
+      <c r="I65" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
         <v>315</v>
       </c>
@@ -6974,13 +7026,13 @@
         <v>7</v>
       </c>
       <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11" t="s">
+      <c r="H66" s="11"/>
+      <c r="I66" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J66" s="11"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
         <v>302</v>
       </c>
@@ -6992,13 +7044,13 @@
         <v>7</v>
       </c>
       <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11" t="s">
+      <c r="H67" s="11"/>
+      <c r="I67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J67" s="11"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
         <v>290</v>
       </c>
@@ -7010,13 +7062,13 @@
         <v>7</v>
       </c>
       <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11" t="s">
+      <c r="H68" s="11"/>
+      <c r="I68" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J68" s="11"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
         <v>303</v>
       </c>
@@ -7028,13 +7080,13 @@
         <v>7</v>
       </c>
       <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11" t="s">
+      <c r="H69" s="11"/>
+      <c r="I69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J69" s="11"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
         <v>317</v>
       </c>
@@ -7046,13 +7098,13 @@
         <v>7</v>
       </c>
       <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11" t="s">
+      <c r="H70" s="11"/>
+      <c r="I70" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
         <v>305</v>
       </c>
@@ -7064,13 +7116,13 @@
         <v>7</v>
       </c>
       <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11" t="s">
+      <c r="H71" s="11"/>
+      <c r="I71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
         <v>291</v>
       </c>
@@ -7082,13 +7134,13 @@
         <v>7</v>
       </c>
       <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11" t="s">
+      <c r="H72" s="11"/>
+      <c r="I72" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J72" s="11"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
         <v>306</v>
       </c>
@@ -7100,13 +7152,13 @@
         <v>7</v>
       </c>
       <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11" t="s">
+      <c r="H73" s="11"/>
+      <c r="I73" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J73" s="11"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
         <v>319</v>
       </c>
@@ -7118,13 +7170,13 @@
         <v>7</v>
       </c>
       <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11" t="s">
+      <c r="H74" s="11"/>
+      <c r="I74" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J74" s="11"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
         <v>308</v>
       </c>
@@ -7136,13 +7188,13 @@
         <v>7</v>
       </c>
       <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11" t="s">
+      <c r="H75" s="11"/>
+      <c r="I75" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J75" s="11"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
         <v>310</v>
       </c>
@@ -7154,13 +7206,13 @@
         <v>7</v>
       </c>
       <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11" t="s">
+      <c r="H76" s="11"/>
+      <c r="I76" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J76" s="11"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
         <v>312</v>
       </c>
@@ -7172,13 +7224,13 @@
         <v>7</v>
       </c>
       <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11" t="s">
+      <c r="H77" s="11"/>
+      <c r="I77" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J77" s="11"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
         <v>314</v>
       </c>
@@ -7190,13 +7242,13 @@
         <v>7</v>
       </c>
       <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11" t="s">
+      <c r="H78" s="11"/>
+      <c r="I78" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J78" s="11"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
         <v>316</v>
       </c>
@@ -7208,13 +7260,13 @@
         <v>7</v>
       </c>
       <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11" t="s">
+      <c r="H79" s="11"/>
+      <c r="I79" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H79" s="11"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J79" s="11"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
         <v>318</v>
       </c>
@@ -7226,13 +7278,13 @@
         <v>7</v>
       </c>
       <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11" t="s">
+      <c r="H80" s="11"/>
+      <c r="I80" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J80" s="11"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
         <v>301</v>
       </c>
@@ -7244,13 +7296,13 @@
         <v>7</v>
       </c>
       <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11" t="s">
+      <c r="H81" s="11"/>
+      <c r="I81" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H81" s="11"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J81" s="11"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
         <v>304</v>
       </c>
@@ -7262,13 +7314,13 @@
         <v>7</v>
       </c>
       <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11" t="s">
+      <c r="H82" s="11"/>
+      <c r="I82" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H82" s="11"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J82" s="11"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
         <v>293</v>
       </c>
@@ -7280,13 +7332,13 @@
         <v>7</v>
       </c>
       <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11" t="s">
+      <c r="H83" s="11"/>
+      <c r="I83" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H83" s="11"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J83" s="11"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
         <v>296</v>
       </c>
@@ -7298,13 +7350,13 @@
         <v>7</v>
       </c>
       <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11" t="s">
+      <c r="H84" s="11"/>
+      <c r="I84" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H84" s="11"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J84" s="11"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>320</v>
       </c>
@@ -7316,13 +7368,13 @@
         <v>7</v>
       </c>
       <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11" t="s">
+      <c r="H85" s="11"/>
+      <c r="I85" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H85" s="11"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J85" s="11"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
         <v>322</v>
       </c>
@@ -7334,13 +7386,13 @@
         <v>7</v>
       </c>
       <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11" t="s">
+      <c r="H86" s="11"/>
+      <c r="I86" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
         <v>324</v>
       </c>
@@ -7352,13 +7404,13 @@
         <v>7</v>
       </c>
       <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11" t="s">
+      <c r="H87" s="11"/>
+      <c r="I87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H87" s="11"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J87" s="11"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
         <v>321</v>
       </c>
@@ -7370,13 +7422,13 @@
         <v>7</v>
       </c>
       <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11" t="s">
+      <c r="H88" s="11"/>
+      <c r="I88" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H88" s="11"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J88" s="11"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
         <v>323</v>
       </c>
@@ -7388,13 +7440,13 @@
         <v>7</v>
       </c>
       <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11" t="s">
+      <c r="H89" s="11"/>
+      <c r="I89" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J89" s="11"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
         <v>325</v>
       </c>
@@ -7406,13 +7458,13 @@
         <v>7</v>
       </c>
       <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11" t="s">
+      <c r="H90" s="11"/>
+      <c r="I90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H90" s="11"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J90" s="11"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
         <v>326</v>
       </c>
@@ -7424,13 +7476,13 @@
         <v>7</v>
       </c>
       <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11" t="s">
+      <c r="H91" s="11"/>
+      <c r="I91" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H91" s="11"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J91" s="11"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
         <v>328</v>
       </c>
@@ -7442,13 +7494,13 @@
         <v>7</v>
       </c>
       <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11" t="s">
+      <c r="H92" s="11"/>
+      <c r="I92" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J92" s="11"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
         <v>330</v>
       </c>
@@ -7460,13 +7512,13 @@
         <v>7</v>
       </c>
       <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11" t="s">
+      <c r="H93" s="11"/>
+      <c r="I93" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H93" s="11"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J93" s="11"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
         <v>327</v>
       </c>
@@ -7478,13 +7530,13 @@
         <v>7</v>
       </c>
       <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11" t="s">
+      <c r="H94" s="11"/>
+      <c r="I94" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H94" s="11"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J94" s="11"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
         <v>329</v>
       </c>
@@ -7496,13 +7548,13 @@
         <v>7</v>
       </c>
       <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11" t="s">
+      <c r="H95" s="11"/>
+      <c r="I95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H95" s="11"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J95" s="11"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
         <v>331</v>
       </c>
@@ -7514,11 +7566,11 @@
         <v>7</v>
       </c>
       <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11" t="s">
+      <c r="H96" s="11"/>
+      <c r="I96" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H96" s="11"/>
+      <c r="J96" s="11"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D97" s="11"/>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55452BB-63CE-4684-BA7F-D58F0B1A3872}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60B00A1-1DDE-49B1-819C-8010E9376A5D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,29 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8FBB2234-65EA-4B56-A9DE-DC00D84C33D9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for tagging a parameter as an impact, which means
-that programs can map a budget to a value for this parameter.
-Currently, the user will choose which programs impact this
-parameter within a databook constructed from this framework file.
-Notably, if this tag is active, the parameter cannot be expressed
-as a function of other parameters as its value will be directly
-overwritten if programs are active.
-Note: This tag is only enabled for a parameter by marking the
-corresponding cell 'y'.
-Anything else, including keeping the cell blank, disables the tag.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{43BA453A-8744-4032-8E7F-6491B9387A80}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{43BA453A-8744-4032-8E7F-6491B9387A80}">
       <text>
         <r>
           <rPr>
@@ -547,33 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{47C55848-BD43-4665-A107-37C6F3772D00}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'min' attribute for a 'par' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{9C3BB8A1-4EC5-4BFF-90C4-A9B9E8912274}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'max' attribute for a 'par' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{BAC0C8ED-DDB5-4067-82A2-58808108CB14}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BAC0C8ED-DDB5-4067-82A2-58808108CB14}">
       <text>
         <r>
           <rPr>
@@ -586,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
       <text>
         <r>
           <rPr>
@@ -605,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
       <text>
         <r>
           <rPr>
@@ -625,7 +577,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="460">
   <si>
     <t>Code Name</t>
   </si>
@@ -2005,15 +1957,6 @@
   </si>
   <si>
     <t>MDR-SP treatment success rate</t>
-  </si>
-  <si>
-    <t>Is Impact</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
   </si>
 </sst>
 </file>
@@ -5697,12 +5640,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5710,17 +5653,14 @@
     <col min="1" max="1" width="11.265625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.9296875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.06640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="10"/>
+    <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5731,28 +5671,19 @@
         <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>460</v>
+        <v>10</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>461</v>
+        <v>96</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>255</v>
       </c>
@@ -5762,19 +5693,14 @@
       <c r="C2" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -5782,19 +5708,14 @@
         <v>260</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>256</v>
       </c>
@@ -5804,19 +5725,14 @@
       <c r="C4" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>257</v>
       </c>
@@ -5824,19 +5740,14 @@
         <v>261</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>263</v>
       </c>
@@ -5844,19 +5755,14 @@
         <v>332</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>405</v>
       </c>
@@ -5864,19 +5770,14 @@
         <v>408</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>406</v>
       </c>
@@ -5884,17 +5785,14 @@
         <v>409</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>407</v>
       </c>
@@ -5902,17 +5800,14 @@
         <v>410</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>265</v>
       </c>
@@ -5922,19 +5817,16 @@
       <c r="C10" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="H10" s="11" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -5944,19 +5836,16 @@
       <c r="C11" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="H11" s="11" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>268</v>
       </c>
@@ -5966,19 +5855,16 @@
       <c r="C12" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="H12" s="11" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>270</v>
       </c>
@@ -5988,19 +5874,16 @@
       <c r="C13" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="H13" s="11" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
@@ -6010,19 +5893,16 @@
       <c r="C14" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="H14" s="11" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -6032,19 +5912,16 @@
       <c r="C15" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="H15" s="11" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>412</v>
       </c>
@@ -6052,17 +5929,14 @@
         <v>414</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>413</v>
       </c>
@@ -6070,17 +5944,14 @@
         <v>415</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>416</v>
       </c>
@@ -6088,17 +5959,14 @@
         <v>417</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>266</v>
       </c>
@@ -6108,19 +5976,16 @@
       <c r="C19" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="H19" s="11" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>273</v>
       </c>
@@ -6130,19 +5995,16 @@
       <c r="C20" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="H20" s="11" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>269</v>
       </c>
@@ -6152,19 +6014,16 @@
       <c r="C21" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="H21" s="11" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
@@ -6174,19 +6033,16 @@
       <c r="C22" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="H22" s="11" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>274</v>
       </c>
@@ -6196,19 +6052,16 @@
       <c r="C23" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="H23" s="11" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>276</v>
       </c>
@@ -6218,19 +6071,16 @@
       <c r="C24" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="H24" s="11" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>426</v>
       </c>
@@ -6238,17 +6088,14 @@
         <v>432</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>427</v>
       </c>
@@ -6256,17 +6103,14 @@
         <v>433</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -6274,17 +6118,14 @@
         <v>434</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>428</v>
       </c>
@@ -6292,17 +6133,14 @@
         <v>435</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
         <v>429</v>
       </c>
@@ -6310,17 +6148,14 @@
         <v>436</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>430</v>
       </c>
@@ -6328,17 +6163,14 @@
         <v>437</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>421</v>
       </c>
@@ -6346,19 +6178,16 @@
         <v>438</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="H31" s="13" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>422</v>
       </c>
@@ -6366,19 +6195,16 @@
         <v>439</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="H32" s="13" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>423</v>
       </c>
@@ -6386,19 +6212,16 @@
         <v>440</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="H33" s="11" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>424</v>
       </c>
@@ -6406,19 +6229,16 @@
         <v>441</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="H34" s="13" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>425</v>
       </c>
@@ -6426,19 +6246,16 @@
         <v>442</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="H35" s="13" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>446</v>
       </c>
@@ -6446,19 +6263,16 @@
         <v>448</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="H36" s="11" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>447</v>
       </c>
@@ -6466,19 +6280,16 @@
         <v>449</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="H37" s="11" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>431</v>
       </c>
@@ -6486,19 +6297,16 @@
         <v>443</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="H38" s="13" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
         <v>264</v>
       </c>
@@ -6508,19 +6316,16 @@
       <c r="C39" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="H39" s="11" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>339</v>
       </c>
@@ -6530,19 +6335,16 @@
       <c r="C40" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="H40" s="11" t="s">
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
         <v>346</v>
       </c>
@@ -6552,19 +6354,16 @@
       <c r="C41" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="H41" s="11" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>307</v>
       </c>
@@ -6574,17 +6373,14 @@
       <c r="C42" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
         <v>277</v>
       </c>
@@ -6594,17 +6390,14 @@
       <c r="C43" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
         <v>278</v>
       </c>
@@ -6614,17 +6407,14 @@
       <c r="C44" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
         <v>279</v>
       </c>
@@ -6634,17 +6424,14 @@
       <c r="C45" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
+      <c r="F45" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>280</v>
       </c>
@@ -6654,17 +6441,14 @@
       <c r="C46" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
         <v>281</v>
       </c>
@@ -6674,17 +6458,14 @@
       <c r="C47" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D47" s="11"/>
       <c r="E47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
         <v>282</v>
       </c>
@@ -6694,17 +6475,14 @@
       <c r="C48" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
         <v>283</v>
       </c>
@@ -6714,17 +6492,14 @@
       <c r="C49" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
         <v>284</v>
       </c>
@@ -6734,17 +6509,14 @@
       <c r="C50" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11" t="s">
+      <c r="F50" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
         <v>285</v>
       </c>
@@ -6752,17 +6524,14 @@
         <v>359</v>
       </c>
       <c r="C51" s="11"/>
-      <c r="D51" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11" t="s">
+      <c r="F51" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
         <v>286</v>
       </c>
@@ -6770,17 +6539,14 @@
         <v>360</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D52" s="11"/>
       <c r="E52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
         <v>292</v>
       </c>
@@ -6788,17 +6554,14 @@
         <v>361</v>
       </c>
       <c r="C53" s="11"/>
-      <c r="D53" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>309</v>
       </c>
@@ -6806,17 +6569,14 @@
         <v>362</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
         <v>294</v>
       </c>
@@ -6824,17 +6584,14 @@
         <v>363</v>
       </c>
       <c r="C55" s="11"/>
-      <c r="D55" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D55" s="11"/>
       <c r="E55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11" t="s">
+      <c r="F55" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>287</v>
       </c>
@@ -6842,17 +6599,14 @@
         <v>364</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11" t="s">
+      <c r="F56" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>295</v>
       </c>
@@ -6860,17 +6614,14 @@
         <v>365</v>
       </c>
       <c r="C57" s="11"/>
-      <c r="D57" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D57" s="11"/>
       <c r="E57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11" t="s">
+      <c r="F57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
         <v>311</v>
       </c>
@@ -6878,17 +6629,14 @@
         <v>459</v>
       </c>
       <c r="C58" s="11"/>
-      <c r="D58" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11" t="s">
+      <c r="F58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>297</v>
       </c>
@@ -6896,17 +6644,14 @@
         <v>366</v>
       </c>
       <c r="C59" s="11"/>
-      <c r="D59" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D59" s="11"/>
       <c r="E59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11" t="s">
+      <c r="F59" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
         <v>288</v>
       </c>
@@ -6914,17 +6659,14 @@
         <v>367</v>
       </c>
       <c r="C60" s="11"/>
-      <c r="D60" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11" t="s">
+      <c r="F60" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>298</v>
       </c>
@@ -6932,17 +6674,14 @@
         <v>368</v>
       </c>
       <c r="C61" s="11"/>
-      <c r="D61" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11" t="s">
+      <c r="F61" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="11"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
         <v>313</v>
       </c>
@@ -6950,17 +6689,14 @@
         <v>369</v>
       </c>
       <c r="C62" s="11"/>
-      <c r="D62" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11" t="s">
+      <c r="F62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J62" s="11"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
         <v>299</v>
       </c>
@@ -6968,17 +6704,14 @@
         <v>370</v>
       </c>
       <c r="C63" s="11"/>
-      <c r="D63" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11" t="s">
+      <c r="F63" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J63" s="11"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
         <v>289</v>
       </c>
@@ -6986,17 +6719,14 @@
         <v>371</v>
       </c>
       <c r="C64" s="11"/>
-      <c r="D64" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11" t="s">
+      <c r="F64" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J64" s="11"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
         <v>300</v>
       </c>
@@ -7004,17 +6734,14 @@
         <v>372</v>
       </c>
       <c r="C65" s="11"/>
-      <c r="D65" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11" t="s">
+      <c r="F65" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J65" s="11"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
         <v>315</v>
       </c>
@@ -7022,17 +6749,14 @@
         <v>373</v>
       </c>
       <c r="C66" s="11"/>
-      <c r="D66" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D66" s="11"/>
       <c r="E66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11" t="s">
+      <c r="F66" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J66" s="11"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
         <v>302</v>
       </c>
@@ -7040,17 +6764,14 @@
         <v>374</v>
       </c>
       <c r="C67" s="11"/>
-      <c r="D67" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D67" s="11"/>
       <c r="E67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11" t="s">
+      <c r="F67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J67" s="11"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
         <v>290</v>
       </c>
@@ -7058,17 +6779,14 @@
         <v>375</v>
       </c>
       <c r="C68" s="11"/>
-      <c r="D68" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D68" s="11"/>
       <c r="E68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J68" s="11"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
         <v>303</v>
       </c>
@@ -7076,17 +6794,14 @@
         <v>376</v>
       </c>
       <c r="C69" s="11"/>
-      <c r="D69" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D69" s="11"/>
       <c r="E69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11" t="s">
+      <c r="F69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J69" s="11"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
         <v>317</v>
       </c>
@@ -7094,17 +6809,14 @@
         <v>377</v>
       </c>
       <c r="C70" s="11"/>
-      <c r="D70" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D70" s="11"/>
       <c r="E70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11" t="s">
+      <c r="F70" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J70" s="11"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
         <v>305</v>
       </c>
@@ -7112,17 +6824,14 @@
         <v>378</v>
       </c>
       <c r="C71" s="11"/>
-      <c r="D71" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D71" s="11"/>
       <c r="E71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11" t="s">
+      <c r="F71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J71" s="11"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
         <v>291</v>
       </c>
@@ -7130,17 +6839,14 @@
         <v>379</v>
       </c>
       <c r="C72" s="11"/>
-      <c r="D72" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D72" s="11"/>
       <c r="E72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11" t="s">
+      <c r="F72" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J72" s="11"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
         <v>306</v>
       </c>
@@ -7148,17 +6854,14 @@
         <v>380</v>
       </c>
       <c r="C73" s="11"/>
-      <c r="D73" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D73" s="11"/>
       <c r="E73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11" t="s">
+      <c r="F73" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J73" s="11"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
         <v>319</v>
       </c>
@@ -7166,17 +6869,14 @@
         <v>381</v>
       </c>
       <c r="C74" s="11"/>
-      <c r="D74" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D74" s="11"/>
       <c r="E74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J74" s="11"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
         <v>308</v>
       </c>
@@ -7184,17 +6884,14 @@
         <v>382</v>
       </c>
       <c r="C75" s="11"/>
-      <c r="D75" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D75" s="11"/>
       <c r="E75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11" t="s">
+      <c r="F75" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J75" s="11"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
         <v>310</v>
       </c>
@@ -7202,17 +6899,14 @@
         <v>383</v>
       </c>
       <c r="C76" s="11"/>
-      <c r="D76" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11" t="s">
+      <c r="F76" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J76" s="11"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
         <v>312</v>
       </c>
@@ -7220,17 +6914,14 @@
         <v>384</v>
       </c>
       <c r="C77" s="11"/>
-      <c r="D77" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D77" s="11"/>
       <c r="E77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11" t="s">
+      <c r="F77" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J77" s="11"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
         <v>314</v>
       </c>
@@ -7238,17 +6929,14 @@
         <v>385</v>
       </c>
       <c r="C78" s="11"/>
-      <c r="D78" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J78" s="11"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
         <v>316</v>
       </c>
@@ -7256,17 +6944,14 @@
         <v>386</v>
       </c>
       <c r="C79" s="11"/>
-      <c r="D79" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D79" s="11"/>
       <c r="E79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J79" s="11"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
         <v>318</v>
       </c>
@@ -7274,17 +6959,14 @@
         <v>387</v>
       </c>
       <c r="C80" s="11"/>
-      <c r="D80" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11" t="s">
+      <c r="F80" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J80" s="11"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
         <v>301</v>
       </c>
@@ -7292,17 +6974,14 @@
         <v>388</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11" t="s">
+      <c r="F81" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J81" s="11"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
         <v>304</v>
       </c>
@@ -7310,17 +6989,14 @@
         <v>389</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D82" s="11"/>
       <c r="E82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J82" s="11"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
         <v>293</v>
       </c>
@@ -7328,17 +7004,14 @@
         <v>390</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D83" s="11"/>
       <c r="E83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11" t="s">
+      <c r="F83" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J83" s="11"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
         <v>296</v>
       </c>
@@ -7346,17 +7019,14 @@
         <v>391</v>
       </c>
       <c r="C84" s="11"/>
-      <c r="D84" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D84" s="11"/>
       <c r="E84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J84" s="11"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>320</v>
       </c>
@@ -7364,17 +7034,14 @@
         <v>392</v>
       </c>
       <c r="C85" s="11"/>
-      <c r="D85" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J85" s="11"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
         <v>322</v>
       </c>
@@ -7382,17 +7049,14 @@
         <v>393</v>
       </c>
       <c r="C86" s="11"/>
-      <c r="D86" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D86" s="11"/>
       <c r="E86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11" t="s">
+      <c r="F86" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J86" s="11"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
         <v>324</v>
       </c>
@@ -7400,17 +7064,14 @@
         <v>394</v>
       </c>
       <c r="C87" s="11"/>
-      <c r="D87" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J87" s="11"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
         <v>321</v>
       </c>
@@ -7418,17 +7079,14 @@
         <v>395</v>
       </c>
       <c r="C88" s="11"/>
-      <c r="D88" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11" t="s">
+      <c r="F88" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J88" s="11"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
         <v>323</v>
       </c>
@@ -7436,17 +7094,14 @@
         <v>396</v>
       </c>
       <c r="C89" s="11"/>
-      <c r="D89" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D89" s="11"/>
       <c r="E89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11" t="s">
+      <c r="F89" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J89" s="11"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
         <v>325</v>
       </c>
@@ -7454,17 +7109,14 @@
         <v>397</v>
       </c>
       <c r="C90" s="11"/>
-      <c r="D90" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D90" s="11"/>
       <c r="E90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11" t="s">
+      <c r="F90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J90" s="11"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
         <v>326</v>
       </c>
@@ -7472,17 +7124,14 @@
         <v>398</v>
       </c>
       <c r="C91" s="11"/>
-      <c r="D91" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D91" s="11"/>
       <c r="E91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11" t="s">
+      <c r="F91" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J91" s="11"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
         <v>328</v>
       </c>
@@ -7490,17 +7139,14 @@
         <v>399</v>
       </c>
       <c r="C92" s="11"/>
-      <c r="D92" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D92" s="11"/>
       <c r="E92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11" t="s">
+      <c r="F92" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J92" s="11"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
         <v>330</v>
       </c>
@@ -7508,17 +7154,14 @@
         <v>400</v>
       </c>
       <c r="C93" s="11"/>
-      <c r="D93" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D93" s="11"/>
       <c r="E93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11" t="s">
+      <c r="F93" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J93" s="11"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
         <v>327</v>
       </c>
@@ -7526,17 +7169,14 @@
         <v>401</v>
       </c>
       <c r="C94" s="11"/>
-      <c r="D94" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D94" s="11"/>
       <c r="E94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11" t="s">
+      <c r="F94" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J94" s="11"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
         <v>329</v>
       </c>
@@ -7544,17 +7184,14 @@
         <v>402</v>
       </c>
       <c r="C95" s="11"/>
-      <c r="D95" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D95" s="11"/>
       <c r="E95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11" t="s">
+      <c r="F95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J95" s="11"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
         <v>331</v>
       </c>
@@ -7562,157 +7199,14 @@
         <v>403</v>
       </c>
       <c r="C96" s="11"/>
-      <c r="D96" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="D96" s="11"/>
       <c r="E96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11" t="s">
+      <c r="F96" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J96" s="11"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D97" s="11"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D98" s="11"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D99" s="11"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D100" s="11"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D101" s="11"/>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D102" s="11"/>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D103" s="11"/>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D104" s="11"/>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D105" s="11"/>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D106" s="11"/>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D107" s="11"/>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D108" s="11"/>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D110" s="11"/>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D111" s="11"/>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D112" s="11"/>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D113" s="11"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D114" s="11"/>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D115" s="11"/>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D116" s="11"/>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D117" s="11"/>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D118" s="11"/>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D119" s="11"/>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D120" s="11"/>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D121" s="11"/>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D122" s="11"/>
-    </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D123" s="11"/>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D124" s="11"/>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D125" s="11"/>
-    </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D126" s="11"/>
-    </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D127" s="11"/>
-    </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D128" s="11"/>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D129" s="11"/>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D130" s="11"/>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D131" s="11"/>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D132" s="11"/>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D133" s="11"/>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D134" s="11"/>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D135" s="11"/>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D136" s="11"/>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D137" s="11"/>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D138" s="11"/>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D139" s="11"/>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D140" s="11"/>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D141" s="11"/>
+      <c r="G96" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D141" xr:uid="{954730B5-53BD-4573-A572-BA4ACED51291}">
-      <formula1>"n,y"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60B00A1-1DDE-49B1-819C-8010E9376A5D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4A2F77-2A61-42B2-90CA-20866B40A710}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C11C68D6-11FB-448A-8479-11977F3C8A42}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for tagging a parameter as an interaction.
+Interaction parameters are special; they store values not by
+population (i.e. in unary fashion) but by population pairs (i.e.
+in binary fashion).
+...
+Note: This tag is only enabled for a parameter by marking the
+corresponding cell 'y'.
+Anything else, including keeping the cell blank, disables the tag.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
       <text>
         <r>
           <rPr>
@@ -557,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
       <text>
         <r>
           <rPr>
@@ -577,7 +597,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="466">
   <si>
     <t>Code Name</t>
   </si>
@@ -1872,9 +1892,6 @@
     <t>xdr_fac</t>
   </si>
   <si>
-    <t>foi</t>
-  </si>
-  <si>
     <t>Infection vulnerability factor (vaccinated versus susceptible)</t>
   </si>
   <si>
@@ -1908,15 +1925,6 @@
     <t>XDR-SN infectiousness</t>
   </si>
   <si>
-    <t>Force of infection</t>
-  </si>
-  <si>
-    <t>foi*lat_fac</t>
-  </si>
-  <si>
-    <t>foi*vac_fac</t>
-  </si>
-  <si>
     <t>foi_p</t>
   </si>
   <si>
@@ -1957,6 +1965,36 @@
   </si>
   <si>
     <t>MDR-SP treatment success rate</t>
+  </si>
+  <si>
+    <t>foi_out</t>
+  </si>
+  <si>
+    <t>Force of infection imparted by population</t>
+  </si>
+  <si>
+    <t>foi_in</t>
+  </si>
+  <si>
+    <t>Force of infection experienced by population</t>
+  </si>
+  <si>
+    <t>foi_in*vac_fac</t>
+  </si>
+  <si>
+    <t>foi_in*lat_fac</t>
+  </si>
+  <si>
+    <t>srcpopsum(foi_out*alive*w_ctc)/srcpopsum(alive*w_ctc)</t>
+  </si>
+  <si>
+    <t>w_ctc</t>
+  </si>
+  <si>
+    <t>Preference weighting for one population interacting with another</t>
+  </si>
+  <si>
+    <t>Is Interaction</t>
   </si>
 </sst>
 </file>
@@ -4220,7 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B4020-084C-4F00-B628-93D126F8BCA7}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -5640,27 +5678,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="B58" sqref="B58"/>
+      <selection pane="topRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.9296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.9296875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="10"/>
+    <col min="6" max="6" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5677,13 +5716,16 @@
         <v>12</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>255</v>
       </c>
@@ -5695,12 +5737,13 @@
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -5710,12 +5753,13 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>256</v>
       </c>
@@ -5727,12 +5771,13 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>257</v>
       </c>
@@ -5742,12 +5787,13 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>263</v>
       </c>
@@ -5757,12 +5803,13 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>405</v>
       </c>
@@ -5772,12 +5819,13 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>406</v>
       </c>
@@ -5787,12 +5835,13 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>407</v>
       </c>
@@ -5802,12 +5851,13 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>265</v>
       </c>
@@ -5822,11 +5872,12 @@
         <v>405</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -5841,11 +5892,12 @@
         <v>406</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>268</v>
       </c>
@@ -5860,11 +5912,12 @@
         <v>407</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>270</v>
       </c>
@@ -5879,11 +5932,12 @@
         <v>405</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
@@ -5898,11 +5952,12 @@
         <v>406</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -5917,11 +5972,12 @@
         <v>407</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>412</v>
       </c>
@@ -5931,12 +5987,13 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>413</v>
       </c>
@@ -5946,12 +6003,13 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>416</v>
       </c>
@@ -5961,12 +6019,13 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>266</v>
       </c>
@@ -5981,11 +6040,12 @@
         <v>418</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>273</v>
       </c>
@@ -6000,11 +6060,12 @@
         <v>418</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>269</v>
       </c>
@@ -6019,11 +6080,12 @@
         <v>419</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
@@ -6038,11 +6100,12 @@
         <v>419</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>274</v>
       </c>
@@ -6057,11 +6120,12 @@
         <v>413</v>
       </c>
       <c r="F23" s="11"/>
-      <c r="G23" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>276</v>
       </c>
@@ -6076,1135 +6140,1242 @@
         <v>413</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>426</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>427</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>428</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
         <v>429</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>430</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>421</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>449</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>422</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>423</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G33" s="11"/>
+      <c r="H33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>424</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>425</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F36" s="11"/>
-      <c r="G36" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G36" s="11"/>
+      <c r="H36" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G37" s="11"/>
+      <c r="H37" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G41" s="11"/>
+      <c r="H41" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="E42" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>351</v>
+      <c r="H42" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="E43" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>352</v>
+      <c r="H43" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>356</v>
+        <v>280</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>354</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>357</v>
+        <v>281</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C51" s="11"/>
+        <v>283</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>454</v>
+      </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="C52" s="11"/>
+        <v>284</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>454</v>
+      </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="11"/>
+      <c r="G54" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>459</v>
+        <v>364</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="11"/>
+      <c r="G58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="11"/>
+      <c r="G59" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>367</v>
+        <v>455</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="11"/>
+      <c r="G61" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="11"/>
+      <c r="G62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G62" s="11"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="11"/>
+      <c r="G64" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="11"/>
+      <c r="G66" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="11"/>
+      <c r="G67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="11"/>
+      <c r="G68" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="11"/>
+      <c r="G69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="11"/>
+      <c r="G70" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="11"/>
+      <c r="G72" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="11"/>
+      <c r="G73" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F75" s="11"/>
+      <c r="G75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F76" s="11"/>
+      <c r="G76" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="11"/>
+      <c r="G78" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="11"/>
+      <c r="G79" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="11"/>
+      <c r="G80" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>388</v>
+        <v>316</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="11"/>
+      <c r="G81" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>389</v>
+        <v>318</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="11"/>
+      <c r="G82" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>390</v>
+        <v>301</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>388</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="11"/>
+      <c r="G83" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G83" s="11"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>391</v>
+        <v>304</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="11"/>
+      <c r="G84" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G84" s="11"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84" s="11"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>392</v>
+        <v>293</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G85" s="11"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F85" s="11"/>
+      <c r="G85" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>393</v>
+        <v>296</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" s="11"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F86" s="11"/>
+      <c r="G86" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="11"/>
+      <c r="G87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="11"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="11"/>
+      <c r="G88" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G88" s="11"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="11"/>
+      <c r="G89" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="11"/>
+      <c r="G90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G90" s="11"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="11"/>
+      <c r="G91" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G91" s="11"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="11"/>
+      <c r="G92" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="11"/>
+      <c r="G93" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93" s="11"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="11"/>
+      <c r="G94" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="11"/>
+      <c r="G95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G95" s="11"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="11"/>
+      <c r="G96" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H97" s="11"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A98" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H98" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4A2F77-2A61-42B2-90CA-20866B40A710}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BDCCB8-DD77-4F1C-9A21-0D41B8AD9ECF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5680,10 +5680,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="F41" sqref="F41"/>
+      <selection pane="topRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6393,7 +6393,9 @@
         <v>464</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="D39" s="11">
+        <v>1</v>
+      </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
         <v>73</v>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BDCCB8-DD77-4F1C-9A21-0D41B8AD9ECF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F524D1-FAB5-4A51-9A96-CCAC2919B326}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Databook Pages" sheetId="7" r:id="rId1"/>
     <sheet name="Compartments" sheetId="1" r:id="rId2"/>
     <sheet name="Transitions" sheetId="2" r:id="rId3"/>
     <sheet name="Characteristics" sheetId="8" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="9" r:id="rId5"/>
+    <sheet name="Interactions" sheetId="10" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -454,6 +455,78 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{EB848832-138E-4807-B1A8-D7DF3DE2313D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the 'code name' of a population interaction.
+These are special parameters that do not store values per population
+but per pairs of populations, specifically relating to how a source
+population interacts with a target population.
+Examples may include 'w_ctc', 'sex_partners', etc.
+The values that users provide for these matrix parameters, possibly
+time-dependent, can be propagated into population parameters by
+special functions such as 'srcpopavg'.
+Refer to documentation for more details.
+Note: A display name is a representative label that users interface
+with (e.g. in databooks and plots).
+It should be in title or sentence case.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{36D70CD2-777D-47CE-8B17-D057A2A5D8A6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the 'display name' of a population interaction.
+These are special parameters that do not store values per population
+but per pairs of populations, specifically relating to how a source
+population interacts with a target population.
+Examples may include 'Contact weighting', 'Number of sex partners',
+etc.
+The values that users provide for these matrix parameters, possibly
+time-dependent, can be propagated into population parameters by
+special functions such as 'srcpopavg'.
+Refer to documentation for more details.
+Note: A display name is a representative label that users interface
+with (e.g. in databooks and plots).
+It should be in title or sentence case.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5A3FB103-1D0A-4D71-88B5-B11FA384B5C6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'default_value' attribute for a 'interpop' item.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{410F4B41-B661-437F-9D6C-2630D6921AC9}">
       <text>
         <r>
@@ -538,27 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C11C68D6-11FB-448A-8479-11977F3C8A42}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for tagging a parameter as an interaction.
-Interaction parameters are special; they store values not by
-population (i.e. in unary fashion) but by population pairs (i.e.
-in binary fashion).
-...
-Note: This tag is only enabled for a parameter by marking the
-corresponding cell 'y'.
-Anything else, including keeping the cell blank, disables the tag.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
       <text>
         <r>
           <rPr>
@@ -577,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
       <text>
         <r>
           <rPr>
@@ -597,7 +650,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="465">
   <si>
     <t>Code Name</t>
   </si>
@@ -1985,16 +2038,13 @@
     <t>foi_in*lat_fac</t>
   </si>
   <si>
-    <t>srcpopsum(foi_out*alive*w_ctc)/srcpopsum(alive*w_ctc)</t>
-  </si>
-  <si>
     <t>w_ctc</t>
   </si>
   <si>
     <t>Preference weighting for one population interacting with another</t>
   </si>
   <si>
-    <t>Is Interaction</t>
+    <t>srcpopavg(foi_out,alive,w_ctc)</t>
   </si>
 </sst>
 </file>
@@ -5677,11 +5727,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6594BDD-62B5-4F98-B885-93E43B330298}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.9296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="E39" sqref="E39"/>
     </sheetView>
@@ -5693,13 +5787,12 @@
     <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="10"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5716,16 +5809,13 @@
         <v>12</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>465</v>
+        <v>96</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>255</v>
       </c>
@@ -5737,13 +5827,12 @@
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -5753,13 +5842,12 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>256</v>
       </c>
@@ -5771,13 +5859,12 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>257</v>
       </c>
@@ -5787,13 +5874,12 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>263</v>
       </c>
@@ -5803,13 +5889,12 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>405</v>
       </c>
@@ -5819,13 +5904,12 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>406</v>
       </c>
@@ -5835,13 +5919,12 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>407</v>
       </c>
@@ -5851,13 +5934,12 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>265</v>
       </c>
@@ -5872,12 +5954,11 @@
         <v>405</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G10" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -5892,12 +5973,11 @@
         <v>406</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G11" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>268</v>
       </c>
@@ -5912,12 +5992,11 @@
         <v>407</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G12" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>270</v>
       </c>
@@ -5932,12 +6011,11 @@
         <v>405</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
@@ -5952,12 +6030,11 @@
         <v>406</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G14" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -5972,12 +6049,11 @@
         <v>407</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G15" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>412</v>
       </c>
@@ -5987,13 +6063,12 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>413</v>
       </c>
@@ -6003,13 +6078,12 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>416</v>
       </c>
@@ -6019,13 +6093,12 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>266</v>
       </c>
@@ -6040,12 +6113,11 @@
         <v>418</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G19" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>273</v>
       </c>
@@ -6060,12 +6132,11 @@
         <v>418</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G20" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>269</v>
       </c>
@@ -6080,12 +6151,11 @@
         <v>419</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G21" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
@@ -6100,12 +6170,11 @@
         <v>419</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G22" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>274</v>
       </c>
@@ -6120,12 +6189,11 @@
         <v>413</v>
       </c>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G23" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>276</v>
       </c>
@@ -6140,12 +6208,11 @@
         <v>413</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G24" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>426</v>
       </c>
@@ -6155,13 +6222,12 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>427</v>
       </c>
@@ -6171,13 +6237,12 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -6187,13 +6252,12 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>428</v>
       </c>
@@ -6203,13 +6267,12 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
         <v>429</v>
       </c>
@@ -6219,13 +6282,12 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>430</v>
       </c>
@@ -6235,13 +6297,12 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>421</v>
       </c>
@@ -6253,13 +6314,12 @@
       <c r="E31" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>422</v>
       </c>
@@ -6271,13 +6331,12 @@
       <c r="E32" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>423</v>
       </c>
@@ -6290,12 +6349,11 @@
         <v>453</v>
       </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>424</v>
       </c>
@@ -6307,13 +6365,12 @@
       <c r="E34" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>425</v>
       </c>
@@ -6325,13 +6382,12 @@
       <c r="E35" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>442</v>
       </c>
@@ -6344,12 +6400,11 @@
         <v>446</v>
       </c>
       <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G36" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>443</v>
       </c>
@@ -6362,12 +6417,11 @@
         <v>447</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G37" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>456</v>
       </c>
@@ -6379,1005 +6433,927 @@
       <c r="E38" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11">
-        <v>1</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="13" t="s">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G41" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G42" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="F43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="G43" s="11"/>
-      <c r="H43" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>350</v>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>351</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F44" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>454</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11" t="s">
+      <c r="F45" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>454</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>454</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>454</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>355</v>
+        <v>282</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>356</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>454</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>454</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
+      <c r="F50" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>454</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11" t="s">
+      <c r="F51" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>454</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F52" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11" t="s">
+      <c r="F55" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11" t="s">
+      <c r="F56" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11" t="s">
+      <c r="F57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11" t="s">
+      <c r="F58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11" t="s">
+      <c r="F59" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>455</v>
+        <v>366</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11" t="s">
+      <c r="F60" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11" t="s">
+      <c r="F61" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11" t="s">
+      <c r="F62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11" t="s">
+      <c r="F63" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11" t="s">
+      <c r="F64" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11" t="s">
+      <c r="F65" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11" t="s">
+      <c r="F66" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11" t="s">
+      <c r="F67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11" t="s">
+      <c r="F69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11" t="s">
+      <c r="F70" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11" t="s">
+      <c r="F71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11" t="s">
+      <c r="F72" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11" t="s">
+      <c r="F73" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11" t="s">
+      <c r="F75" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F76" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11" t="s">
+      <c r="F77" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H79" s="11"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11" t="s">
+      <c r="F80" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11" t="s">
+      <c r="F81" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H81" s="11"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>387</v>
+        <v>301</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>388</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H82" s="11"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11" t="s">
+      <c r="F83" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H83" s="11"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>389</v>
+        <v>293</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H84" s="11"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H85" s="11"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>391</v>
+        <v>320</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>392</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F86" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H87" s="11"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11" t="s">
+      <c r="F88" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H88" s="11"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11" t="s">
+      <c r="F89" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11" t="s">
+      <c r="F90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H90" s="11"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11" t="s">
+      <c r="F91" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H91" s="11"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11" t="s">
+      <c r="F92" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11" t="s">
+      <c r="F93" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H93" s="11"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11" t="s">
+      <c r="F94" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H94" s="11"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11" t="s">
+      <c r="F95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H95" s="11"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11" t="s">
+      <c r="F96" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H96" s="11"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G96" s="11"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11" t="s">
+      <c r="F97" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H97" s="11"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A98" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H98" s="11"/>
+      <c r="G97" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F524D1-FAB5-4A51-9A96-CCAC2919B326}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40E3017-C866-4E8B-83C5-5119E8443240}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2044,7 +2044,7 @@
     <t>Preference weighting for one population interacting with another</t>
   </si>
   <si>
-    <t>srcpopavg(foi_out,alive,w_ctc)</t>
+    <t>SRC_POP_AVG(foi_out, alive, w_ctc)</t>
   </si>
 </sst>
 </file>
@@ -5731,7 +5731,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5774,19 +5774,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="E39" sqref="E39"/>
+      <selection pane="topRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.9296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.59765625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.06640625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.06640625" style="10"/>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40E3017-C866-4E8B-83C5-5119E8443240}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE85C0F0-486B-4703-8D15-FEAEF6BF2A8F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2044,7 +2044,7 @@
     <t>Preference weighting for one population interacting with another</t>
   </si>
   <si>
-    <t>SRC_POP_AVG(foi_out, alive, w_ctc)</t>
+    <t>SRC_POP_AVG(foi_out, w_ctc,alive)</t>
   </si>
 </sst>
 </file>
@@ -2499,13 +2499,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.73046875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="2" width="25.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>76</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>82</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>84</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>86</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>90</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>92</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2607,19 +2607,19 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
@@ -3465,49 +3465,48 @@
       <selection pane="topRight" activeCell="AJ22" sqref="AJ22:AK22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.9296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.46484375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.06640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.06640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.9296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.06640625" style="11"/>
+    <col min="36" max="36" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -3652,7 +3651,7 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -3670,7 +3669,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>Compartments!A3</f>
         <v>vac</v>
@@ -3685,7 +3684,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="str">
         <f>Compartments!A4</f>
         <v>lteu</v>
@@ -3706,7 +3705,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
         <f>Compartments!A5</f>
         <v>ltet</v>
@@ -3724,7 +3723,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>Compartments!A6</f>
         <v>ltlu</v>
@@ -3742,7 +3741,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f>Compartments!A7</f>
         <v>ltlt</v>
@@ -3760,7 +3759,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f>Compartments!A8</f>
         <v>ltr</v>
@@ -3775,7 +3774,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="str">
         <f>Compartments!A9</f>
         <v>ltex</v>
@@ -3793,7 +3792,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>Compartments!A10</f>
         <v>ltlx</v>
@@ -3808,7 +3807,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f>Compartments!A11</f>
         <v>acj</v>
@@ -3820,7 +3819,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Compartments!A12</f>
         <v>spj</v>
@@ -3835,7 +3834,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f>Compartments!A13</f>
         <v>spdu</v>
@@ -3856,7 +3855,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>Compartments!A14</f>
         <v>spdd</v>
@@ -3877,7 +3876,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f>Compartments!A15</f>
         <v>spdt</v>
@@ -3901,7 +3900,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f>Compartments!A16</f>
         <v>spmu</v>
@@ -3922,7 +3921,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f>Compartments!A17</f>
         <v>spmd</v>
@@ -3943,7 +3942,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>Compartments!A18</f>
         <v>spmt</v>
@@ -3967,7 +3966,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f>Compartments!A19</f>
         <v>spxu</v>
@@ -3988,7 +3987,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f>Compartments!A20</f>
         <v>spxd</v>
@@ -4009,7 +4008,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>Compartments!A21</f>
         <v>spxt</v>
@@ -4030,7 +4029,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f>Compartments!A22</f>
         <v>snj</v>
@@ -4045,7 +4044,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f>Compartments!A23</f>
         <v>sndu</v>
@@ -4066,7 +4065,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f>Compartments!A24</f>
         <v>sndd</v>
@@ -4087,7 +4086,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f>Compartments!A25</f>
         <v>sndt</v>
@@ -4111,7 +4110,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>Compartments!A26</f>
         <v>snmu</v>
@@ -4132,7 +4131,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f>Compartments!A27</f>
         <v>snmd</v>
@@ -4153,7 +4152,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f>Compartments!A28</f>
         <v>snmt</v>
@@ -4177,7 +4176,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f>Compartments!A29</f>
         <v>snxu</v>
@@ -4198,7 +4197,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f>Compartments!A30</f>
         <v>snxd</v>
@@ -4219,7 +4218,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f>Compartments!A31</f>
         <v>snxt</v>
@@ -4240,7 +4239,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f>Compartments!A32</f>
         <v>acr</v>
@@ -4255,7 +4254,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>46</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>69</v>
       </c>
@@ -4271,31 +4270,31 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
     </row>
   </sheetData>
@@ -4312,21 +4311,21 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="3"/>
+    <col min="9" max="9" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
@@ -4470,7 +4469,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>117</v>
       </c>
@@ -4492,7 +4491,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
@@ -4514,7 +4513,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>119</v>
       </c>
@@ -4536,7 +4535,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>120</v>
       </c>
@@ -4558,7 +4557,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -4580,7 +4579,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>248</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>122</v>
       </c>
@@ -4624,7 +4623,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>123</v>
       </c>
@@ -4646,7 +4645,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>124</v>
       </c>
@@ -4668,7 +4667,7 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>125</v>
       </c>
@@ -4690,7 +4689,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>126</v>
       </c>
@@ -4712,7 +4711,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>127</v>
       </c>
@@ -4734,7 +4733,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>140</v>
       </c>
@@ -4756,7 +4755,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
@@ -4778,7 +4777,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>147</v>
       </c>
@@ -4800,7 +4799,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>143</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>144</v>
       </c>
@@ -4844,7 +4843,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>146</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>142</v>
       </c>
@@ -4885,7 +4884,7 @@
       </c>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>145</v>
       </c>
@@ -4907,7 +4906,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>157</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>158</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>159</v>
       </c>
@@ -4973,7 +4972,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>160</v>
       </c>
@@ -4995,7 +4994,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>161</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>162</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>169</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>170</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>171</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>172</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>173</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>174</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>181</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>183</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>184</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>185</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>186</v>
       </c>
@@ -5303,7 +5302,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>187</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>188</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>189</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>199</v>
       </c>
@@ -5391,7 +5390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>200</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>201</v>
       </c>
@@ -5435,7 +5434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>202</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>219</v>
       </c>
@@ -5479,7 +5478,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>221</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>222</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>223</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>224</v>
       </c>
@@ -5589,7 +5588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>226</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>227</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>228</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>252</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>244</v>
       </c>
@@ -5700,7 +5699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>245</v>
       </c>
@@ -5734,15 +5733,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.9296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="10"/>
+    <col min="1" max="1" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>462</v>
       </c>
@@ -5777,22 +5776,22 @@
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="E38" sqref="E38"/>
+      <selection pane="topRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.06640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="10"/>
+    <col min="7" max="7" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>255</v>
       </c>
@@ -5832,7 +5831,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -5847,7 +5846,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>256</v>
       </c>
@@ -5864,7 +5863,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>257</v>
       </c>
@@ -5879,7 +5878,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>263</v>
       </c>
@@ -5894,7 +5893,7 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>405</v>
       </c>
@@ -5909,7 +5908,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>406</v>
       </c>
@@ -5924,7 +5923,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>407</v>
       </c>
@@ -5939,7 +5938,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>265</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -5977,7 +5976,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>268</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>270</v>
       </c>
@@ -6015,7 +6014,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
@@ -6034,7 +6033,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>412</v>
       </c>
@@ -6068,7 +6067,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>413</v>
       </c>
@@ -6083,7 +6082,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>416</v>
       </c>
@@ -6098,7 +6097,7 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>266</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>273</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>269</v>
       </c>
@@ -6155,7 +6154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>274</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>276</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>426</v>
       </c>
@@ -6227,7 +6226,7 @@
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>427</v>
       </c>
@@ -6242,7 +6241,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -6257,7 +6256,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>428</v>
       </c>
@@ -6272,7 +6271,7 @@
       </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>429</v>
       </c>
@@ -6287,7 +6286,7 @@
       </c>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>430</v>
       </c>
@@ -6302,7 +6301,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>421</v>
       </c>
@@ -6319,7 +6318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>422</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>423</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>424</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>425</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>442</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>443</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>456</v>
       </c>
@@ -6438,7 +6437,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>458</v>
       </c>
@@ -6455,7 +6454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>264</v>
       </c>
@@ -6474,7 +6473,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>339</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>346</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>307</v>
       </c>
@@ -6529,7 +6528,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>277</v>
       </c>
@@ -6546,7 +6545,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>278</v>
       </c>
@@ -6563,7 +6562,7 @@
       </c>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>279</v>
       </c>
@@ -6580,7 +6579,7 @@
       </c>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>280</v>
       </c>
@@ -6597,7 +6596,7 @@
       </c>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>281</v>
       </c>
@@ -6614,7 +6613,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>282</v>
       </c>
@@ -6631,7 +6630,7 @@
       </c>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>283</v>
       </c>
@@ -6648,7 +6647,7 @@
       </c>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>284</v>
       </c>
@@ -6665,7 +6664,7 @@
       </c>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>285</v>
       </c>
@@ -6680,7 +6679,7 @@
       </c>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>286</v>
       </c>
@@ -6695,7 +6694,7 @@
       </c>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>292</v>
       </c>
@@ -6710,7 +6709,7 @@
       </c>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>309</v>
       </c>
@@ -6725,7 +6724,7 @@
       </c>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>294</v>
       </c>
@@ -6740,7 +6739,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>287</v>
       </c>
@@ -6755,7 +6754,7 @@
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -6770,7 +6769,7 @@
       </c>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>311</v>
       </c>
@@ -6785,7 +6784,7 @@
       </c>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>297</v>
       </c>
@@ -6800,7 +6799,7 @@
       </c>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>288</v>
       </c>
@@ -6815,7 +6814,7 @@
       </c>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>298</v>
       </c>
@@ -6830,7 +6829,7 @@
       </c>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>313</v>
       </c>
@@ -6845,7 +6844,7 @@
       </c>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>299</v>
       </c>
@@ -6860,7 +6859,7 @@
       </c>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>289</v>
       </c>
@@ -6875,7 +6874,7 @@
       </c>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>300</v>
       </c>
@@ -6890,7 +6889,7 @@
       </c>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>315</v>
       </c>
@@ -6905,7 +6904,7 @@
       </c>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>302</v>
       </c>
@@ -6920,7 +6919,7 @@
       </c>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>290</v>
       </c>
@@ -6935,7 +6934,7 @@
       </c>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>303</v>
       </c>
@@ -6950,7 +6949,7 @@
       </c>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>317</v>
       </c>
@@ -6965,7 +6964,7 @@
       </c>
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>305</v>
       </c>
@@ -6980,7 +6979,7 @@
       </c>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>291</v>
       </c>
@@ -6995,7 +6994,7 @@
       </c>
       <c r="G73" s="11"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>306</v>
       </c>
@@ -7010,7 +7009,7 @@
       </c>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>319</v>
       </c>
@@ -7025,7 +7024,7 @@
       </c>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>308</v>
       </c>
@@ -7040,7 +7039,7 @@
       </c>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>310</v>
       </c>
@@ -7055,7 +7054,7 @@
       </c>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>312</v>
       </c>
@@ -7070,7 +7069,7 @@
       </c>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>314</v>
       </c>
@@ -7085,7 +7084,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>316</v>
       </c>
@@ -7100,7 +7099,7 @@
       </c>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>318</v>
       </c>
@@ -7115,7 +7114,7 @@
       </c>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>301</v>
       </c>
@@ -7130,7 +7129,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>304</v>
       </c>
@@ -7145,7 +7144,7 @@
       </c>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>293</v>
       </c>
@@ -7160,7 +7159,7 @@
       </c>
       <c r="G84" s="11"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>296</v>
       </c>
@@ -7175,7 +7174,7 @@
       </c>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>320</v>
       </c>
@@ -7190,7 +7189,7 @@
       </c>
       <c r="G86" s="11"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>322</v>
       </c>
@@ -7205,7 +7204,7 @@
       </c>
       <c r="G87" s="11"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>324</v>
       </c>
@@ -7220,7 +7219,7 @@
       </c>
       <c r="G88" s="11"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>321</v>
       </c>
@@ -7235,7 +7234,7 @@
       </c>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>323</v>
       </c>
@@ -7250,7 +7249,7 @@
       </c>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>325</v>
       </c>
@@ -7265,7 +7264,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>326</v>
       </c>
@@ -7280,7 +7279,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>328</v>
       </c>
@@ -7295,7 +7294,7 @@
       </c>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>330</v>
       </c>
@@ -7310,7 +7309,7 @@
       </c>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>327</v>
       </c>
@@ -7325,7 +7324,7 @@
       </c>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>329</v>
       </c>
@@ -7340,7 +7339,7 @@
       </c>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>331</v>
       </c>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE85C0F0-486B-4703-8D15-FEAEF6BF2A8F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D15FA5-4B56-4660-8EA1-6B788D02D2B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2044,7 +2044,7 @@
     <t>Preference weighting for one population interacting with another</t>
   </si>
   <si>
-    <t>SRC_POP_AVG(foi_out, w_ctc,alive)</t>
+    <t>TGT_POP_AVG(foi_out, w_ctc, alive)</t>
   </si>
 </sst>
 </file>
@@ -2499,13 +2499,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="25.73046875" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>76</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>82</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>84</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>86</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>90</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>92</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2607,19 +2607,19 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
@@ -3465,48 +3465,48 @@
       <selection pane="topRight" activeCell="AJ22" sqref="AJ22:AK22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.86328125" style="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -3651,7 +3651,7 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -3669,7 +3669,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="str">
         <f>Compartments!A3</f>
         <v>vac</v>
@@ -3684,7 +3684,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="str">
         <f>Compartments!A4</f>
         <v>lteu</v>
@@ -3705,7 +3705,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="str">
         <f>Compartments!A5</f>
         <v>ltet</v>
@@ -3723,7 +3723,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="str">
         <f>Compartments!A6</f>
         <v>ltlu</v>
@@ -3741,7 +3741,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="str">
         <f>Compartments!A7</f>
         <v>ltlt</v>
@@ -3759,7 +3759,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="str">
         <f>Compartments!A8</f>
         <v>ltr</v>
@@ -3774,7 +3774,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="str">
         <f>Compartments!A9</f>
         <v>ltex</v>
@@ -3792,7 +3792,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="str">
         <f>Compartments!A10</f>
         <v>ltlx</v>
@@ -3807,7 +3807,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="str">
         <f>Compartments!A11</f>
         <v>acj</v>
@@ -3819,7 +3819,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="str">
         <f>Compartments!A12</f>
         <v>spj</v>
@@ -3834,7 +3834,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="str">
         <f>Compartments!A13</f>
         <v>spdu</v>
@@ -3855,7 +3855,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="str">
         <f>Compartments!A14</f>
         <v>spdd</v>
@@ -3876,7 +3876,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="str">
         <f>Compartments!A15</f>
         <v>spdt</v>
@@ -3900,7 +3900,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="str">
         <f>Compartments!A16</f>
         <v>spmu</v>
@@ -3921,7 +3921,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="str">
         <f>Compartments!A17</f>
         <v>spmd</v>
@@ -3942,7 +3942,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="str">
         <f>Compartments!A18</f>
         <v>spmt</v>
@@ -3966,7 +3966,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="str">
         <f>Compartments!A19</f>
         <v>spxu</v>
@@ -3987,7 +3987,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="str">
         <f>Compartments!A20</f>
         <v>spxd</v>
@@ -4008,7 +4008,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="str">
         <f>Compartments!A21</f>
         <v>spxt</v>
@@ -4029,7 +4029,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="str">
         <f>Compartments!A22</f>
         <v>snj</v>
@@ -4044,7 +4044,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="str">
         <f>Compartments!A23</f>
         <v>sndu</v>
@@ -4065,7 +4065,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="str">
         <f>Compartments!A24</f>
         <v>sndd</v>
@@ -4086,7 +4086,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="str">
         <f>Compartments!A25</f>
         <v>sndt</v>
@@ -4110,7 +4110,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="str">
         <f>Compartments!A26</f>
         <v>snmu</v>
@@ -4131,7 +4131,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="str">
         <f>Compartments!A27</f>
         <v>snmd</v>
@@ -4152,7 +4152,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="str">
         <f>Compartments!A28</f>
         <v>snmt</v>
@@ -4176,7 +4176,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="str">
         <f>Compartments!A29</f>
         <v>snxu</v>
@@ -4197,7 +4197,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="str">
         <f>Compartments!A30</f>
         <v>snxd</v>
@@ -4218,7 +4218,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="12" t="str">
         <f>Compartments!A31</f>
         <v>snxt</v>
@@ -4239,7 +4239,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="str">
         <f>Compartments!A32</f>
         <v>acr</v>
@@ -4254,7 +4254,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
         <v>46</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
         <v>69</v>
       </c>
@@ -4270,31 +4270,31 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="12"/>
     </row>
   </sheetData>
@@ -4311,21 +4311,21 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.73046875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>117</v>
       </c>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>119</v>
       </c>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>120</v>
       </c>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>248</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>122</v>
       </c>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>123</v>
       </c>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
         <v>124</v>
       </c>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>125</v>
       </c>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>126</v>
       </c>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>127</v>
       </c>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>140</v>
       </c>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>147</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>143</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
         <v>144</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>146</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>142</v>
       </c>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>145</v>
       </c>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
         <v>157</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
         <v>158</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
         <v>159</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>160</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>161</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
         <v>162</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
         <v>169</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
         <v>170</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
         <v>171</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>172</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
         <v>173</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
         <v>174</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
         <v>181</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
         <v>183</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>184</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>185</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>186</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
         <v>187</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
         <v>188</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
         <v>189</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>199</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
         <v>200</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
         <v>201</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
         <v>202</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
         <v>219</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
         <v>221</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
         <v>222</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
         <v>223</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
         <v>224</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
         <v>226</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
         <v>227</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
         <v>228</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
         <v>252</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
         <v>244</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
         <v>245</v>
       </c>
@@ -5733,15 +5733,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>462</v>
       </c>
@@ -5776,22 +5776,22 @@
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="E31" sqref="E31"/>
+      <selection pane="topRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>255</v>
       </c>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>256</v>
       </c>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>257</v>
       </c>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>263</v>
       </c>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>405</v>
       </c>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>406</v>
       </c>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>407</v>
       </c>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>265</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>268</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>270</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>412</v>
       </c>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>413</v>
       </c>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>416</v>
       </c>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>266</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>273</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>269</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>274</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>276</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>426</v>
       </c>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>427</v>
       </c>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>428</v>
       </c>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
         <v>429</v>
       </c>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>430</v>
       </c>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>421</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>422</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>423</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>424</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>425</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>442</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>443</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>456</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
         <v>458</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>264</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
         <v>339</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>346</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
         <v>307</v>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
         <v>277</v>
       </c>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
         <v>278</v>
       </c>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>279</v>
       </c>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
         <v>280</v>
       </c>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
         <v>281</v>
       </c>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
         <v>282</v>
       </c>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
         <v>283</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
         <v>284</v>
       </c>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
         <v>285</v>
       </c>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
         <v>286</v>
       </c>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>292</v>
       </c>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
         <v>309</v>
       </c>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>294</v>
       </c>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>287</v>
       </c>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>311</v>
       </c>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
         <v>297</v>
       </c>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>288</v>
       </c>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
         <v>298</v>
       </c>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
         <v>313</v>
       </c>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
         <v>299</v>
       </c>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
         <v>289</v>
       </c>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
         <v>300</v>
       </c>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
         <v>315</v>
       </c>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
         <v>302</v>
       </c>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
         <v>290</v>
       </c>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
         <v>303</v>
       </c>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
         <v>317</v>
       </c>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
         <v>305</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
         <v>291</v>
       </c>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="G73" s="11"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
         <v>306</v>
       </c>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
         <v>319</v>
       </c>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
         <v>308</v>
       </c>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
         <v>310</v>
       </c>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
         <v>312</v>
       </c>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
         <v>314</v>
       </c>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
         <v>316</v>
       </c>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
         <v>318</v>
       </c>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
         <v>301</v>
       </c>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
         <v>304</v>
       </c>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
         <v>293</v>
       </c>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="G84" s="11"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>296</v>
       </c>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
         <v>320</v>
       </c>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="G86" s="11"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
         <v>322</v>
       </c>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="G87" s="11"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
         <v>324</v>
       </c>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="G88" s="11"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
         <v>321</v>
       </c>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
         <v>323</v>
       </c>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
         <v>325</v>
       </c>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
         <v>326</v>
       </c>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
         <v>328</v>
       </c>
@@ -7294,7 +7294,7 @@
       </c>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
         <v>330</v>
       </c>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
         <v>327</v>
       </c>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
         <v>329</v>
       </c>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
         <v>331</v>
       </c>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D15FA5-4B56-4660-8EA1-6B788D02D2B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6C1D9-3962-4CC8-A13A-2A2D8F40257F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2044,7 +2044,7 @@
     <t>Preference weighting for one population interacting with another</t>
   </si>
   <si>
-    <t>TGT_POP_AVG(foi_out, w_ctc, alive)</t>
+    <t>SRC_POP_AVG(foi_out, w_ctc, alive)</t>
   </si>
 </sst>
 </file>
@@ -2499,13 +2499,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.73046875" style="3" customWidth="1"/>
+    <col min="1" max="2" width="25.7109375" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>76</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>82</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>84</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>86</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>90</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>92</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2607,19 +2607,19 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
@@ -3465,48 +3465,48 @@
       <selection pane="topRight" activeCell="AJ22" sqref="AJ22:AK22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -3651,7 +3651,7 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -3669,7 +3669,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>Compartments!A3</f>
         <v>vac</v>
@@ -3684,7 +3684,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="str">
         <f>Compartments!A4</f>
         <v>lteu</v>
@@ -3705,7 +3705,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
         <f>Compartments!A5</f>
         <v>ltet</v>
@@ -3723,7 +3723,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>Compartments!A6</f>
         <v>ltlu</v>
@@ -3741,7 +3741,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f>Compartments!A7</f>
         <v>ltlt</v>
@@ -3759,7 +3759,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f>Compartments!A8</f>
         <v>ltr</v>
@@ -3774,7 +3774,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="str">
         <f>Compartments!A9</f>
         <v>ltex</v>
@@ -3792,7 +3792,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>Compartments!A10</f>
         <v>ltlx</v>
@@ -3807,7 +3807,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f>Compartments!A11</f>
         <v>acj</v>
@@ -3819,7 +3819,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Compartments!A12</f>
         <v>spj</v>
@@ -3834,7 +3834,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f>Compartments!A13</f>
         <v>spdu</v>
@@ -3855,7 +3855,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>Compartments!A14</f>
         <v>spdd</v>
@@ -3876,7 +3876,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f>Compartments!A15</f>
         <v>spdt</v>
@@ -3900,7 +3900,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f>Compartments!A16</f>
         <v>spmu</v>
@@ -3921,7 +3921,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f>Compartments!A17</f>
         <v>spmd</v>
@@ -3942,7 +3942,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>Compartments!A18</f>
         <v>spmt</v>
@@ -3966,7 +3966,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f>Compartments!A19</f>
         <v>spxu</v>
@@ -3987,7 +3987,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f>Compartments!A20</f>
         <v>spxd</v>
@@ -4008,7 +4008,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>Compartments!A21</f>
         <v>spxt</v>
@@ -4029,7 +4029,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f>Compartments!A22</f>
         <v>snj</v>
@@ -4044,7 +4044,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f>Compartments!A23</f>
         <v>sndu</v>
@@ -4065,7 +4065,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f>Compartments!A24</f>
         <v>sndd</v>
@@ -4086,7 +4086,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f>Compartments!A25</f>
         <v>sndt</v>
@@ -4110,7 +4110,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>Compartments!A26</f>
         <v>snmu</v>
@@ -4131,7 +4131,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f>Compartments!A27</f>
         <v>snmd</v>
@@ -4152,7 +4152,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f>Compartments!A28</f>
         <v>snmt</v>
@@ -4176,7 +4176,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f>Compartments!A29</f>
         <v>snxu</v>
@@ -4197,7 +4197,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f>Compartments!A30</f>
         <v>snxd</v>
@@ -4218,7 +4218,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f>Compartments!A31</f>
         <v>snxt</v>
@@ -4239,7 +4239,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f>Compartments!A32</f>
         <v>acr</v>
@@ -4254,7 +4254,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>46</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>69</v>
       </c>
@@ -4270,31 +4270,31 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
     </row>
   </sheetData>
@@ -4311,21 +4311,21 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>117</v>
       </c>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>119</v>
       </c>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>120</v>
       </c>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>248</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>122</v>
       </c>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>123</v>
       </c>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>124</v>
       </c>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>125</v>
       </c>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>126</v>
       </c>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>127</v>
       </c>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>140</v>
       </c>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>147</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>143</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>144</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>146</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>142</v>
       </c>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>145</v>
       </c>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>157</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>158</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>159</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>160</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>161</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>162</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>169</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>170</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>171</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>172</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>173</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>174</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>181</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>183</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>184</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>185</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>186</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>187</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>188</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>189</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>199</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>200</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>201</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>202</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>219</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>221</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>222</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>223</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>224</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>226</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>227</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>228</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>252</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>244</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>245</v>
       </c>
@@ -5733,15 +5733,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>462</v>
       </c>
@@ -5773,25 +5773,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="E39" sqref="E39"/>
+      <selection pane="topRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>255</v>
       </c>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>256</v>
       </c>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>257</v>
       </c>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>263</v>
       </c>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>405</v>
       </c>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>406</v>
       </c>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>407</v>
       </c>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>265</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>268</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>270</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>412</v>
       </c>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>413</v>
       </c>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>416</v>
       </c>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>266</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>273</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>269</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>274</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>276</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>426</v>
       </c>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>427</v>
       </c>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>428</v>
       </c>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>429</v>
       </c>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>430</v>
       </c>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>421</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>422</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>423</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>424</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>425</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>442</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>443</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>456</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>458</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>264</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>339</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>346</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>307</v>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>277</v>
       </c>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>278</v>
       </c>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>279</v>
       </c>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>280</v>
       </c>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>281</v>
       </c>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>282</v>
       </c>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>283</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>284</v>
       </c>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>285</v>
       </c>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>286</v>
       </c>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>292</v>
       </c>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>309</v>
       </c>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>294</v>
       </c>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>287</v>
       </c>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>311</v>
       </c>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>297</v>
       </c>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>288</v>
       </c>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>298</v>
       </c>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>313</v>
       </c>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>299</v>
       </c>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>289</v>
       </c>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>300</v>
       </c>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>315</v>
       </c>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>302</v>
       </c>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>290</v>
       </c>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>303</v>
       </c>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>317</v>
       </c>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>305</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>291</v>
       </c>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="G73" s="11"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>306</v>
       </c>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>319</v>
       </c>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>308</v>
       </c>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>310</v>
       </c>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>312</v>
       </c>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>314</v>
       </c>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>316</v>
       </c>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>318</v>
       </c>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>301</v>
       </c>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>304</v>
       </c>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>293</v>
       </c>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="G84" s="11"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>296</v>
       </c>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>320</v>
       </c>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="G86" s="11"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>322</v>
       </c>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="G87" s="11"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>324</v>
       </c>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="G88" s="11"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>321</v>
       </c>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>323</v>
       </c>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>325</v>
       </c>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>326</v>
       </c>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>328</v>
       </c>
@@ -7294,7 +7294,7 @@
       </c>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>330</v>
       </c>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>327</v>
       </c>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>329</v>
       </c>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>331</v>
       </c>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6C1D9-3962-4CC8-A13A-2A2D8F40257F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8EA89A-45C2-434C-848B-C51993A7BE08}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,7 +598,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BAC0C8ED-DDB5-4067-82A2-58808108CB14}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8566D7BB-D1CA-4A35-8F73-9A9D54D614CE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'min' attribute for a 'par' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D8CB5CD7-6C13-4D56-A891-23A4D6E3AE68}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'max' attribute for a 'par' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{BAC0C8ED-DDB5-4067-82A2-58808108CB14}">
       <text>
         <r>
           <rPr>
@@ -611,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
       <text>
         <r>
           <rPr>
@@ -630,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
       <text>
         <r>
           <rPr>
@@ -650,7 +676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="467">
   <si>
     <t>Code Name</t>
   </si>
@@ -2045,6 +2071,12 @@
   </si>
   <si>
     <t>SRC_POP_AVG(foi_out, w_ctc, alive)</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
   </si>
 </sst>
 </file>
@@ -5771,12 +5803,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="E41" sqref="E41"/>
+      <selection pane="topRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5785,13 +5817,14 @@
     <col min="2" max="2" width="51.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
+    <col min="5" max="6" width="20.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="62" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5805,16 +5838,22 @@
         <v>10</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>255</v>
       </c>
@@ -5826,12 +5865,14 @@
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -5841,12 +5882,14 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>256</v>
       </c>
@@ -5858,12 +5901,14 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>257</v>
       </c>
@@ -5873,12 +5918,14 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>263</v>
       </c>
@@ -5888,12 +5935,14 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>405</v>
       </c>
@@ -5903,12 +5952,14 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>406</v>
       </c>
@@ -5918,12 +5969,14 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>407</v>
       </c>
@@ -5933,12 +5986,14 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>265</v>
       </c>
@@ -5949,15 +6004,17 @@
         <v>411</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -5968,15 +6025,17 @@
         <v>411</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>268</v>
       </c>
@@ -5987,15 +6046,17 @@
         <v>411</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>270</v>
       </c>
@@ -6006,15 +6067,17 @@
         <v>411</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
@@ -6025,15 +6088,17 @@
         <v>411</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -6044,15 +6109,17 @@
         <v>411</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>412</v>
       </c>
@@ -6062,12 +6129,14 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>413</v>
       </c>
@@ -6077,12 +6146,14 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>416</v>
       </c>
@@ -6092,12 +6163,14 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>266</v>
       </c>
@@ -6108,15 +6181,17 @@
         <v>411</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>273</v>
       </c>
@@ -6127,15 +6202,17 @@
         <v>411</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>269</v>
       </c>
@@ -6146,15 +6223,17 @@
         <v>411</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
@@ -6165,15 +6244,17 @@
         <v>411</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>274</v>
       </c>
@@ -6184,15 +6265,17 @@
         <v>411</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>276</v>
       </c>
@@ -6203,15 +6286,17 @@
         <v>411</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>426</v>
       </c>
@@ -6221,12 +6306,14 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>427</v>
       </c>
@@ -6236,12 +6323,14 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -6251,12 +6340,14 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>428</v>
       </c>
@@ -6266,12 +6357,14 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>429</v>
       </c>
@@ -6281,12 +6374,14 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>430</v>
       </c>
@@ -6296,12 +6391,14 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>421</v>
       </c>
@@ -6310,15 +6407,17 @@
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>422</v>
       </c>
@@ -6327,15 +6426,17 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>423</v>
       </c>
@@ -6344,15 +6445,17 @@
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="11"/>
+      <c r="I33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>424</v>
       </c>
@@ -6361,15 +6464,17 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="11"/>
+      <c r="I34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>425</v>
       </c>
@@ -6378,15 +6483,17 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="11"/>
+      <c r="I35" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>442</v>
       </c>
@@ -6395,15 +6502,17 @@
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="11"/>
+      <c r="I36" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>443</v>
       </c>
@@ -6412,15 +6521,17 @@
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>456</v>
       </c>
@@ -6429,15 +6540,17 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="11"/>
+      <c r="I38" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>458</v>
       </c>
@@ -6446,15 +6559,19 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>264</v>
       </c>
@@ -6465,15 +6582,17 @@
         <v>411</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>339</v>
       </c>
@@ -6484,15 +6603,17 @@
         <v>411</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>346</v>
       </c>
@@ -6503,15 +6624,17 @@
         <v>411</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>307</v>
       </c>
@@ -6523,12 +6646,14 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>277</v>
       </c>
@@ -6540,12 +6665,14 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>278</v>
       </c>
@@ -6557,12 +6684,14 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>279</v>
       </c>
@@ -6574,12 +6703,14 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>280</v>
       </c>
@@ -6591,12 +6722,14 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>281</v>
       </c>
@@ -6608,12 +6741,14 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>282</v>
       </c>
@@ -6625,12 +6760,14 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>283</v>
       </c>
@@ -6642,12 +6779,14 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>284</v>
       </c>
@@ -6659,12 +6798,14 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>285</v>
       </c>
@@ -6674,12 +6815,14 @@
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>286</v>
       </c>
@@ -6689,12 +6832,14 @@
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>292</v>
       </c>
@@ -6704,12 +6849,14 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>309</v>
       </c>
@@ -6719,12 +6866,14 @@
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>294</v>
       </c>
@@ -6734,12 +6883,14 @@
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>287</v>
       </c>
@@ -6749,12 +6900,14 @@
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -6764,12 +6917,14 @@
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>311</v>
       </c>
@@ -6779,12 +6934,14 @@
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59" s="11"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>297</v>
       </c>
@@ -6794,12 +6951,14 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60" s="11"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>288</v>
       </c>
@@ -6809,12 +6968,14 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>298</v>
       </c>
@@ -6824,12 +6985,14 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G62" s="11"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>313</v>
       </c>
@@ -6839,12 +7002,14 @@
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63" s="11"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>299</v>
       </c>
@@ -6854,12 +7019,14 @@
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>289</v>
       </c>
@@ -6869,12 +7036,14 @@
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>300</v>
       </c>
@@ -6884,12 +7053,14 @@
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66" s="11"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>315</v>
       </c>
@@ -6899,12 +7070,14 @@
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>302</v>
       </c>
@@ -6914,12 +7087,14 @@
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>290</v>
       </c>
@@ -6929,12 +7104,14 @@
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" s="11"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>303</v>
       </c>
@@ -6944,12 +7121,14 @@
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>317</v>
       </c>
@@ -6959,12 +7138,14 @@
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71" s="11"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>305</v>
       </c>
@@ -6974,12 +7155,14 @@
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>291</v>
       </c>
@@ -6989,12 +7172,14 @@
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>306</v>
       </c>
@@ -7004,12 +7189,14 @@
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>319</v>
       </c>
@@ -7019,12 +7206,14 @@
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>308</v>
       </c>
@@ -7034,12 +7223,14 @@
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>310</v>
       </c>
@@ -7049,12 +7240,14 @@
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>312</v>
       </c>
@@ -7064,12 +7257,14 @@
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78" s="11"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>314</v>
       </c>
@@ -7079,12 +7274,14 @@
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>316</v>
       </c>
@@ -7094,12 +7291,14 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>318</v>
       </c>
@@ -7109,12 +7308,14 @@
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>301</v>
       </c>
@@ -7124,12 +7325,14 @@
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>304</v>
       </c>
@@ -7139,12 +7342,14 @@
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G83" s="11"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>293</v>
       </c>
@@ -7154,12 +7359,14 @@
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G84" s="11"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>296</v>
       </c>
@@ -7169,12 +7376,14 @@
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="11" t="s">
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G85" s="11"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>320</v>
       </c>
@@ -7184,12 +7393,14 @@
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G86" s="11"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>322</v>
       </c>
@@ -7199,12 +7410,14 @@
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G87" s="11"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I87" s="11"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>324</v>
       </c>
@@ -7214,12 +7427,14 @@
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G88" s="11"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88" s="11"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>321</v>
       </c>
@@ -7229,12 +7444,14 @@
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I89" s="11"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>323</v>
       </c>
@@ -7244,12 +7461,14 @@
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G90" s="11"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I90" s="11"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>325</v>
       </c>
@@ -7259,12 +7478,14 @@
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G91" s="11"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I91" s="11"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>326</v>
       </c>
@@ -7274,12 +7495,14 @@
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92" s="11"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>328</v>
       </c>
@@ -7289,12 +7512,14 @@
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>330</v>
       </c>
@@ -7304,12 +7529,14 @@
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I94" s="11"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>327</v>
       </c>
@@ -7319,12 +7546,14 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G95" s="11"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I95" s="11"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>329</v>
       </c>
@@ -7334,12 +7563,14 @@
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G96" s="11"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I96" s="11"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>331</v>
       </c>
@@ -7349,10 +7580,188 @@
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
-      <c r="F97" s="11" t="s">
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G97" s="11"/>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8EA89A-45C2-434C-848B-C51993A7BE08}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCCBF33-B8B5-4180-AA6B-60381F129B73}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2636,7 +2636,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,8 +3493,8 @@
   <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ22" sqref="AJ22:AK22"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5805,10 +5805,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="E39" sqref="E39"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6540,7 +6540,6 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="13" t="s">
         <v>448</v>
@@ -6560,9 +6559,8 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F39" s="11"/>
+        <v>0.1</v>
+      </c>
       <c r="G39" s="13" t="s">
         <v>464</v>
       </c>
@@ -6583,7 +6581,9 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="11">
+        <v>0.01</v>
+      </c>
       <c r="G40" s="11" t="s">
         <v>458</v>
       </c>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCCBF33-B8B5-4180-AA6B-60381F129B73}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B0D206-BB25-4C59-AFCD-478F5354101B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Interactions" sheetId="10" r:id="rId5"/>
     <sheet name="Parameters" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -637,7 +637,24 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B705F57E-F9D4-4723-BD44-511C9311A224}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for tagging a parameter as a potential program
+impact.
+Note: This tag is only enabled for a parameter by marking the
+corresponding cell 'y'.
+Anything else, including keeping the cell blank, disables the tag.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
       <text>
         <r>
           <rPr>
@@ -656,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
       <text>
         <r>
           <rPr>
@@ -676,7 +693,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="468">
   <si>
     <t>Code Name</t>
   </si>
@@ -2077,6 +2094,9 @@
   </si>
   <si>
     <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Is Impact</t>
   </si>
 </sst>
 </file>
@@ -2531,13 +2551,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="25.73046875" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
@@ -2545,7 +2565,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>76</v>
       </c>
@@ -2553,7 +2573,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
@@ -2561,7 +2581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -2569,7 +2589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>82</v>
       </c>
@@ -2577,7 +2597,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>84</v>
       </c>
@@ -2585,7 +2605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>86</v>
       </c>
@@ -2593,7 +2613,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -2601,7 +2621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>90</v>
       </c>
@@ -2609,7 +2629,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>92</v>
       </c>
@@ -2617,7 +2637,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2639,19 +2659,19 @@
       <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +2697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2700,7 +2720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2721,7 +2741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2742,7 +2762,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -2763,7 +2783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2784,7 +2804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2805,7 +2825,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2826,7 +2846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
@@ -2847,7 +2867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
@@ -2868,7 +2888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -2891,7 +2911,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -2914,7 +2934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2937,7 +2957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -2960,7 +2980,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -2981,7 +3001,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -3004,7 +3024,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +3047,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -3048,7 +3068,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3071,7 +3091,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -3094,7 +3114,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -3115,7 +3135,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -3138,7 +3158,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -3161,7 +3181,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -3184,7 +3204,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3205,7 +3225,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3228,7 +3248,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -3251,7 +3271,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -3272,7 +3292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -3295,7 +3315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -3318,7 +3338,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
@@ -3339,7 +3359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -3360,7 +3380,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
@@ -3383,7 +3403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -3407,7 +3427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -3430,7 +3450,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -3453,7 +3473,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
@@ -3492,53 +3512,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I3" sqref="I3:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.86328125" style="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -3683,7 +3703,7 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -3701,7 +3721,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="str">
         <f>Compartments!A3</f>
         <v>vac</v>
@@ -3716,7 +3736,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="str">
         <f>Compartments!A4</f>
         <v>lteu</v>
@@ -3737,7 +3757,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="str">
         <f>Compartments!A5</f>
         <v>ltet</v>
@@ -3755,7 +3775,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="str">
         <f>Compartments!A6</f>
         <v>ltlu</v>
@@ -3773,7 +3793,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="str">
         <f>Compartments!A7</f>
         <v>ltlt</v>
@@ -3791,7 +3811,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="str">
         <f>Compartments!A8</f>
         <v>ltr</v>
@@ -3806,7 +3826,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="str">
         <f>Compartments!A9</f>
         <v>ltex</v>
@@ -3824,7 +3844,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="str">
         <f>Compartments!A10</f>
         <v>ltlx</v>
@@ -3839,7 +3859,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="str">
         <f>Compartments!A11</f>
         <v>acj</v>
@@ -3851,7 +3871,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="str">
         <f>Compartments!A12</f>
         <v>spj</v>
@@ -3866,7 +3886,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="str">
         <f>Compartments!A13</f>
         <v>spdu</v>
@@ -3887,7 +3907,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="str">
         <f>Compartments!A14</f>
         <v>spdd</v>
@@ -3908,7 +3928,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="str">
         <f>Compartments!A15</f>
         <v>spdt</v>
@@ -3932,7 +3952,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="str">
         <f>Compartments!A16</f>
         <v>spmu</v>
@@ -3953,7 +3973,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="str">
         <f>Compartments!A17</f>
         <v>spmd</v>
@@ -3974,7 +3994,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="str">
         <f>Compartments!A18</f>
         <v>spmt</v>
@@ -3998,7 +4018,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="str">
         <f>Compartments!A19</f>
         <v>spxu</v>
@@ -4019,7 +4039,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="str">
         <f>Compartments!A20</f>
         <v>spxd</v>
@@ -4040,7 +4060,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="str">
         <f>Compartments!A21</f>
         <v>spxt</v>
@@ -4061,7 +4081,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="str">
         <f>Compartments!A22</f>
         <v>snj</v>
@@ -4076,7 +4096,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="str">
         <f>Compartments!A23</f>
         <v>sndu</v>
@@ -4097,7 +4117,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="str">
         <f>Compartments!A24</f>
         <v>sndd</v>
@@ -4118,7 +4138,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="str">
         <f>Compartments!A25</f>
         <v>sndt</v>
@@ -4142,7 +4162,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="str">
         <f>Compartments!A26</f>
         <v>snmu</v>
@@ -4163,7 +4183,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="str">
         <f>Compartments!A27</f>
         <v>snmd</v>
@@ -4184,7 +4204,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="str">
         <f>Compartments!A28</f>
         <v>snmt</v>
@@ -4208,7 +4228,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="str">
         <f>Compartments!A29</f>
         <v>snxu</v>
@@ -4229,7 +4249,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="str">
         <f>Compartments!A30</f>
         <v>snxd</v>
@@ -4250,7 +4270,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="12" t="str">
         <f>Compartments!A31</f>
         <v>snxt</v>
@@ -4271,7 +4291,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="str">
         <f>Compartments!A32</f>
         <v>acr</v>
@@ -4286,7 +4306,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
         <v>46</v>
       </c>
@@ -4294,7 +4314,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
         <v>69</v>
       </c>
@@ -4302,31 +4322,31 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="12"/>
     </row>
   </sheetData>
@@ -4343,21 +4363,21 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.73046875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4384,7 +4404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -4403,7 +4423,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
@@ -4422,7 +4442,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -4441,7 +4461,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -4460,7 +4480,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -4479,7 +4499,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
@@ -4501,7 +4521,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>117</v>
       </c>
@@ -4523,7 +4543,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
@@ -4545,7 +4565,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>119</v>
       </c>
@@ -4567,7 +4587,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>120</v>
       </c>
@@ -4589,7 +4609,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -4611,7 +4631,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>248</v>
       </c>
@@ -4633,7 +4653,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>122</v>
       </c>
@@ -4655,7 +4675,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>123</v>
       </c>
@@ -4677,7 +4697,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
         <v>124</v>
       </c>
@@ -4699,7 +4719,7 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>125</v>
       </c>
@@ -4721,7 +4741,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>126</v>
       </c>
@@ -4743,7 +4763,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>127</v>
       </c>
@@ -4765,7 +4785,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>140</v>
       </c>
@@ -4787,7 +4807,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
@@ -4809,7 +4829,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>147</v>
       </c>
@@ -4831,7 +4851,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>143</v>
       </c>
@@ -4853,7 +4873,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
         <v>144</v>
       </c>
@@ -4875,7 +4895,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>146</v>
       </c>
@@ -4894,7 +4914,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>142</v>
       </c>
@@ -4916,7 +4936,7 @@
       </c>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>145</v>
       </c>
@@ -4938,7 +4958,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
         <v>157</v>
       </c>
@@ -4960,7 +4980,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
         <v>158</v>
       </c>
@@ -4982,7 +5002,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
         <v>159</v>
       </c>
@@ -5004,7 +5024,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>160</v>
       </c>
@@ -5026,7 +5046,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>161</v>
       </c>
@@ -5048,7 +5068,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
         <v>162</v>
       </c>
@@ -5070,7 +5090,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
         <v>169</v>
       </c>
@@ -5092,7 +5112,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
         <v>170</v>
       </c>
@@ -5114,7 +5134,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
         <v>171</v>
       </c>
@@ -5136,7 +5156,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>172</v>
       </c>
@@ -5158,7 +5178,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
         <v>173</v>
       </c>
@@ -5180,7 +5200,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
         <v>174</v>
       </c>
@@ -5202,7 +5222,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
         <v>181</v>
       </c>
@@ -5224,7 +5244,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -5246,7 +5266,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
         <v>183</v>
       </c>
@@ -5268,7 +5288,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>184</v>
       </c>
@@ -5290,7 +5310,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>185</v>
       </c>
@@ -5312,7 +5332,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>186</v>
       </c>
@@ -5334,7 +5354,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
         <v>187</v>
       </c>
@@ -5356,7 +5376,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
         <v>188</v>
       </c>
@@ -5378,7 +5398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
         <v>189</v>
       </c>
@@ -5400,7 +5420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>199</v>
       </c>
@@ -5422,7 +5442,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
         <v>200</v>
       </c>
@@ -5444,7 +5464,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
         <v>201</v>
       </c>
@@ -5466,7 +5486,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
         <v>202</v>
       </c>
@@ -5488,7 +5508,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
         <v>219</v>
       </c>
@@ -5510,7 +5530,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -5532,7 +5552,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
         <v>221</v>
       </c>
@@ -5554,7 +5574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
         <v>222</v>
       </c>
@@ -5576,7 +5596,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
         <v>223</v>
       </c>
@@ -5598,7 +5618,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
         <v>224</v>
       </c>
@@ -5620,7 +5640,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
         <v>226</v>
       </c>
@@ -5642,7 +5662,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
         <v>227</v>
       </c>
@@ -5664,7 +5684,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
         <v>228</v>
       </c>
@@ -5686,7 +5706,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
         <v>252</v>
       </c>
@@ -5709,7 +5729,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
         <v>244</v>
       </c>
@@ -5731,7 +5751,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
         <v>245</v>
       </c>
@@ -5765,15 +5785,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5784,7 +5804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>462</v>
       </c>
@@ -5803,28 +5823,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="62" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.06640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.06640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5847,13 +5869,16 @@
         <v>12</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>255</v>
       </c>
@@ -5868,11 +5893,14 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -5885,11 +5913,14 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>256</v>
       </c>
@@ -5904,11 +5935,14 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>257</v>
       </c>
@@ -5921,11 +5955,14 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>263</v>
       </c>
@@ -5937,12 +5974,15 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>405</v>
       </c>
@@ -5954,12 +5994,15 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>406</v>
       </c>
@@ -5971,12 +6014,15 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>407</v>
       </c>
@@ -5988,12 +6034,15 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>265</v>
       </c>
@@ -6009,12 +6058,15 @@
       <c r="G10" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -6030,12 +6082,15 @@
       <c r="G11" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>268</v>
       </c>
@@ -6051,12 +6106,15 @@
       <c r="G12" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>270</v>
       </c>
@@ -6072,12 +6130,15 @@
       <c r="G13" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
@@ -6093,12 +6154,15 @@
       <c r="G14" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -6114,12 +6178,15 @@
       <c r="G15" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>412</v>
       </c>
@@ -6131,12 +6198,15 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>413</v>
       </c>
@@ -6148,12 +6218,15 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>416</v>
       </c>
@@ -6165,12 +6238,15 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>266</v>
       </c>
@@ -6186,12 +6262,15 @@
       <c r="G19" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>273</v>
       </c>
@@ -6207,12 +6286,15 @@
       <c r="G20" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>269</v>
       </c>
@@ -6228,12 +6310,15 @@
       <c r="G21" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
@@ -6249,12 +6334,15 @@
       <c r="G22" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>274</v>
       </c>
@@ -6270,12 +6358,15 @@
       <c r="G23" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>276</v>
       </c>
@@ -6291,12 +6382,15 @@
       <c r="G24" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>426</v>
       </c>
@@ -6309,11 +6403,14 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>427</v>
       </c>
@@ -6326,11 +6423,14 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -6343,11 +6443,14 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>428</v>
       </c>
@@ -6360,11 +6463,14 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
         <v>429</v>
       </c>
@@ -6377,11 +6483,14 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>430</v>
       </c>
@@ -6394,11 +6503,14 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>421</v>
       </c>
@@ -6412,12 +6524,15 @@
       <c r="G31" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>422</v>
       </c>
@@ -6431,12 +6546,15 @@
       <c r="G32" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>423</v>
       </c>
@@ -6450,12 +6568,15 @@
       <c r="G33" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>424</v>
       </c>
@@ -6469,12 +6590,15 @@
       <c r="G34" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>425</v>
       </c>
@@ -6488,12 +6612,15 @@
       <c r="G35" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>442</v>
       </c>
@@ -6507,12 +6634,15 @@
       <c r="G36" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>443</v>
       </c>
@@ -6526,12 +6656,15 @@
       <c r="G37" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>456</v>
       </c>
@@ -6544,12 +6677,15 @@
       <c r="G38" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
         <v>458</v>
       </c>
@@ -6564,12 +6700,15 @@
       <c r="G39" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>264</v>
       </c>
@@ -6587,12 +6726,15 @@
       <c r="G40" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
         <v>339</v>
       </c>
@@ -6608,12 +6750,15 @@
       <c r="G41" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>346</v>
       </c>
@@ -6629,12 +6774,15 @@
       <c r="G42" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
         <v>307</v>
       </c>
@@ -6649,11 +6797,14 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
         <v>277</v>
       </c>
@@ -6668,11 +6819,14 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
         <v>278</v>
       </c>
@@ -6687,11 +6841,14 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>279</v>
       </c>
@@ -6706,11 +6863,14 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
         <v>280</v>
       </c>
@@ -6725,11 +6885,14 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
         <v>281</v>
       </c>
@@ -6744,11 +6907,14 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
         <v>282</v>
       </c>
@@ -6763,11 +6929,14 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
         <v>283</v>
       </c>
@@ -6782,11 +6951,14 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="11"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
         <v>284</v>
       </c>
@@ -6801,11 +6973,14 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
         <v>285</v>
       </c>
@@ -6818,11 +6993,14 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I52" s="11"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
         <v>286</v>
       </c>
@@ -6835,11 +7013,14 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I53" s="11"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>292</v>
       </c>
@@ -6852,11 +7033,14 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I54" s="11"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
         <v>309</v>
       </c>
@@ -6869,11 +7053,14 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>294</v>
       </c>
@@ -6886,11 +7073,14 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I56" s="11"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>287</v>
       </c>
@@ -6903,11 +7093,14 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -6920,11 +7113,14 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>311</v>
       </c>
@@ -6937,11 +7133,14 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
         <v>297</v>
       </c>
@@ -6954,11 +7153,14 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I60" s="11"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>288</v>
       </c>
@@ -6971,11 +7173,14 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I61" s="11"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
         <v>298</v>
       </c>
@@ -6988,11 +7193,14 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I62" s="11"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
         <v>313</v>
       </c>
@@ -7005,11 +7213,14 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I63" s="11"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
         <v>299</v>
       </c>
@@ -7022,11 +7233,14 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I64" s="11"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
         <v>289</v>
       </c>
@@ -7039,11 +7253,14 @@
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I65" s="11"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
         <v>300</v>
       </c>
@@ -7056,11 +7273,14 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I66" s="11"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="11"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
         <v>315</v>
       </c>
@@ -7073,11 +7293,14 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="11"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="11"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
         <v>302</v>
       </c>
@@ -7090,11 +7313,14 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I68" s="11"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="11"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
         <v>290</v>
       </c>
@@ -7107,11 +7333,14 @@
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I69" s="11"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="11"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
         <v>303</v>
       </c>
@@ -7124,11 +7353,14 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I70" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I70" s="11"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
         <v>317</v>
       </c>
@@ -7141,11 +7373,14 @@
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I71" s="11"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
         <v>305</v>
       </c>
@@ -7158,11 +7393,14 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I72" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I72" s="11"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="11"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
         <v>291</v>
       </c>
@@ -7175,11 +7413,14 @@
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I73" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I73" s="11"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="11"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
         <v>306</v>
       </c>
@@ -7192,11 +7433,14 @@
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I74" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I74" s="11"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="11"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
         <v>319</v>
       </c>
@@ -7209,11 +7453,14 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I75" s="11"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="11"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
         <v>308</v>
       </c>
@@ -7226,11 +7473,14 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I76" s="11"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="11"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
         <v>310</v>
       </c>
@@ -7243,11 +7493,14 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="11"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="11"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
         <v>312</v>
       </c>
@@ -7260,11 +7513,14 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I78" s="11"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="11"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
         <v>314</v>
       </c>
@@ -7277,11 +7533,14 @@
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="11"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
         <v>316</v>
       </c>
@@ -7294,11 +7553,14 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="11"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
         <v>318</v>
       </c>
@@ -7311,11 +7573,14 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="11"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
         <v>301</v>
       </c>
@@ -7328,11 +7593,14 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I82" s="11"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="11"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
         <v>304</v>
       </c>
@@ -7345,11 +7613,14 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I83" s="11"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="11"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
         <v>293</v>
       </c>
@@ -7362,11 +7633,14 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="11"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>296</v>
       </c>
@@ -7379,11 +7653,14 @@
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="11"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
         <v>320</v>
       </c>
@@ -7396,11 +7673,14 @@
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I86" s="11"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
         <v>322</v>
       </c>
@@ -7413,11 +7693,14 @@
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I87" s="11"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="11"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
         <v>324</v>
       </c>
@@ -7430,11 +7713,14 @@
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I88" s="11"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="11"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
         <v>321</v>
       </c>
@@ -7447,11 +7733,14 @@
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I89" s="11"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="11"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
         <v>323</v>
       </c>
@@ -7464,11 +7753,14 @@
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I90" s="11"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="11"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
         <v>325</v>
       </c>
@@ -7481,11 +7773,14 @@
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I91" s="11"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="11"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
         <v>326</v>
       </c>
@@ -7498,11 +7793,14 @@
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I92" s="11"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="11"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
         <v>328</v>
       </c>
@@ -7515,11 +7813,14 @@
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I93" s="11"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="11"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
         <v>330</v>
       </c>
@@ -7532,11 +7833,14 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I94" s="11"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="11"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
         <v>327</v>
       </c>
@@ -7549,11 +7853,14 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I95" s="11"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="11"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
         <v>329</v>
       </c>
@@ -7566,11 +7873,14 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I96" s="11"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="11"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
         <v>331</v>
       </c>
@@ -7583,187 +7893,195 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I97" s="11"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="11"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H97" xr:uid="{5D10CA16-7EA3-4965-B521-FB9DA3769325}">
+      <formula1>"n,y"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B0D206-BB25-4C59-AFCD-478F5354101B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C5FF4F-0784-46F2-BB38-013DA9601FAF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Interactions" sheetId="10" r:id="rId5"/>
     <sheet name="Parameters" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017" calcMode="manual"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -237,7 +237,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{36495753-86C4-4D54-89E3-C16AFFF3861C}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{869F18E1-69A8-42C9-BF2D-C42D4CA0C4DD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column marks whether compartment size data can be rescaled
+during model calibration processes.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{36495753-86C4-4D54-89E3-C16AFFF3861C}">
       <text>
         <r>
           <rPr>
@@ -256,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B326D675-59B6-4C74-8331-BE959611E5E2}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B326D675-59B6-4C74-8331-BE959611E5E2}">
       <text>
         <r>
           <rPr>
@@ -411,7 +425,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{F5D33B24-8673-47D8-A17D-383D1B97E311}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{263C29E0-F4CF-42D1-BF7B-7209668D3ED8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column marks whether characteristic size data can be rescaled
+during model calibration processes.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{F5D33B24-8673-47D8-A17D-383D1B97E311}">
       <text>
         <r>
           <rPr>
@@ -430,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4BB96F35-C249-49AE-9FB6-7C63D4CCA4CC}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4BB96F35-C249-49AE-9FB6-7C63D4CCA4CC}">
       <text>
         <r>
           <rPr>
@@ -654,7 +682,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{F3F24D97-004C-4CFA-91E0-739256AD85A9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column marks whether parameter data can be rescaled
+during model calibration processes.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
       <text>
         <r>
           <rPr>
@@ -673,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
       <text>
         <r>
           <rPr>
@@ -693,7 +735,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="469">
   <si>
     <t>Code Name</t>
   </si>
@@ -2097,6 +2139,9 @@
   </si>
   <si>
     <t>Is Impact</t>
+  </si>
+  <si>
+    <t>Can Calibrate</t>
   </si>
 </sst>
 </file>
@@ -2653,10 +2698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2667,11 +2712,12 @@
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2691,13 +2737,16 @@
         <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2716,11 +2765,14 @@
       <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="H2" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2738,10 +2790,13 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2759,10 +2814,13 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -2780,10 +2838,13 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2801,10 +2862,13 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2822,10 +2886,13 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2843,10 +2910,13 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
@@ -2864,10 +2934,13 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
@@ -2885,10 +2958,13 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -2907,11 +2983,14 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -2930,11 +3009,14 @@
       <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2953,11 +3035,14 @@
       <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -2976,11 +3061,14 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -2998,10 +3086,13 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -3020,11 +3111,14 @@
       <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -3043,11 +3137,14 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="H17" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -3065,10 +3162,13 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3087,11 +3187,14 @@
       <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -3110,11 +3213,14 @@
       <c r="F20" s="7">
         <v>0</v>
       </c>
-      <c r="H20" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -3132,10 +3238,13 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -3154,11 +3263,14 @@
       <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -3177,11 +3289,14 @@
       <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="H23" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -3200,11 +3315,14 @@
       <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="H24" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3222,10 +3340,13 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3244,11 +3365,14 @@
       <c r="F26" s="7">
         <v>0</v>
       </c>
-      <c r="H26" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -3267,11 +3391,14 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="H27" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -3289,10 +3416,13 @@
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -3311,11 +3441,14 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="H29" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -3334,11 +3467,14 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="H30" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
@@ -3356,10 +3492,13 @@
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -3377,10 +3516,13 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
@@ -3399,11 +3541,14 @@
       <c r="F33" s="4">
         <v>0</v>
       </c>
-      <c r="H33" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -3422,12 +3567,15 @@
       <c r="F34" s="4">
         <v>0</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -3446,11 +3594,14 @@
       <c r="F35" s="4">
         <v>0</v>
       </c>
-      <c r="H35" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -3469,11 +3620,14 @@
       <c r="F36" s="4">
         <v>0</v>
       </c>
-      <c r="H36" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
@@ -3492,15 +3646,33 @@
       <c r="F37" s="4">
         <v>0</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="7">
-        <v>-1</v>
-      </c>
+      <c r="G37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G41" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E37" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"n,y"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G41" xr:uid="{DCB3B7DD-854D-40C7-95E9-815E0D3B9B15}">
+      <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4357,10 +4529,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B4020-084C-4F00-B628-93D126F8BCA7}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4372,12 +4544,13 @@
     <col min="5" max="5" width="11.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.73046875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="11.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4397,14 +4570,17 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -4418,12 +4594,15 @@
       <c r="G2" s="7">
         <v>0</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
@@ -4437,12 +4616,15 @@
       <c r="G3" s="11">
         <v>0</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -4456,12 +4638,15 @@
       <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -4475,12 +4660,15 @@
       <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -4494,12 +4682,15 @@
       <c r="G6" s="11">
         <v>0</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
@@ -4517,11 +4708,14 @@
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>117</v>
       </c>
@@ -4539,11 +4733,14 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
@@ -4561,11 +4758,14 @@
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>119</v>
       </c>
@@ -4583,11 +4783,14 @@
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>120</v>
       </c>
@@ -4605,11 +4808,14 @@
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -4627,11 +4833,14 @@
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>248</v>
       </c>
@@ -4648,12 +4857,15 @@
       <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>122</v>
       </c>
@@ -4671,11 +4883,14 @@
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>123</v>
       </c>
@@ -4693,11 +4908,14 @@
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
         <v>124</v>
       </c>
@@ -4715,11 +4933,14 @@
         <v>1</v>
       </c>
       <c r="H16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>125</v>
       </c>
@@ -4737,11 +4958,14 @@
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>126</v>
       </c>
@@ -4759,11 +4983,14 @@
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>127</v>
       </c>
@@ -4781,11 +5008,14 @@
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>140</v>
       </c>
@@ -4803,11 +5033,14 @@
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
@@ -4825,11 +5058,14 @@
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>147</v>
       </c>
@@ -4846,12 +5082,15 @@
       <c r="G22" s="11">
         <v>0</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>143</v>
       </c>
@@ -4868,12 +5107,15 @@
       <c r="G23" s="11">
         <v>0</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
         <v>144</v>
       </c>
@@ -4890,12 +5132,15 @@
       <c r="G24" s="11">
         <v>0</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>146</v>
       </c>
@@ -4909,12 +5154,15 @@
       <c r="G25" s="11">
         <v>0</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>142</v>
       </c>
@@ -4932,11 +5180,14 @@
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>145</v>
       </c>
@@ -4954,11 +5205,14 @@
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
         <v>157</v>
       </c>
@@ -4975,12 +5229,15 @@
       <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
         <v>158</v>
       </c>
@@ -4997,12 +5254,15 @@
       <c r="G29" s="11">
         <v>0</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
         <v>159</v>
       </c>
@@ -5019,12 +5279,15 @@
       <c r="G30" s="11">
         <v>0</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>160</v>
       </c>
@@ -5041,12 +5304,15 @@
       <c r="G31" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>161</v>
       </c>
@@ -5063,12 +5329,15 @@
       <c r="G32" s="11">
         <v>0</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
         <v>162</v>
       </c>
@@ -5085,12 +5354,15 @@
       <c r="G33" s="11">
         <v>0</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
         <v>169</v>
       </c>
@@ -5107,12 +5379,15 @@
       <c r="G34" s="11">
         <v>0</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
         <v>170</v>
       </c>
@@ -5129,12 +5404,15 @@
       <c r="G35" s="11">
         <v>0</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
         <v>171</v>
       </c>
@@ -5151,12 +5429,15 @@
       <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>172</v>
       </c>
@@ -5173,12 +5454,15 @@
       <c r="G37" s="11">
         <v>0</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
         <v>173</v>
       </c>
@@ -5195,12 +5479,15 @@
       <c r="G38" s="11">
         <v>0</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
         <v>174</v>
       </c>
@@ -5217,12 +5504,15 @@
       <c r="G39" s="11">
         <v>0</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
         <v>181</v>
       </c>
@@ -5239,12 +5529,15 @@
       <c r="G40" s="11">
         <v>0</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -5261,12 +5554,15 @@
       <c r="G41" s="11">
         <v>0</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
         <v>183</v>
       </c>
@@ -5283,12 +5579,15 @@
       <c r="G42" s="11">
         <v>0</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>184</v>
       </c>
@@ -5305,12 +5604,15 @@
       <c r="G43" s="11">
         <v>0</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>185</v>
       </c>
@@ -5327,12 +5629,15 @@
       <c r="G44" s="11">
         <v>0</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>186</v>
       </c>
@@ -5349,12 +5654,15 @@
       <c r="G45" s="11">
         <v>0</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
         <v>187</v>
       </c>
@@ -5371,12 +5679,15 @@
       <c r="G46" s="11">
         <v>0</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
         <v>188</v>
       </c>
@@ -5393,12 +5704,15 @@
       <c r="G47" s="11">
         <v>0</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
         <v>189</v>
       </c>
@@ -5415,12 +5729,15 @@
       <c r="G48" s="11">
         <v>0</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>199</v>
       </c>
@@ -5437,12 +5754,15 @@
       <c r="G49" s="11">
         <v>0</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
         <v>200</v>
       </c>
@@ -5459,12 +5779,15 @@
       <c r="G50" s="11">
         <v>0</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
         <v>201</v>
       </c>
@@ -5481,12 +5804,15 @@
       <c r="G51" s="11">
         <v>0</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
         <v>202</v>
       </c>
@@ -5503,12 +5829,15 @@
       <c r="G52" s="11">
         <v>0</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
         <v>219</v>
       </c>
@@ -5525,12 +5854,15 @@
       <c r="G53" s="11">
         <v>0</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>220</v>
       </c>
@@ -5547,12 +5879,15 @@
       <c r="G54" s="11">
         <v>0</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
         <v>221</v>
       </c>
@@ -5569,12 +5904,15 @@
       <c r="G55" s="11">
         <v>0</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
         <v>222</v>
       </c>
@@ -5591,12 +5929,15 @@
       <c r="G56" s="11">
         <v>0</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
         <v>223</v>
       </c>
@@ -5613,12 +5954,15 @@
       <c r="G57" s="11">
         <v>0</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
         <v>224</v>
       </c>
@@ -5635,12 +5979,15 @@
       <c r="G58" s="11">
         <v>0</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H58" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
         <v>226</v>
       </c>
@@ -5657,12 +6004,15 @@
       <c r="G59" s="11">
         <v>0</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H59" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
         <v>227</v>
       </c>
@@ -5679,12 +6029,15 @@
       <c r="G60" s="11">
         <v>0</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H60" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
         <v>228</v>
       </c>
@@ -5701,12 +6054,15 @@
       <c r="G61" s="11">
         <v>0</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="H61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
         <v>252</v>
       </c>
@@ -5724,12 +6080,15 @@
       <c r="G62" s="11">
         <v>0</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H62" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
         <v>244</v>
       </c>
@@ -5746,12 +6105,15 @@
       <c r="G63" s="11">
         <v>0</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H63" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
         <v>245</v>
       </c>
@@ -5767,11 +6129,40 @@
       <c r="G64" s="11">
         <v>0</v>
       </c>
-      <c r="I64" s="11">
-        <v>-1</v>
-      </c>
+      <c r="H64" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H71" s="11"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H71" xr:uid="{CE581F04-42C4-4377-AC3C-1080BAA29A3F}">
+      <formula1>"y,n"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -5823,12 +6214,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="G94" sqref="G94"/>
+      <selection pane="topRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5841,12 +6232,13 @@
     <col min="6" max="6" width="14.06640625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62.06640625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="10"/>
+    <col min="9" max="9" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5872,13 +6264,16 @@
         <v>467</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>255</v>
       </c>
@@ -5896,11 +6291,14 @@
         <v>7</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -5916,11 +6314,14 @@
         <v>7</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>256</v>
       </c>
@@ -5938,11 +6339,14 @@
         <v>7</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>257</v>
       </c>
@@ -5958,11 +6362,14 @@
         <v>7</v>
       </c>
       <c r="I5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>263</v>
       </c>
@@ -5977,12 +6384,15 @@
       <c r="H6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>405</v>
       </c>
@@ -5997,12 +6407,15 @@
       <c r="H7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>406</v>
       </c>
@@ -6017,12 +6430,15 @@
       <c r="H8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>407</v>
       </c>
@@ -6037,12 +6453,15 @@
       <c r="H9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>265</v>
       </c>
@@ -6061,12 +6480,15 @@
       <c r="H10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -6085,12 +6507,15 @@
       <c r="H11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>268</v>
       </c>
@@ -6109,12 +6534,15 @@
       <c r="H12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>270</v>
       </c>
@@ -6133,12 +6561,15 @@
       <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
@@ -6157,12 +6588,15 @@
       <c r="H14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -6181,12 +6615,15 @@
       <c r="H15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>412</v>
       </c>
@@ -6201,12 +6638,15 @@
       <c r="H16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>413</v>
       </c>
@@ -6221,12 +6661,15 @@
       <c r="H17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>416</v>
       </c>
@@ -6241,12 +6684,15 @@
       <c r="H18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>266</v>
       </c>
@@ -6265,12 +6711,15 @@
       <c r="H19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>273</v>
       </c>
@@ -6289,12 +6738,15 @@
       <c r="H20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>269</v>
       </c>
@@ -6313,12 +6765,15 @@
       <c r="H21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
@@ -6337,12 +6792,15 @@
       <c r="H22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>274</v>
       </c>
@@ -6361,12 +6819,15 @@
       <c r="H23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>276</v>
       </c>
@@ -6385,12 +6846,15 @@
       <c r="H24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>426</v>
       </c>
@@ -6406,11 +6870,14 @@
         <v>7</v>
       </c>
       <c r="I25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>427</v>
       </c>
@@ -6426,11 +6893,14 @@
         <v>7</v>
       </c>
       <c r="I26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -6446,11 +6916,14 @@
         <v>7</v>
       </c>
       <c r="I27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>428</v>
       </c>
@@ -6466,11 +6939,14 @@
         <v>7</v>
       </c>
       <c r="I28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
         <v>429</v>
       </c>
@@ -6486,11 +6962,14 @@
         <v>7</v>
       </c>
       <c r="I29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>430</v>
       </c>
@@ -6506,11 +6985,14 @@
         <v>7</v>
       </c>
       <c r="I30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
         <v>421</v>
       </c>
@@ -6527,12 +7009,15 @@
       <c r="H31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>422</v>
       </c>
@@ -6549,12 +7034,15 @@
       <c r="H32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>423</v>
       </c>
@@ -6571,12 +7059,15 @@
       <c r="H33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>424</v>
       </c>
@@ -6593,12 +7084,15 @@
       <c r="H34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
         <v>425</v>
       </c>
@@ -6615,12 +7109,15 @@
       <c r="H35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
         <v>442</v>
       </c>
@@ -6637,12 +7134,15 @@
       <c r="H36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
         <v>443</v>
       </c>
@@ -6659,12 +7159,15 @@
       <c r="H37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>456</v>
       </c>
@@ -6680,12 +7183,15 @@
       <c r="H38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
         <v>458</v>
       </c>
@@ -6703,12 +7209,15 @@
       <c r="H39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>264</v>
       </c>
@@ -6729,12 +7238,15 @@
       <c r="H40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
         <v>339</v>
       </c>
@@ -6753,12 +7265,15 @@
       <c r="H41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>346</v>
       </c>
@@ -6777,12 +7292,15 @@
       <c r="H42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
         <v>307</v>
       </c>
@@ -6800,11 +7318,14 @@
         <v>7</v>
       </c>
       <c r="I43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
         <v>277</v>
       </c>
@@ -6822,11 +7343,14 @@
         <v>7</v>
       </c>
       <c r="I44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
         <v>278</v>
       </c>
@@ -6844,11 +7368,14 @@
         <v>7</v>
       </c>
       <c r="I45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>279</v>
       </c>
@@ -6866,11 +7393,14 @@
         <v>7</v>
       </c>
       <c r="I46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
         <v>280</v>
       </c>
@@ -6888,11 +7418,14 @@
         <v>7</v>
       </c>
       <c r="I47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
         <v>281</v>
       </c>
@@ -6910,11 +7443,14 @@
         <v>7</v>
       </c>
       <c r="I48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
         <v>282</v>
       </c>
@@ -6932,11 +7468,14 @@
         <v>7</v>
       </c>
       <c r="I49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
         <v>283</v>
       </c>
@@ -6954,11 +7493,14 @@
         <v>7</v>
       </c>
       <c r="I50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
         <v>284</v>
       </c>
@@ -6976,11 +7518,14 @@
         <v>7</v>
       </c>
       <c r="I51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
         <v>285</v>
       </c>
@@ -6996,11 +7541,14 @@
         <v>73</v>
       </c>
       <c r="I52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
         <v>286</v>
       </c>
@@ -7016,11 +7564,14 @@
         <v>73</v>
       </c>
       <c r="I53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>292</v>
       </c>
@@ -7036,11 +7587,14 @@
         <v>73</v>
       </c>
       <c r="I54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
         <v>309</v>
       </c>
@@ -7056,11 +7610,14 @@
         <v>73</v>
       </c>
       <c r="I55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>294</v>
       </c>
@@ -7076,11 +7633,14 @@
         <v>73</v>
       </c>
       <c r="I56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>287</v>
       </c>
@@ -7096,11 +7656,14 @@
         <v>73</v>
       </c>
       <c r="I57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -7116,11 +7679,14 @@
         <v>73</v>
       </c>
       <c r="I58" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>311</v>
       </c>
@@ -7136,11 +7702,14 @@
         <v>73</v>
       </c>
       <c r="I59" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
         <v>297</v>
       </c>
@@ -7156,11 +7725,14 @@
         <v>73</v>
       </c>
       <c r="I60" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>288</v>
       </c>
@@ -7176,11 +7748,14 @@
         <v>73</v>
       </c>
       <c r="I61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="11"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
         <v>298</v>
       </c>
@@ -7196,11 +7771,14 @@
         <v>73</v>
       </c>
       <c r="I62" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J62" s="11"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
         <v>313</v>
       </c>
@@ -7216,11 +7794,14 @@
         <v>73</v>
       </c>
       <c r="I63" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J63" s="11"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
         <v>299</v>
       </c>
@@ -7236,11 +7817,14 @@
         <v>73</v>
       </c>
       <c r="I64" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J64" s="11"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
         <v>289</v>
       </c>
@@ -7256,11 +7840,14 @@
         <v>73</v>
       </c>
       <c r="I65" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J65" s="11"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
         <v>300</v>
       </c>
@@ -7276,11 +7863,14 @@
         <v>73</v>
       </c>
       <c r="I66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J66" s="11"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
         <v>315</v>
       </c>
@@ -7296,11 +7886,14 @@
         <v>73</v>
       </c>
       <c r="I67" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J67" s="11"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
         <v>302</v>
       </c>
@@ -7316,11 +7909,14 @@
         <v>73</v>
       </c>
       <c r="I68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J68" s="11"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
         <v>290</v>
       </c>
@@ -7336,11 +7932,14 @@
         <v>73</v>
       </c>
       <c r="I69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J69" s="11"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
         <v>303</v>
       </c>
@@ -7356,11 +7955,14 @@
         <v>73</v>
       </c>
       <c r="I70" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J70" s="11"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K70" s="11"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
         <v>317</v>
       </c>
@@ -7376,11 +7978,14 @@
         <v>73</v>
       </c>
       <c r="I71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J71" s="11"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
         <v>305</v>
       </c>
@@ -7396,11 +8001,14 @@
         <v>73</v>
       </c>
       <c r="I72" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J72" s="11"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
         <v>291</v>
       </c>
@@ -7416,11 +8024,14 @@
         <v>73</v>
       </c>
       <c r="I73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J73" s="11"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
         <v>306</v>
       </c>
@@ -7436,11 +8047,14 @@
         <v>73</v>
       </c>
       <c r="I74" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J74" s="11"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
         <v>319</v>
       </c>
@@ -7456,11 +8070,14 @@
         <v>73</v>
       </c>
       <c r="I75" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J75" s="11"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
         <v>308</v>
       </c>
@@ -7476,11 +8093,14 @@
         <v>7</v>
       </c>
       <c r="I76" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J76" s="11"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
         <v>310</v>
       </c>
@@ -7496,11 +8116,14 @@
         <v>7</v>
       </c>
       <c r="I77" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J77" s="11"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
         <v>312</v>
       </c>
@@ -7516,11 +8139,14 @@
         <v>7</v>
       </c>
       <c r="I78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J78" s="11"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
         <v>314</v>
       </c>
@@ -7536,11 +8162,14 @@
         <v>7</v>
       </c>
       <c r="I79" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J79" s="11"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
         <v>316</v>
       </c>
@@ -7556,11 +8185,14 @@
         <v>7</v>
       </c>
       <c r="I80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J80" s="11"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K80" s="11"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
         <v>318</v>
       </c>
@@ -7576,11 +8208,14 @@
         <v>7</v>
       </c>
       <c r="I81" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J81" s="11"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
         <v>301</v>
       </c>
@@ -7596,11 +8231,14 @@
         <v>7</v>
       </c>
       <c r="I82" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J82" s="11"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
         <v>304</v>
       </c>
@@ -7616,11 +8254,14 @@
         <v>7</v>
       </c>
       <c r="I83" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J83" s="11"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K83" s="11"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
         <v>293</v>
       </c>
@@ -7636,11 +8277,14 @@
         <v>7</v>
       </c>
       <c r="I84" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J84" s="11"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K84" s="11"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>296</v>
       </c>
@@ -7656,11 +8300,14 @@
         <v>7</v>
       </c>
       <c r="I85" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J85" s="11"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
         <v>320</v>
       </c>
@@ -7676,11 +8323,14 @@
         <v>7</v>
       </c>
       <c r="I86" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J86" s="11"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K86" s="11"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
         <v>322</v>
       </c>
@@ -7696,11 +8346,14 @@
         <v>7</v>
       </c>
       <c r="I87" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J87" s="11"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
         <v>324</v>
       </c>
@@ -7716,11 +8369,14 @@
         <v>7</v>
       </c>
       <c r="I88" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J88" s="11"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K88" s="11"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
         <v>321</v>
       </c>
@@ -7736,11 +8392,14 @@
         <v>7</v>
       </c>
       <c r="I89" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J89" s="11"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
         <v>323</v>
       </c>
@@ -7756,11 +8415,14 @@
         <v>7</v>
       </c>
       <c r="I90" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J90" s="11"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
         <v>325</v>
       </c>
@@ -7776,11 +8438,14 @@
         <v>7</v>
       </c>
       <c r="I91" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J91" s="11"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K91" s="11"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
         <v>326</v>
       </c>
@@ -7796,11 +8461,14 @@
         <v>7</v>
       </c>
       <c r="I92" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J92" s="11"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K92" s="11"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
         <v>328</v>
       </c>
@@ -7816,11 +8484,14 @@
         <v>7</v>
       </c>
       <c r="I93" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J93" s="11"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K93" s="11"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
         <v>330</v>
       </c>
@@ -7836,11 +8507,14 @@
         <v>7</v>
       </c>
       <c r="I94" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J94" s="11"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K94" s="11"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
         <v>327</v>
       </c>
@@ -7856,11 +8530,14 @@
         <v>7</v>
       </c>
       <c r="I95" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J95" s="11"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K95" s="11"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
         <v>329</v>
       </c>
@@ -7876,11 +8553,14 @@
         <v>7</v>
       </c>
       <c r="I96" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J96" s="11"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K96" s="11"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
         <v>331</v>
       </c>
@@ -7896,190 +8576,240 @@
         <v>7</v>
       </c>
       <c r="I97" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J97" s="11"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K97" s="11"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I98" s="11"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I100" s="11"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I101" s="11"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I103" s="11"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I104" s="11"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I105" s="11"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I107" s="11"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I108" s="11"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I109" s="11"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I110" s="11"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I111" s="11"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
-    </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I112" s="11"/>
+    </row>
+    <row r="113" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I113" s="11"/>
+    </row>
+    <row r="114" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I114" s="11"/>
+    </row>
+    <row r="115" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
-    </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I115" s="11"/>
+    </row>
+    <row r="116" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
-    </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I116" s="11"/>
+    </row>
+    <row r="117" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
-    </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I117" s="11"/>
+    </row>
+    <row r="118" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
-    </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I118" s="11"/>
+    </row>
+    <row r="119" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
-    </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I119" s="11"/>
+    </row>
+    <row r="120" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
-    </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I120" s="11"/>
+    </row>
+    <row r="121" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
-    </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I121" s="11"/>
+    </row>
+    <row r="122" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
-    </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I122" s="11"/>
+    </row>
+    <row r="123" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
-    </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I123" s="11"/>
+    </row>
+    <row r="124" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
-    </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I124" s="11"/>
+    </row>
+    <row r="125" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
-    </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I125" s="11"/>
+    </row>
+    <row r="126" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
-    </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I126" s="11"/>
+    </row>
+    <row r="127" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
-    </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I127" s="11"/>
+    </row>
+    <row r="128" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
-    </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I128" s="11"/>
+    </row>
+    <row r="129" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
-    </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I129" s="11"/>
+    </row>
+    <row r="130" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
-    </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I130" s="11"/>
+    </row>
+    <row r="131" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
-    </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I131" s="11"/>
+    </row>
+    <row r="132" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
-    </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I132" s="11"/>
+    </row>
+    <row r="133" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
-    </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I133" s="11"/>
+    </row>
+    <row r="134" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
-    </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I134" s="11"/>
+    </row>
+    <row r="135" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
-    </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I135" s="11"/>
+    </row>
+    <row r="136" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
-    </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I136" s="11"/>
+    </row>
+    <row r="137" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
-    </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I137" s="11"/>
+    </row>
+    <row r="138" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
-    </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I138" s="11"/>
+    </row>
+    <row r="139" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
-    </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I139" s="11"/>
+    </row>
+    <row r="140" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
-    </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="I140" s="11"/>
+    </row>
+    <row r="141" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
+      <c r="I141" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H97" xr:uid="{5D10CA16-7EA3-4965-B521-FB9DA3769325}">
       <formula1>"n,y"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I141" xr:uid="{92A1E8F5-AEF7-4AE4-8A9A-A8D8ADDCA859}">
+      <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C5FF4F-0784-46F2-BB38-013DA9601FAF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39B642-2A06-419E-9E05-CDA9B838CEC2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Databook Pages" sheetId="7" r:id="rId1"/>
@@ -285,6 +285,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F1E37F34-B070-4161-97FF-AECD5CB55541}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This optional column determines what stage of a 'cascade' this
+compartment corresponds to.
+A cascade is a specific type of compartment network where entities
+flow sequentially from the first compartment to the last.
+A cascade stage is a subset of linked compartments including the
+last in the sequence, where Stage 1 denotes all compartments.
+For instance, with three compartments A, B and C, with transition
+structure A-&gt;B-&gt;C, Stage 1 is the characteristic for (A,B,C),
+Stage 2 is the characteristic for (B,C) and Stage 3 is characteristic
+and compartment (C).
+Note: As exemplified above, only one compartment should be marked as
+a stage.
+The rest should be marked on the characteristics page.
+This value is only used for convenience in plotting and the column
+can be safely deleted for non-cascade applications.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -470,6 +497,32 @@
           <t>This column currently denotes whether a databook should request
 historical values from the user for this characteristic.
 A value of '-1' suppresses it from appearing in the databook.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{3F47B776-D969-49E3-B900-41FD43A04303}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This optional column determines what stage of a 'cascade' this
+characteristic corresponds to.
+A cascade is a specific type of compartment network where entities
+flow sequentially from the first compartment to the last.
+A cascade stage is a subset of linked compartments including the
+last in the sequence, where Stage 1 denotes all compartments.
+For instance, with three compartments A, B and C, with transition
+structure A-&gt;B-&gt;C, Stage 1 is the characteristic for (A,B,C),
+Stage 2 is the characteristic for (B,C) and Stage 3 is characteristic
+and compartment (C).
+Note: As exemplified above, one stage should be marked on the
+compartment page, with the rest marked on this page.
+This value is only used for convenience in plotting and the column
+can be safely deleted for non-cascade applications.</t>
         </r>
       </text>
     </comment>
@@ -735,7 +788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="479">
   <si>
     <t>Code Name</t>
   </si>
@@ -2142,6 +2195,36 @@
   </si>
   <si>
     <t>Can Calibrate</t>
+  </si>
+  <si>
+    <t>Cascade Stage</t>
+  </si>
+  <si>
+    <t>Estimated number of living people that developed active TB</t>
+  </si>
+  <si>
+    <t>ac_cascade</t>
+  </si>
+  <si>
+    <t>ac_inf, acr</t>
+  </si>
+  <si>
+    <t>known_cascade</t>
+  </si>
+  <si>
+    <t>Diagnosed number of living people that developed active TB</t>
+  </si>
+  <si>
+    <t>known_inf, acr</t>
+  </si>
+  <si>
+    <t>treat_cascade</t>
+  </si>
+  <si>
+    <t>Number of living people that were treated for active TB</t>
+  </si>
+  <si>
+    <t>num_treat, acr</t>
   </si>
 </sst>
 </file>
@@ -2698,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2715,9 +2798,10 @@
     <col min="7" max="7" width="11.3984375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2745,8 +2829,11 @@
       <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2772,7 +2859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2796,7 +2883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2820,7 +2907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -2844,7 +2931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2868,7 +2955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2892,7 +2979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2916,7 +3003,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
@@ -2940,7 +3027,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
@@ -2964,7 +3051,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -2990,7 +3077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -3016,7 +3103,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -3042,7 +3129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3068,7 +3155,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -3092,7 +3179,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -3118,7 +3205,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -3144,7 +3231,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -3168,7 +3255,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3194,7 +3281,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -3220,7 +3307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -3244,7 +3331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -3270,7 +3357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -3296,7 +3383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -3322,7 +3409,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3346,7 +3433,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3372,7 +3459,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -3398,7 +3485,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -3422,7 +3509,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -3448,7 +3535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -3474,7 +3561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
@@ -3498,7 +3585,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -3521,8 +3608,11 @@
       <c r="H32" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J32" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
@@ -3548,7 +3638,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -3574,8 +3664,9 @@
       <c r="I34" s="7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -3601,7 +3692,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -3627,7 +3718,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
@@ -3653,17 +3744,18 @@
       <c r="I37" s="7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="G41" s="11"/>
     </row>
   </sheetData>
@@ -4529,10 +4621,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B4020-084C-4F00-B628-93D126F8BCA7}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4547,10 +4639,11 @@
     <col min="8" max="8" width="11.3984375" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="11" max="11" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4579,8 +4672,11 @@
       <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K1" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -4602,7 +4698,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
@@ -4624,7 +4720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -4646,7 +4742,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -4668,7 +4764,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -4690,7 +4786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
@@ -4715,7 +4811,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>117</v>
       </c>
@@ -4740,7 +4836,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
@@ -4765,7 +4861,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>119</v>
       </c>
@@ -4790,7 +4886,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>120</v>
       </c>
@@ -4815,7 +4911,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -4840,7 +4936,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>248</v>
       </c>
@@ -4865,46 +4961,48 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
@@ -4915,18 +5013,18 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="11">
@@ -4940,18 +5038,18 @@
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="11">
@@ -4965,18 +5063,18 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="11">
@@ -4990,18 +5088,18 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="11">
@@ -5015,21 +5113,21 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>151</v>
+        <v>139</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -5040,21 +5138,21 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="11">
+      <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
@@ -5063,45 +5161,45 @@
       <c r="I21" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="11">
@@ -5115,18 +5213,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="11">
@@ -5140,15 +5238,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>156</v>
+        <v>124</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="11">
@@ -5162,143 +5263,142 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="11">
         <v>1</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="11" t="s">
+      <c r="H27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="9" t="s">
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7">
         <v>1</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="11" t="s">
+      <c r="H29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="9" t="s">
+      <c r="H30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="11">
@@ -5312,18 +5412,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="11">
@@ -5339,16 +5439,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="11">
@@ -5364,16 +5464,16 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>145</v>
+        <v>37</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="11">
@@ -5389,16 +5489,16 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>145</v>
+        <v>40</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="11">
@@ -5414,13 +5514,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>145</v>
@@ -5439,13 +5539,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>145</v>
@@ -5464,13 +5564,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>145</v>
@@ -5489,13 +5589,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>145</v>
@@ -5514,15 +5614,15 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F40" s="7"/>
@@ -5539,15 +5639,15 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F41" s="7"/>
@@ -5564,13 +5664,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>145</v>
@@ -5589,13 +5689,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>145</v>
@@ -5614,13 +5714,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>145</v>
@@ -5639,13 +5739,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>145</v>
@@ -5664,13 +5764,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>145</v>
@@ -5689,13 +5789,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>145</v>
@@ -5714,13 +5814,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>145</v>
@@ -5737,15 +5837,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>145</v>
@@ -5762,15 +5862,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>145</v>
@@ -5787,15 +5887,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>145</v>
@@ -5812,15 +5912,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>145</v>
@@ -5837,18 +5937,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>34</v>
+        <v>144</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="11">
@@ -5862,18 +5962,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>37</v>
+        <v>142</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="11">
@@ -5887,18 +5987,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="11">
@@ -5912,18 +6012,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>241</v>
+        <v>230</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="11">
@@ -5937,18 +6037,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>242</v>
+        <v>231</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="11">
@@ -5962,18 +6062,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="11">
@@ -5987,18 +6087,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>36</v>
+        <v>233</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="11">
@@ -6012,18 +6112,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>39</v>
+        <v>234</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="11">
@@ -6037,18 +6137,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="11">
@@ -6062,44 +6162,43 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>253</v>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="11">
         <v>0</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="11"/>
+      <c r="I62" s="7"/>
       <c r="J62" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A63" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>142</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="11">
@@ -6113,53 +6212,132 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A64" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>247</v>
+    <row r="64" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>248</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
       <c r="G64" s="11">
         <v>0</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="I64" s="11"/>
       <c r="J64" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K65" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A66" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A67" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H74" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H71" xr:uid="{CE581F04-42C4-4377-AC3C-1080BAA29A3F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H74" xr:uid="{CE581F04-42C4-4377-AC3C-1080BAA29A3F}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6216,7 +6394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="G27" sqref="G27"/>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39B642-2A06-419E-9E05-CDA9B838CEC2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3428F2-6987-499C-A343-7629486D633A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Databook Pages" sheetId="7" r:id="rId1"/>
@@ -2783,7 +2783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -4623,9 +4623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B4020-084C-4F00-B628-93D126F8BCA7}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6394,10 +6392,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="G27" sqref="G27"/>
+      <selection pane="topRight" activeCell="E39" sqref="E39:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7378,9 +7376,7 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="11">
-        <v>0.1</v>
-      </c>
+      <c r="E39" s="11"/>
       <c r="G39" s="13" t="s">
         <v>464</v>
       </c>
@@ -7407,9 +7403,7 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="11">
-        <v>0.01</v>
-      </c>
+      <c r="F40" s="11"/>
       <c r="G40" s="11" t="s">
         <v>458</v>
       </c>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects - Work\Optima\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3428F2-6987-499C-A343-7629486D633A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1173843A-C0C4-4839-B1B2-32B3112A4450}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2679,13 +2679,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.73046875" style="3" customWidth="1"/>
+    <col min="1" max="2" width="25.7109375" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>76</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>82</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>84</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>86</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>90</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>92</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2787,21 +2787,21 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
@@ -3746,16 +3746,16 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G41" s="11"/>
     </row>
   </sheetData>
@@ -3778,51 +3778,51 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3:I8"/>
+      <selection pane="topRight" activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -3967,7 +3967,7 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -3985,7 +3985,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>Compartments!A3</f>
         <v>vac</v>
@@ -4000,7 +4000,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="str">
         <f>Compartments!A4</f>
         <v>lteu</v>
@@ -4021,7 +4021,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
         <f>Compartments!A5</f>
         <v>ltet</v>
@@ -4039,7 +4039,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>Compartments!A6</f>
         <v>ltlu</v>
@@ -4057,7 +4057,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f>Compartments!A7</f>
         <v>ltlt</v>
@@ -4075,7 +4075,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f>Compartments!A8</f>
         <v>ltr</v>
@@ -4090,7 +4090,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="str">
         <f>Compartments!A9</f>
         <v>ltex</v>
@@ -4108,7 +4108,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>Compartments!A10</f>
         <v>ltlx</v>
@@ -4123,7 +4123,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f>Compartments!A11</f>
         <v>acj</v>
@@ -4135,7 +4135,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Compartments!A12</f>
         <v>spj</v>
@@ -4150,7 +4150,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f>Compartments!A13</f>
         <v>spdu</v>
@@ -4171,7 +4171,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>Compartments!A14</f>
         <v>spdd</v>
@@ -4192,7 +4192,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f>Compartments!A15</f>
         <v>spdt</v>
@@ -4216,7 +4216,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f>Compartments!A16</f>
         <v>spmu</v>
@@ -4237,7 +4237,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f>Compartments!A17</f>
         <v>spmd</v>
@@ -4258,7 +4258,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>Compartments!A18</f>
         <v>spmt</v>
@@ -4282,7 +4282,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f>Compartments!A19</f>
         <v>spxu</v>
@@ -4303,7 +4303,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f>Compartments!A20</f>
         <v>spxd</v>
@@ -4324,7 +4324,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>Compartments!A21</f>
         <v>spxt</v>
@@ -4345,7 +4345,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f>Compartments!A22</f>
         <v>snj</v>
@@ -4360,7 +4360,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f>Compartments!A23</f>
         <v>sndu</v>
@@ -4381,7 +4381,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f>Compartments!A24</f>
         <v>sndd</v>
@@ -4402,7 +4402,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f>Compartments!A25</f>
         <v>sndt</v>
@@ -4426,7 +4426,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>Compartments!A26</f>
         <v>snmu</v>
@@ -4447,7 +4447,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f>Compartments!A27</f>
         <v>snmd</v>
@@ -4468,7 +4468,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f>Compartments!A28</f>
         <v>snmt</v>
@@ -4492,7 +4492,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f>Compartments!A29</f>
         <v>snxu</v>
@@ -4513,7 +4513,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f>Compartments!A30</f>
         <v>snxd</v>
@@ -4534,7 +4534,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f>Compartments!A31</f>
         <v>snxt</v>
@@ -4555,7 +4555,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f>Compartments!A32</f>
         <v>acr</v>
@@ -4570,7 +4570,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>46</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>69</v>
       </c>
@@ -4586,31 +4586,31 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
     </row>
   </sheetData>
@@ -4625,23 +4625,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>117</v>
       </c>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>119</v>
       </c>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>120</v>
       </c>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>248</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>473</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>122</v>
       </c>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>123</v>
       </c>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>124</v>
       </c>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>125</v>
       </c>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>126</v>
       </c>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>127</v>
       </c>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>140</v>
       </c>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>141</v>
       </c>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>147</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>143</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>144</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>146</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>142</v>
       </c>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>471</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>145</v>
       </c>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>157</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>158</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>159</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>160</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>161</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>162</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>169</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>170</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>171</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>172</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>173</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>174</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>181</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>182</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>183</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>184</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>185</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>186</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>187</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>188</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>189</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>199</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>200</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>201</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>202</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>219</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>220</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>221</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>222</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>223</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>224</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>226</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>227</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>228</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>252</v>
       </c>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>476</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>244</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>245</v>
       </c>
@@ -6312,25 +6312,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H74" s="11"/>
     </row>
   </sheetData>
@@ -6352,15 +6352,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>462</v>
       </c>
@@ -6392,29 +6392,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="E39" sqref="E39:F40"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.06640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.06640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>255</v>
       </c>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>258</v>
       </c>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>256</v>
       </c>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>257</v>
       </c>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>263</v>
       </c>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>405</v>
       </c>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>406</v>
       </c>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>407</v>
       </c>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>265</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>268</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>270</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>271</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>412</v>
       </c>
@@ -6822,7 +6822,7 @@
       </c>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>413</v>
       </c>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>416</v>
       </c>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>266</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>273</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>269</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>275</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>274</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>276</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>426</v>
       </c>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>427</v>
       </c>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>428</v>
       </c>
@@ -7122,7 +7122,7 @@
       </c>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>429</v>
       </c>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>430</v>
       </c>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>421</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>422</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>423</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>424</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>425</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>442</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>443</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>456</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>458</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>264</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>339</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>346</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>307</v>
       </c>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>277</v>
       </c>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>278</v>
       </c>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>279</v>
       </c>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>280</v>
       </c>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>281</v>
       </c>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>282</v>
       </c>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>283</v>
       </c>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>284</v>
       </c>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>285</v>
       </c>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>286</v>
       </c>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>292</v>
       </c>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>309</v>
       </c>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>294</v>
       </c>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>287</v>
       </c>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>295</v>
       </c>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>311</v>
       </c>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>297</v>
       </c>
@@ -7904,7 +7904,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>288</v>
       </c>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>298</v>
       </c>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>313</v>
       </c>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>299</v>
       </c>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>289</v>
       </c>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>300</v>
       </c>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>315</v>
       </c>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>302</v>
       </c>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>290</v>
       </c>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>303</v>
       </c>
@@ -8134,7 +8134,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>317</v>
       </c>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>305</v>
       </c>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>291</v>
       </c>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>306</v>
       </c>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>319</v>
       </c>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>308</v>
       </c>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>310</v>
       </c>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>312</v>
       </c>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>314</v>
       </c>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>316</v>
       </c>
@@ -8364,7 +8364,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>318</v>
       </c>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>301</v>
       </c>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>304</v>
       </c>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>293</v>
       </c>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>296</v>
       </c>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>320</v>
       </c>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>322</v>
       </c>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>324</v>
       </c>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>321</v>
       </c>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>323</v>
       </c>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>325</v>
       </c>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>326</v>
       </c>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>328</v>
       </c>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>330</v>
       </c>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>327</v>
       </c>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>329</v>
       </c>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>331</v>
       </c>
@@ -8755,222 +8755,222 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="I98" s="11"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="I99" s="11"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="I100" s="11"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="I101" s="11"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="I102" s="11"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="I103" s="11"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="I104" s="11"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="I105" s="11"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="I106" s="11"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="I107" s="11"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="I108" s="11"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="I109" s="11"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="I110" s="11"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="I111" s="11"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="I112" s="11"/>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="I113" s="11"/>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="I114" s="11"/>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="I115" s="11"/>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="I116" s="11"/>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="I117" s="11"/>
     </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="I118" s="11"/>
     </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="I119" s="11"/>
     </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="I120" s="11"/>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="I121" s="11"/>
     </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="I122" s="11"/>
     </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="I123" s="11"/>
     </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="I124" s="11"/>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="I125" s="11"/>
     </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="I126" s="11"/>
     </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="I127" s="11"/>
     </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="I128" s="11"/>
     </row>
-    <row r="129" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="I129" s="11"/>
     </row>
-    <row r="130" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="I130" s="11"/>
     </row>
-    <row r="131" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="I131" s="11"/>
     </row>
-    <row r="132" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="I132" s="11"/>
     </row>
-    <row r="133" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="I133" s="11"/>
     </row>
-    <row r="134" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="I134" s="11"/>
     </row>
-    <row r="135" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="I135" s="11"/>
     </row>
-    <row r="136" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="I136" s="11"/>
     </row>
-    <row r="137" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="I137" s="11"/>
     </row>
-    <row r="138" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="I138" s="11"/>
     </row>
-    <row r="139" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="I139" s="11"/>
     </row>
-    <row r="140" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="I140" s="11"/>
     </row>
-    <row r="141" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="I141" s="11"/>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1173843A-C0C4-4839-B1B2-32B3112A4450}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167F4E0E-18C7-4DE6-AC2C-3C8EC0C0C9EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6392,10 +6392,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7376,7 +7376,9 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11">
+        <v>0.1</v>
+      </c>
       <c r="G39" s="13" t="s">
         <v>464</v>
       </c>
@@ -7403,7 +7405,9 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="11">
+        <v>0.01</v>
+      </c>
       <c r="G40" s="11" t="s">
         <v>458</v>
       </c>
@@ -8985,6 +8989,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167F4E0E-18C7-4DE6-AC2C-3C8EC0C0C9EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B9017-4D75-486A-820F-D370277A0E2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Custom Databook Pages" sheetId="7" r:id="rId1"/>
+    <sheet name="Databook Pages" sheetId="7" r:id="rId1"/>
     <sheet name="Compartments" sheetId="1" r:id="rId2"/>
     <sheet name="Transitions" sheetId="2" r:id="rId3"/>
     <sheet name="Characteristics" sheetId="8" r:id="rId4"/>
     <sheet name="Interactions" sheetId="10" r:id="rId5"/>
     <sheet name="Parameters" sheetId="9" r:id="rId6"/>
+    <sheet name="Cascades" sheetId="12" r:id="rId7"/>
+    <sheet name="Plots" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -285,33 +287,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F1E37F34-B070-4161-97FF-AECD5CB55541}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This optional column determines what stage of a 'cascade' this
-compartment corresponds to.
-A cascade is a specific type of compartment network where entities
-flow sequentially from the first compartment to the last.
-A cascade stage is a subset of linked compartments including the
-last in the sequence, where Stage 1 denotes all compartments.
-For instance, with three compartments A, B and C, with transition
-structure A-&gt;B-&gt;C, Stage 1 is the characteristic for (A,B,C),
-Stage 2 is the characteristic for (B,C) and Stage 3 is characteristic
-and compartment (C).
-Note: As exemplified above, only one compartment should be marked as
-a stage.
-The rest should be marked on the characteristics page.
-This value is only used for convenience in plotting and the column
-can be safely deleted for non-cascade applications.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -399,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{73FB3BF4-C6BF-44C5-A4B2-48E11E90FD26}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{73FB3BF4-C6BF-44C5-A4B2-48E11E90FD26}">
       <text>
         <r>
           <rPr>
@@ -412,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7CC2EB5D-C699-4999-9402-99AFDFF2ADAD}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{7CC2EB5D-C699-4999-9402-99AFDFF2ADAD}">
       <text>
         <r>
           <rPr>
@@ -425,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{65665C00-4B48-4F63-A83D-BFD1056963D0}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{65665C00-4B48-4F63-A83D-BFD1056963D0}">
       <text>
         <r>
           <rPr>
@@ -452,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{263C29E0-F4CF-42D1-BF7B-7209668D3ED8}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{263C29E0-F4CF-42D1-BF7B-7209668D3ED8}">
       <text>
         <r>
           <rPr>
@@ -466,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{F5D33B24-8673-47D8-A17D-383D1B97E311}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{F5D33B24-8673-47D8-A17D-383D1B97E311}">
       <text>
         <r>
           <rPr>
@@ -485,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4BB96F35-C249-49AE-9FB6-7C63D4CCA4CC}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4BB96F35-C249-49AE-9FB6-7C63D4CCA4CC}">
       <text>
         <r>
           <rPr>
@@ -497,32 +472,6 @@
           <t>This column currently denotes whether a databook should request
 historical values from the user for this characteristic.
 A value of '-1' suppresses it from appearing in the databook.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{3F47B776-D969-49E3-B900-41FD43A04303}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This optional column determines what stage of a 'cascade' this
-characteristic corresponds to.
-A cascade is a specific type of compartment network where entities
-flow sequentially from the first compartment to the last.
-A cascade stage is a subset of linked compartments including the
-last in the sequence, where Stage 1 denotes all compartments.
-For instance, with three compartments A, B and C, with transition
-structure A-&gt;B-&gt;C, Stage 1 is the characteristic for (A,B,C),
-Stage 2 is the characteristic for (B,C) and Stage 3 is characteristic
-and compartment (C).
-Note: As exemplified above, one stage should be marked on the
-compartment page, with the rest marked on this page.
-This value is only used for convenience in plotting and the column
-can be safely deleted for non-cascade applications.</t>
         </r>
       </text>
     </comment>
@@ -788,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="544">
   <si>
     <t>Code Name</t>
   </si>
@@ -1243,21 +1192,6 @@
     <t>Population size</t>
   </si>
   <si>
-    <t>spd_inf, spm_inf, spx_inf</t>
-  </si>
-  <si>
-    <t>snd_inf, snm_inf, snx_inf</t>
-  </si>
-  <si>
-    <t>sp_inf, sn_inf</t>
-  </si>
-  <si>
-    <t>sus, vac, ltr, acr</t>
-  </si>
-  <si>
-    <t>lt_inf, ac_inf</t>
-  </si>
-  <si>
     <t>mdr_inf, xdr_inf</t>
   </si>
   <si>
@@ -1513,15 +1447,6 @@
     <t>spxd, spxt</t>
   </si>
   <si>
-    <t>sndd, sndt</t>
-  </si>
-  <si>
-    <t>snmd, snmt</t>
-  </si>
-  <si>
-    <t>snxd, snxt</t>
-  </si>
-  <si>
     <t>diag_suff</t>
   </si>
   <si>
@@ -1540,21 +1465,12 @@
     <t>Known active TB infections</t>
   </si>
   <si>
-    <t>spdk_inf, spmk_inf, spxk_inf</t>
-  </si>
-  <si>
-    <t>sndk_inf, snmk_inf, snxk_inf</t>
-  </si>
-  <si>
     <t>num_treat</t>
   </si>
   <si>
     <t>TB cases on treatment</t>
   </si>
   <si>
-    <t>num_treat_mdr, num_treat_xdr</t>
-  </si>
-  <si>
     <t>b_rate</t>
   </si>
   <si>
@@ -2197,9 +2113,6 @@
     <t>Can Calibrate</t>
   </si>
   <si>
-    <t>Cascade Stage</t>
-  </si>
-  <si>
     <t>Estimated number of living people that developed active TB</t>
   </si>
   <si>
@@ -2225,6 +2138,237 @@
   </si>
   <si>
     <t>num_treat, acr</t>
+  </si>
+  <si>
+    <t>Latent infections</t>
+  </si>
+  <si>
+    <t>Active TB</t>
+  </si>
+  <si>
+    <t>Active DS-TB</t>
+  </si>
+  <si>
+    <t>Active MDR-TB</t>
+  </si>
+  <si>
+    <t>Active XDR-TB</t>
+  </si>
+  <si>
+    <t>New active DS-TB</t>
+  </si>
+  <si>
+    <t>New active MDR-TB</t>
+  </si>
+  <si>
+    <t>New active XDR-TB</t>
+  </si>
+  <si>
+    <t>Smear negative active TB</t>
+  </si>
+  <si>
+    <t>Smear positive active TB</t>
+  </si>
+  <si>
+    <t>Latent diagnoses</t>
+  </si>
+  <si>
+    <t>New active TB diagnoses</t>
+  </si>
+  <si>
+    <t>New active DS-TB diagnoses</t>
+  </si>
+  <si>
+    <t>New active MDR-TB diagnoses</t>
+  </si>
+  <si>
+    <t>New active XDR-TB diagnoses</t>
+  </si>
+  <si>
+    <t>Latent treatment</t>
+  </si>
+  <si>
+    <t>Active treatment</t>
+  </si>
+  <si>
+    <t>TB-related deaths</t>
+  </si>
+  <si>
+    <t>{'New active DS-TB':['pd_div:flow','nd_div:flow']}</t>
+  </si>
+  <si>
+    <t>{'New active MDR-TB':['pm_div:flow','nm_div:flow']}</t>
+  </si>
+  <si>
+    <t>{'New active XDR-TB':['px_div:flow','nx_div:flow']}</t>
+  </si>
+  <si>
+    <t>{'Latent diagnoses':['le_treat:flow','ll_treat:flow']}</t>
+  </si>
+  <si>
+    <t>{'Active TB diagnoses':['pd_diag:flow','pm_diag:flow','px_diag:flow','nd_diag:flow','nm_diag:flow','nx_diag:flow']}</t>
+  </si>
+  <si>
+    <t>{'Active DS-TB diagnoses':['pd_diag:flow','nd_diag:flow']}</t>
+  </si>
+  <si>
+    <t>{'Active MDR-TB diagnoses':['pm_diag:flow','nm_diag:flow']}</t>
+  </si>
+  <si>
+    <t>{'Active XDR-TB diagnoses':['px_diag:flow','nx_diag:flow']}</t>
+  </si>
+  <si>
+    <t>:ddis</t>
+  </si>
+  <si>
+    <t>Aggregate pops</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>Quantities</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>['ac_prev','lt_prev','mdr_prev','xdr_prev']</t>
+  </si>
+  <si>
+    <t>ac_inf+acr</t>
+  </si>
+  <si>
+    <t>known_inf+acr</t>
+  </si>
+  <si>
+    <t>num_treat+acr</t>
+  </si>
+  <si>
+    <t>Constituents</t>
+  </si>
+  <si>
+    <t>main cascade</t>
+  </si>
+  <si>
+    <t>secondary cascade</t>
+  </si>
+  <si>
+    <t>Plot Group</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>demographics</t>
+  </si>
+  <si>
+    <t>sus, vac, ltr, acr, lt_inf, ac_inf</t>
+  </si>
+  <si>
+    <t>sndd,sndt</t>
+  </si>
+  <si>
+    <t>snmd,snmt</t>
+  </si>
+  <si>
+    <t>snxd,snxt</t>
+  </si>
+  <si>
+    <t>spdk_inf, spmk_inf, spxk_inf, sndk_inf, snmk_inf, snxk_inf</t>
+  </si>
+  <si>
+    <t>spdu, spdk_inf</t>
+  </si>
+  <si>
+    <t>spmu, spmk_inf</t>
+  </si>
+  <si>
+    <t>spxu, spxk_inf</t>
+  </si>
+  <si>
+    <t>sndu, sndk_inf</t>
+  </si>
+  <si>
+    <t>snmu,snmk_inf</t>
+  </si>
+  <si>
+    <t>snxu, snxk_inf</t>
+  </si>
+  <si>
+    <t>spj, spd_inf, spm_inf, spx_inf</t>
+  </si>
+  <si>
+    <t>snj, snd_inf, snm_inf, snx_inf</t>
+  </si>
+  <si>
+    <t>spd_inf, snd_inf</t>
+  </si>
+  <si>
+    <t>spm_inf, snm_inf</t>
+  </si>
+  <si>
+    <t>spx_inf, snx_inf</t>
+  </si>
+  <si>
+    <t>acj, sp_inf, sn_inf</t>
+  </si>
+  <si>
+    <t>spdu, spdd</t>
+  </si>
+  <si>
+    <t>spmu, spmd</t>
+  </si>
+  <si>
+    <t>spxu, spxd</t>
+  </si>
+  <si>
+    <t>sndu, sndd</t>
+  </si>
+  <si>
+    <t>snmu, snmd</t>
+  </si>
+  <si>
+    <t>snxu, snxd</t>
+  </si>
+  <si>
+    <t>spdu, sndu</t>
+  </si>
+  <si>
+    <t>spmu, snmu</t>
+  </si>
+  <si>
+    <t>spxu, snxu</t>
+  </si>
+  <si>
+    <t>spdd, spdt, sndd, sndt</t>
+  </si>
+  <si>
+    <t>spmd, spmt, snmd, snmt</t>
+  </si>
+  <si>
+    <t>spxd, spxt, snxd, snxt</t>
+  </si>
+  <si>
+    <t>spdt, sndt</t>
+  </si>
+  <si>
+    <t>spmt, snmt</t>
+  </si>
+  <si>
+    <t>spxt, snxt</t>
+  </si>
+  <si>
+    <t>num_treat_ds, num_treat_mdr, num_treat_xdr</t>
   </si>
 </sst>
 </file>
@@ -2287,7 +2431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2334,6 +2478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
@@ -2676,7 +2821,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,27 +2926,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2821,7 +2965,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>96</v>
@@ -2829,46 +2973,34 @@
       <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2883,22 +3015,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="11" t="s">
         <v>7</v>
@@ -2907,22 +3035,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
         <v>7</v>
@@ -2931,16 +3055,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2955,16 +3077,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2979,7 +3099,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -3003,7 +3123,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
@@ -3027,7 +3147,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
@@ -3051,7 +3171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -3067,17 +3187,12 @@
       <c r="E11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -3093,17 +3208,12 @@
       <c r="E12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -3119,43 +3229,31 @@
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -3165,9 +3263,7 @@
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
@@ -3179,7 +3275,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -3189,49 +3285,35 @@
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -3255,7 +3337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3271,22 +3353,17 @@
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -3297,17 +3374,12 @@
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -3331,7 +3403,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -3347,17 +3419,12 @@
       <c r="E22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -3373,22 +3440,17 @@
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
@@ -3399,17 +3461,12 @@
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3433,7 +3490,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3449,22 +3506,17 @@
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
@@ -3475,17 +3527,12 @@
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -3509,7 +3556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -3525,22 +3572,17 @@
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
@@ -3551,17 +3593,12 @@
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
@@ -3585,7 +3622,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -3608,11 +3645,8 @@
       <c r="H32" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J32" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
@@ -3628,17 +3662,12 @@
       <c r="E33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -3654,24 +3683,19 @@
       <c r="E34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
+      <c r="F34" s="4"/>
       <c r="G34" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="11"/>
-      <c r="I34" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
@@ -3682,22 +3706,17 @@
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
@@ -3708,17 +3727,12 @@
       <c r="E36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
@@ -3734,28 +3748,23 @@
       <c r="E37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H37" s="11"/>
-      <c r="I37" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G41" s="11"/>
     </row>
   </sheetData>
@@ -3768,7 +3777,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3776,9 +3786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ32" sqref="AJ32"/>
+      <selection pane="topRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3973,16 +3983,16 @@
         <v>sus</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -3991,13 +4001,13 @@
         <v>vac</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -4006,19 +4016,19 @@
         <v>lteu</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -4027,16 +4037,16 @@
         <v>ltet</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK5" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
@@ -4045,16 +4055,16 @@
         <v>ltlu</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -4063,16 +4073,16 @@
         <v>ltlt</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -4081,13 +4091,13 @@
         <v>ltr</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK8" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -4096,16 +4106,16 @@
         <v>ltex</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK9" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -4114,13 +4124,13 @@
         <v>ltlx</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -4129,10 +4139,10 @@
         <v>acj</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -4141,13 +4151,13 @@
         <v>spj</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -4156,19 +4166,19 @@
         <v>spdu</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AF13" s="11" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AI13" s="11" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -4177,19 +4187,19 @@
         <v>spdd</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AF14" s="11" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AI14" s="11" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -4198,22 +4208,22 @@
         <v>spdt</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="AF15" s="11" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="AI15" s="11" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -4222,19 +4232,19 @@
         <v>spmu</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AF16" s="11" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="AI16" s="11" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AJ16" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK16" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
@@ -4243,19 +4253,19 @@
         <v>spmd</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AF17" s="11" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="AI17" s="11" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AJ17" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK17" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
@@ -4264,22 +4274,22 @@
         <v>spmt</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="AF18" s="11" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AI18" s="11" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
@@ -4288,19 +4298,19 @@
         <v>spxu</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AF19" s="11" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="AI19" s="11" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AJ19" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -4309,19 +4319,19 @@
         <v>spxd</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AF20" s="11" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="AI20" s="11" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AJ20" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -4330,19 +4340,19 @@
         <v>spxt</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="AF21" s="11" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="AI21" s="11" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="AJ21" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -4351,13 +4361,13 @@
         <v>snj</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
@@ -4366,19 +4376,19 @@
         <v>sndu</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AF23" s="11" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="AI23" s="11" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AJ23" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
@@ -4387,19 +4397,19 @@
         <v>sndd</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="AF24" s="11" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="AI24" s="11" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AJ24" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
@@ -4408,22 +4418,22 @@
         <v>sndt</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AA25" s="11" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="AF25" s="11" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="AI25" s="11" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AJ25" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK25" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -4432,19 +4442,19 @@
         <v>snmu</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AF26" s="11" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AI26" s="11" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AJ26" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK26" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -4453,19 +4463,19 @@
         <v>snmd</v>
       </c>
       <c r="AB27" s="11" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="AF27" s="11" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AI27" s="11" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AJ27" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK27" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
@@ -4474,22 +4484,22 @@
         <v>snmt</v>
       </c>
       <c r="AA28" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="AF28" s="11" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="AI28" s="11" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AJ28" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK28" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
@@ -4498,19 +4508,19 @@
         <v>snxu</v>
       </c>
       <c r="AD29" s="11" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AF29" s="11" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AI29" s="11" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AJ29" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK29" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
@@ -4519,19 +4529,19 @@
         <v>snxd</v>
       </c>
       <c r="AE30" s="11" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AF30" s="11" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AI30" s="11" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AJ30" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK30" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -4540,19 +4550,19 @@
         <v>snxt</v>
       </c>
       <c r="AD31" s="11" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AF31" s="11" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="AI31" s="11" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AJ31" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK31" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
@@ -4561,13 +4571,13 @@
         <v>acr</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="AJ32" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK32" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4575,7 +4585,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4583,7 +4593,7 @@
         <v>69</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4621,27 +4631,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B4020-084C-4F00-B628-93D126F8BCA7}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="53.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4651,30 +4661,26 @@
       <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>468</v>
+      <c r="G1" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -4684,19 +4690,19 @@
       <c r="C2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7">
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
@@ -4706,19 +4712,19 @@
       <c r="C3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="11">
+      <c r="E3" s="7"/>
+      <c r="F3" s="11">
         <v>0</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="11">
+      <c r="G3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -4728,19 +4734,19 @@
       <c r="C4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11">
+      <c r="E4" s="7"/>
+      <c r="F4" s="11">
         <v>0</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="11">
+      <c r="G4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -4750,19 +4756,19 @@
       <c r="C5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="11">
+      <c r="E5" s="7"/>
+      <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="11">
+      <c r="G5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -4772,19 +4778,19 @@
       <c r="C6" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="11">
+      <c r="E6" s="7"/>
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="11">
+      <c r="G6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
@@ -4792,24 +4798,21 @@
         <v>128</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+        <v>233</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
+      <c r="G7" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>117</v>
       </c>
@@ -4817,24 +4820,21 @@
         <v>129</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="11">
+        <v>234</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11">
         <v>1</v>
       </c>
+      <c r="G8" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
@@ -4842,24 +4842,21 @@
         <v>130</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="11">
+        <v>235</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11">
         <v>1</v>
       </c>
+      <c r="G9" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>119</v>
       </c>
@@ -4867,24 +4864,21 @@
         <v>131</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="11">
+        <v>512</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11">
         <v>1</v>
       </c>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>120</v>
       </c>
@@ -4892,24 +4886,21 @@
         <v>132</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="11">
+        <v>513</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11">
         <v>1</v>
       </c>
+      <c r="G11" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -4917,76 +4908,66 @@
         <v>133</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="11">
+        <v>514</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11">
         <v>1</v>
       </c>
+      <c r="G12" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
+        <v>515</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7">
+      <c r="G13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11">
+      <c r="G14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11">
         <v>-1</v>
       </c>
-      <c r="K14" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>122</v>
       </c>
@@ -4994,24 +4975,21 @@
         <v>134</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
+        <v>516</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
         <v>1</v>
       </c>
+      <c r="G15" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>123</v>
       </c>
@@ -5019,24 +4997,21 @@
         <v>135</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11">
+        <v>517</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11">
         <v>1</v>
       </c>
+      <c r="G16" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>124</v>
       </c>
@@ -5044,24 +5019,21 @@
         <v>136</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11">
+        <v>518</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11">
         <v>1</v>
       </c>
+      <c r="G17" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>125</v>
       </c>
@@ -5069,24 +5041,21 @@
         <v>137</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11">
+        <v>519</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11">
         <v>1</v>
       </c>
+      <c r="G18" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>126</v>
       </c>
@@ -5094,24 +5063,21 @@
         <v>138</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="11">
+        <v>520</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="11">
         <v>1</v>
       </c>
+      <c r="G19" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>127</v>
       </c>
@@ -5119,24 +5085,21 @@
         <v>139</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="11">
+        <v>521</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11">
         <v>1</v>
       </c>
+      <c r="G20" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>140</v>
       </c>
@@ -5144,24 +5107,21 @@
         <v>148</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
+        <v>522</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7">
         <v>1</v>
       </c>
+      <c r="G21" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>141</v>
       </c>
@@ -5169,173 +5129,154 @@
         <v>149</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="11">
+        <v>523</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="11">
         <v>1</v>
       </c>
+      <c r="G22" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>147</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="11">
+        <v>524</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="11">
         <v>0</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="11">
+      <c r="G23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="11">
+        <v>525</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="11">
         <v>0</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="11">
+      <c r="G24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="11">
+        <v>526</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="11">
         <v>0</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="11">
+      <c r="G25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>146</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="11">
+        <v>151</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="11">
         <v>0</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="11">
+      <c r="G26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="11">
+        <v>527</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="11">
         <v>1</v>
       </c>
+      <c r="G27" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11">
+      <c r="F28" s="11">
         <v>0</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11">
+      <c r="G28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11">
         <v>-1</v>
       </c>
-      <c r="K28" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>145</v>
       </c>
@@ -5343,999 +5284,944 @@
         <v>150</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="B32" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="B33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7">
+      <c r="C35" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="11">
         <v>0</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7">
+      <c r="G35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="9" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="11">
+      <c r="B36" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="11">
+      <c r="G36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="11">
+      <c r="B37" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="11">
         <v>0</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="11">
+      <c r="G37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="9" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="11">
+      <c r="B38" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="11">
         <v>0</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="11">
+      <c r="G38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="9" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="11">
+      <c r="B39" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="11">
         <v>0</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="11">
+      <c r="G39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="11">
+      <c r="B40" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="11">
         <v>0</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="11">
+      <c r="G40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="D41" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="11">
+      <c r="E41" s="7"/>
+      <c r="F41" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="11">
+      <c r="G41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="11">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="11">
-        <v>0</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>181</v>
-      </c>
       <c r="B42" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="11">
+      <c r="E42" s="7"/>
+      <c r="F42" s="11">
         <v>0</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="11">
+      <c r="G42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="11">
+      <c r="E43" s="7"/>
+      <c r="F43" s="11">
         <v>0</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="11">
+      <c r="G43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="11">
+      <c r="E44" s="7"/>
+      <c r="F44" s="11">
         <v>0</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="11">
+      <c r="G44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="11">
+      <c r="E45" s="7"/>
+      <c r="F45" s="11">
         <v>0</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="11">
+      <c r="G45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="11">
+      <c r="E46" s="7"/>
+      <c r="F46" s="11">
         <v>0</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="11">
+      <c r="G46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="11">
+      <c r="E47" s="7"/>
+      <c r="F47" s="11">
         <v>0</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="11">
+      <c r="G47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="11">
+      <c r="E48" s="7"/>
+      <c r="F48" s="11">
         <v>0</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="11">
+      <c r="G48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="11">
+      <c r="E49" s="7"/>
+      <c r="F49" s="11">
         <v>0</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="11">
+      <c r="G49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="11">
+      <c r="E50" s="7"/>
+      <c r="F50" s="11">
         <v>0</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="11">
+      <c r="G50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="11">
+      <c r="E51" s="7"/>
+      <c r="F51" s="11">
         <v>0</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="11">
+      <c r="G51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="11">
+      <c r="E52" s="7"/>
+      <c r="F52" s="11">
         <v>0</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="11">
+      <c r="G52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="D53" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="11">
+      <c r="E53" s="7"/>
+      <c r="F53" s="11">
         <v>0</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="11">
+      <c r="G53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="D54" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="11">
+      <c r="E54" s="7"/>
+      <c r="F54" s="11">
         <v>0</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="11">
+      <c r="G54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="11">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="11">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="11">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="11">
+      <c r="C60" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="11">
         <v>0</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="11">
+      <c r="G60" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B56" s="9" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="11">
+      <c r="C61" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="11">
         <v>0</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="11">
+      <c r="G61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B57" s="9" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="11">
+      <c r="C62" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="11">
         <v>0</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="11">
+      <c r="G62" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B58" s="9" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="11">
+      <c r="C63" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="11">
         <v>0</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="11">
+      <c r="G63" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D59" s="11" t="s">
+    <row r="64" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="11">
+      <c r="B64" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11">
         <v>0</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="11">
+      <c r="G64" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="11">
-        <v>0</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="11">
-        <v>0</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="11">
-        <v>0</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="11">
-        <v>0</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11">
-        <v>0</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11">
-        <v>-1</v>
-      </c>
-      <c r="K64" s="11"/>
-    </row>
-    <row r="65" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11">
+      <c r="F65" s="11">
         <v>0</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11">
+      <c r="G65" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11">
         <v>-1</v>
       </c>
-      <c r="K65" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E66" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="11">
+      <c r="E66" s="7"/>
+      <c r="F66" s="11">
         <v>0</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="11">
+      <c r="G66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G67" s="11">
+        <v>242</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="11">
         <v>0</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J67" s="11">
+      <c r="G67" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H74" s="11"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G74" s="11"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H74" xr:uid="{CE581F04-42C4-4377-AC3C-1080BAA29A3F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G74" xr:uid="{CE581F04-42C4-4377-AC3C-1080BAA29A3F}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6349,7 +6235,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6373,10 +6259,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
@@ -6392,10 +6278,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="E33" sqref="E33"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6428,19 +6314,19 @@
         <v>10</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>96</v>
@@ -6451,13 +6337,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -6476,10 +6362,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -6499,13 +6385,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -6524,10 +6410,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -6547,10 +6433,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -6570,10 +6456,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -6593,10 +6479,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -6616,10 +6502,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -6639,19 +6525,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>7</v>
@@ -6666,19 +6552,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>7</v>
@@ -6693,19 +6579,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>7</v>
@@ -6720,19 +6606,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>7</v>
@@ -6747,19 +6633,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>7</v>
@@ -6774,19 +6660,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>7</v>
@@ -6801,10 +6687,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -6824,10 +6710,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -6847,10 +6733,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -6870,19 +6756,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>7</v>
@@ -6897,19 +6783,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>7</v>
@@ -6924,19 +6810,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>7</v>
@@ -6951,19 +6837,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>7</v>
@@ -6978,19 +6864,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>7</v>
@@ -7005,19 +6891,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>7</v>
@@ -7032,10 +6918,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -7055,10 +6941,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -7078,10 +6964,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -7101,10 +6987,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -7124,10 +7010,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -7147,10 +7033,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -7170,17 +7056,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="13" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>7</v>
@@ -7195,17 +7081,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="13" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>7</v>
@@ -7220,17 +7106,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>7</v>
@@ -7245,17 +7131,17 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="13" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>7</v>
@@ -7270,17 +7156,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="13" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>7</v>
@@ -7295,17 +7181,17 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>7</v>
@@ -7320,17 +7206,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>7</v>
@@ -7345,16 +7231,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="13" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>7</v>
@@ -7369,10 +7255,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -7380,7 +7266,7 @@
         <v>0.1</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>7</v>
@@ -7395,13 +7281,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -7409,7 +7295,7 @@
         <v>0.01</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>7</v>
@@ -7424,19 +7310,19 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>7</v>
@@ -7451,19 +7337,19 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>7</v>
@@ -7478,13 +7364,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -7503,13 +7389,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -7528,13 +7414,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -7553,13 +7439,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -7578,13 +7464,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -7603,13 +7489,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -7628,13 +7514,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -7653,13 +7539,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -7678,13 +7564,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -7703,10 +7589,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -7726,10 +7612,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -7749,10 +7635,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -7772,10 +7658,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -7795,10 +7681,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -7818,10 +7704,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -7841,10 +7727,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -7864,10 +7750,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -7887,10 +7773,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -7910,10 +7796,10 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -7933,10 +7819,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -7956,10 +7842,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -7979,10 +7865,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -8002,10 +7888,10 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -8025,10 +7911,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -8048,10 +7934,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -8071,10 +7957,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -8094,10 +7980,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -8117,10 +8003,10 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -8140,10 +8026,10 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -8163,10 +8049,10 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -8186,10 +8072,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -8209,10 +8095,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -8232,10 +8118,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -8255,10 +8141,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -8278,10 +8164,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -8301,10 +8187,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -8324,10 +8210,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -8347,10 +8233,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -8370,10 +8256,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -8393,10 +8279,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -8416,10 +8302,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -8439,10 +8325,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -8462,10 +8348,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -8485,10 +8371,10 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -8508,10 +8394,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -8531,10 +8417,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -8554,10 +8440,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -8577,10 +8463,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -8600,10 +8486,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -8623,10 +8509,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -8646,10 +8532,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -8669,10 +8555,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -8692,10 +8578,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -8715,10 +8601,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -8738,10 +8624,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -8992,4 +8878,371 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096AAE64-6D86-4469-8C78-6B6ADE320367}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A316BE-9EDA-47CE-ABE6-3F1E6F71A5DE}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="A1:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="10" customWidth="1"/>
+    <col min="4" max="4" width="104.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" t="s">
+        <v>488</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>479</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>483</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B9017-4D75-486A-820F-D370277A0E2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F03BBA-47DA-40AB-96D1-419552006D04}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="7" r:id="rId1"/>
@@ -698,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{727369DF-9454-4254-873C-A3C5C5E58366}">
       <text>
         <r>
           <rPr>
@@ -717,7 +717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{3514B01A-966C-4E36-8CD8-B0E499FEDBF5}">
       <text>
         <r>
           <rPr>
@@ -737,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="545">
   <si>
     <t>Code Name</t>
   </si>
@@ -2369,6 +2369,9 @@
   </si>
   <si>
     <t>num_treat_ds, num_treat_mdr, num_treat_xdr</t>
+  </si>
+  <si>
+    <t>Export</t>
   </si>
 </sst>
 </file>
@@ -2926,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,7 +2948,7 @@
     <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2973,8 +2976,11 @@
       <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2992,8 +2998,11 @@
       <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -3014,8 +3023,11 @@
       <c r="H3" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3034,8 +3046,11 @@
       <c r="H4" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -3054,8 +3069,11 @@
       <c r="H5" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3076,8 +3094,11 @@
       <c r="H6" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -3098,8 +3119,11 @@
       <c r="H7" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -3122,8 +3146,11 @@
       <c r="H8" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
@@ -3146,8 +3173,11 @@
       <c r="H9" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>101</v>
       </c>
@@ -3170,8 +3200,11 @@
       <c r="H10" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -3191,8 +3224,11 @@
       <c r="G11" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -3212,8 +3248,11 @@
       <c r="G12" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -3233,8 +3272,11 @@
       <c r="G13" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3252,8 +3294,11 @@
       <c r="G14" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -3274,8 +3319,11 @@
       <c r="H15" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -3293,8 +3341,11 @@
       <c r="G16" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -3312,8 +3363,11 @@
       <c r="G17" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -3336,8 +3390,11 @@
       <c r="H18" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3357,8 +3414,11 @@
       <c r="G19" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -3378,8 +3438,11 @@
       <c r="G20" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -3402,8 +3465,11 @@
       <c r="H21" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -3423,8 +3489,11 @@
       <c r="G22" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -3444,8 +3513,11 @@
       <c r="G23" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -3465,8 +3537,11 @@
       <c r="G24" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -3489,8 +3564,11 @@
       <c r="H25" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3510,8 +3588,11 @@
       <c r="G26" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -3531,8 +3612,11 @@
       <c r="G27" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J27" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -3555,8 +3639,11 @@
       <c r="H28" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -3576,8 +3663,11 @@
       <c r="G29" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -3597,8 +3687,11 @@
       <c r="G30" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J30" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
@@ -3621,8 +3714,11 @@
       <c r="H31" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -3645,8 +3741,11 @@
       <c r="H32" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>46</v>
       </c>
@@ -3666,8 +3765,11 @@
       <c r="G33" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -3689,8 +3791,11 @@
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -3710,8 +3815,11 @@
       <c r="G35" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -3731,8 +3839,11 @@
       <c r="G36" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
@@ -3754,17 +3865,20 @@
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G41" s="11"/>
     </row>
   </sheetData>
@@ -4631,10 +4745,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B4020-084C-4F00-B628-93D126F8BCA7}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4651,7 +4765,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4679,8 +4793,11 @@
       <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -4701,8 +4818,11 @@
       <c r="I2" s="7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
@@ -4723,8 +4843,11 @@
       <c r="I3" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -4745,8 +4868,11 @@
       <c r="I4" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -4767,8 +4893,11 @@
       <c r="I5" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -4789,8 +4918,11 @@
       <c r="I6" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
@@ -4811,8 +4943,11 @@
         <v>78</v>
       </c>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>117</v>
       </c>
@@ -4833,8 +4968,11 @@
         <v>78</v>
       </c>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>118</v>
       </c>
@@ -4855,8 +4993,11 @@
         <v>78</v>
       </c>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>119</v>
       </c>
@@ -4877,8 +5018,11 @@
         <v>78</v>
       </c>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>120</v>
       </c>
@@ -4899,8 +5043,11 @@
         <v>78</v>
       </c>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -4921,8 +5068,11 @@
         <v>78</v>
       </c>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>240</v>
       </c>
@@ -4943,8 +5093,11 @@
       <c r="I13" s="7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>461</v>
       </c>
@@ -4966,8 +5119,11 @@
       <c r="I14" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>122</v>
       </c>
@@ -4988,8 +5144,11 @@
         <v>78</v>
       </c>
       <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>123</v>
       </c>
@@ -5010,8 +5169,11 @@
         <v>78</v>
       </c>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>124</v>
       </c>
@@ -5032,8 +5194,11 @@
         <v>78</v>
       </c>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>125</v>
       </c>
@@ -5054,8 +5219,11 @@
         <v>78</v>
       </c>
       <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>126</v>
       </c>
@@ -5076,8 +5244,11 @@
         <v>78</v>
       </c>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>127</v>
       </c>
@@ -5098,8 +5269,11 @@
         <v>78</v>
       </c>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>140</v>
       </c>
@@ -5120,8 +5294,11 @@
         <v>78</v>
       </c>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>141</v>
       </c>
@@ -5142,8 +5319,11 @@
         <v>78</v>
       </c>
       <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>147</v>
       </c>
@@ -5164,8 +5344,11 @@
       <c r="I23" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>143</v>
       </c>
@@ -5186,8 +5369,11 @@
       <c r="I24" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>144</v>
       </c>
@@ -5208,8 +5394,11 @@
       <c r="I25" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>146</v>
       </c>
@@ -5230,8 +5419,11 @@
       <c r="I26" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>142</v>
       </c>
@@ -5252,8 +5444,11 @@
         <v>78</v>
       </c>
       <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>459</v>
       </c>
@@ -5275,8 +5470,11 @@
       <c r="I28" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>145</v>
       </c>
@@ -5297,8 +5495,11 @@
         <v>76</v>
       </c>
       <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>152</v>
       </c>
@@ -5319,8 +5520,11 @@
       <c r="I30" s="7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>153</v>
       </c>
@@ -5341,8 +5545,11 @@
       <c r="I31" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>154</v>
       </c>
@@ -5363,8 +5570,11 @@
       <c r="I32" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>155</v>
       </c>
@@ -5385,8 +5595,11 @@
       <c r="I33" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>156</v>
       </c>
@@ -5407,8 +5620,11 @@
       <c r="I34" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>157</v>
       </c>
@@ -5429,8 +5645,11 @@
       <c r="I35" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>164</v>
       </c>
@@ -5454,8 +5673,11 @@
       <c r="I36" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>165</v>
       </c>
@@ -5479,8 +5701,11 @@
       <c r="I37" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>166</v>
       </c>
@@ -5504,8 +5729,11 @@
       <c r="I38" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>167</v>
       </c>
@@ -5529,8 +5757,11 @@
       <c r="I39" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>168</v>
       </c>
@@ -5554,8 +5785,11 @@
       <c r="I40" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>169</v>
       </c>
@@ -5579,8 +5813,11 @@
       <c r="I41" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>176</v>
       </c>
@@ -5604,8 +5841,11 @@
       <c r="I42" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>177</v>
       </c>
@@ -5629,8 +5869,11 @@
       <c r="I43" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>178</v>
       </c>
@@ -5654,8 +5897,11 @@
       <c r="I44" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>179</v>
       </c>
@@ -5679,8 +5925,11 @@
       <c r="I45" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>180</v>
       </c>
@@ -5704,8 +5953,11 @@
       <c r="I46" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>181</v>
       </c>
@@ -5729,8 +5981,11 @@
       <c r="I47" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>182</v>
       </c>
@@ -5754,8 +6009,11 @@
       <c r="I48" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>183</v>
       </c>
@@ -5779,8 +6037,11 @@
       <c r="I49" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>184</v>
       </c>
@@ -5804,8 +6065,11 @@
       <c r="I50" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>194</v>
       </c>
@@ -5829,8 +6093,11 @@
       <c r="I51" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>195</v>
       </c>
@@ -5854,8 +6121,11 @@
       <c r="I52" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>196</v>
       </c>
@@ -5879,8 +6149,11 @@
       <c r="I53" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>197</v>
       </c>
@@ -5904,8 +6177,11 @@
       <c r="I54" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>214</v>
       </c>
@@ -5926,8 +6202,11 @@
       <c r="I55" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>215</v>
       </c>
@@ -5948,8 +6227,11 @@
       <c r="I56" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>216</v>
       </c>
@@ -5970,8 +6252,11 @@
       <c r="I57" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>217</v>
       </c>
@@ -5992,8 +6277,11 @@
       <c r="I58" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>218</v>
       </c>
@@ -6014,8 +6302,11 @@
       <c r="I59" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>219</v>
       </c>
@@ -6036,8 +6327,11 @@
       <c r="I60" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>221</v>
       </c>
@@ -6058,8 +6352,11 @@
       <c r="I61" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>222</v>
       </c>
@@ -6080,8 +6377,11 @@
       <c r="I62" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>223</v>
       </c>
@@ -6102,8 +6402,11 @@
       <c r="I63" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>242</v>
       </c>
@@ -6125,8 +6428,11 @@
       <c r="I64" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>464</v>
       </c>
@@ -6148,8 +6454,11 @@
       <c r="I65" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>236</v>
       </c>
@@ -6173,8 +6482,11 @@
       <c r="I66" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>237</v>
       </c>
@@ -6196,26 +6508,29 @@
       <c r="I67" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G73" s="11"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G74" s="11"/>
     </row>
   </sheetData>
@@ -6276,12 +6591,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2:J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6294,13 +6609,13 @@
     <col min="6" max="6" width="14" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="10"/>
+    <col min="9" max="10" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6329,13 +6644,16 @@
         <v>457</v>
       </c>
       <c r="J1" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>244</v>
       </c>
@@ -6356,11 +6674,14 @@
         <v>7</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>247</v>
       </c>
@@ -6379,11 +6700,14 @@
         <v>7</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>245</v>
       </c>
@@ -6404,11 +6728,14 @@
         <v>7</v>
       </c>
       <c r="J4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>246</v>
       </c>
@@ -6427,11 +6754,14 @@
         <v>7</v>
       </c>
       <c r="J5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>252</v>
       </c>
@@ -6449,12 +6779,15 @@
       <c r="I6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>394</v>
       </c>
@@ -6472,12 +6805,15 @@
       <c r="I7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>395</v>
       </c>
@@ -6495,12 +6831,15 @@
       <c r="I8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>396</v>
       </c>
@@ -6518,12 +6857,15 @@
       <c r="I9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>254</v>
       </c>
@@ -6545,12 +6887,15 @@
       <c r="I10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11">
+      <c r="J10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>256</v>
       </c>
@@ -6572,12 +6917,15 @@
       <c r="I11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11">
+      <c r="J11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>257</v>
       </c>
@@ -6599,12 +6947,15 @@
       <c r="I12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11">
+      <c r="J12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>259</v>
       </c>
@@ -6626,12 +6977,15 @@
       <c r="I13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11">
+      <c r="J13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>260</v>
       </c>
@@ -6653,12 +7007,15 @@
       <c r="I14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11">
+      <c r="J14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>261</v>
       </c>
@@ -6680,12 +7037,15 @@
       <c r="I15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11">
+      <c r="J15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>401</v>
       </c>
@@ -6703,12 +7063,15 @@
       <c r="I16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>402</v>
       </c>
@@ -6726,12 +7089,15 @@
       <c r="I17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>405</v>
       </c>
@@ -6749,12 +7115,15 @@
       <c r="I18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>255</v>
       </c>
@@ -6776,12 +7145,15 @@
       <c r="I19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11">
+      <c r="J19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>262</v>
       </c>
@@ -6803,12 +7175,15 @@
       <c r="I20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11">
+      <c r="J20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>258</v>
       </c>
@@ -6830,12 +7205,15 @@
       <c r="I21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11">
+      <c r="J21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>264</v>
       </c>
@@ -6857,12 +7235,15 @@
       <c r="I22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11">
+      <c r="J22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>263</v>
       </c>
@@ -6884,12 +7265,15 @@
       <c r="I23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11">
+      <c r="J23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>265</v>
       </c>
@@ -6911,12 +7295,15 @@
       <c r="I24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11">
+      <c r="J24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>415</v>
       </c>
@@ -6935,11 +7322,14 @@
         <v>7</v>
       </c>
       <c r="J25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>416</v>
       </c>
@@ -6958,11 +7348,14 @@
         <v>7</v>
       </c>
       <c r="J26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>409</v>
       </c>
@@ -6981,11 +7374,14 @@
         <v>73</v>
       </c>
       <c r="J27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>417</v>
       </c>
@@ -7004,11 +7400,14 @@
         <v>73</v>
       </c>
       <c r="J28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>418</v>
       </c>
@@ -7027,11 +7426,14 @@
         <v>73</v>
       </c>
       <c r="J29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>419</v>
       </c>
@@ -7050,11 +7452,14 @@
         <v>73</v>
       </c>
       <c r="J30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>410</v>
       </c>
@@ -7074,12 +7479,15 @@
       <c r="I31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11">
+      <c r="J31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>411</v>
       </c>
@@ -7099,12 +7507,15 @@
       <c r="I32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11">
+      <c r="J32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>412</v>
       </c>
@@ -7124,12 +7535,15 @@
       <c r="I33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11">
+      <c r="J33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>413</v>
       </c>
@@ -7149,12 +7563,15 @@
       <c r="I34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11">
+      <c r="J34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>414</v>
       </c>
@@ -7174,12 +7591,15 @@
       <c r="I35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11">
+      <c r="J35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>431</v>
       </c>
@@ -7199,12 +7619,15 @@
       <c r="I36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11">
+      <c r="J36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>432</v>
       </c>
@@ -7224,12 +7647,15 @@
       <c r="I37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11">
+      <c r="J37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>445</v>
       </c>
@@ -7248,12 +7674,15 @@
       <c r="I38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11">
+      <c r="J38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>447</v>
       </c>
@@ -7274,12 +7703,15 @@
       <c r="I39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11">
+      <c r="J39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>253</v>
       </c>
@@ -7303,12 +7735,15 @@
       <c r="I40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11">
+      <c r="J40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>328</v>
       </c>
@@ -7330,12 +7765,15 @@
       <c r="I41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11">
+      <c r="J41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>335</v>
       </c>
@@ -7357,12 +7795,15 @@
       <c r="I42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11">
+      <c r="J42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>296</v>
       </c>
@@ -7383,11 +7824,14 @@
         <v>7</v>
       </c>
       <c r="J43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>266</v>
       </c>
@@ -7408,11 +7852,14 @@
         <v>7</v>
       </c>
       <c r="J44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="11"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>267</v>
       </c>
@@ -7433,11 +7880,14 @@
         <v>7</v>
       </c>
       <c r="J45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K45" s="11"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>268</v>
       </c>
@@ -7458,11 +7908,14 @@
         <v>7</v>
       </c>
       <c r="J46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>269</v>
       </c>
@@ -7483,11 +7936,14 @@
         <v>7</v>
       </c>
       <c r="J47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>270</v>
       </c>
@@ -7508,11 +7964,14 @@
         <v>7</v>
       </c>
       <c r="J48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K48" s="11"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>271</v>
       </c>
@@ -7533,11 +7992,14 @@
         <v>7</v>
       </c>
       <c r="J49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K49" s="11"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>272</v>
       </c>
@@ -7558,11 +8020,14 @@
         <v>7</v>
       </c>
       <c r="J50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K50" s="11"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>273</v>
       </c>
@@ -7583,11 +8048,14 @@
         <v>7</v>
       </c>
       <c r="J51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K51" s="11"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>274</v>
       </c>
@@ -7606,11 +8074,14 @@
         <v>7</v>
       </c>
       <c r="J52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="11"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>275</v>
       </c>
@@ -7629,11 +8100,14 @@
         <v>7</v>
       </c>
       <c r="J53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K53" s="11"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>281</v>
       </c>
@@ -7652,11 +8126,14 @@
         <v>7</v>
       </c>
       <c r="J54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>298</v>
       </c>
@@ -7675,11 +8152,14 @@
         <v>7</v>
       </c>
       <c r="J55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K55" s="11"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>283</v>
       </c>
@@ -7698,11 +8178,14 @@
         <v>7</v>
       </c>
       <c r="J56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K56" s="11"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>276</v>
       </c>
@@ -7721,11 +8204,14 @@
         <v>7</v>
       </c>
       <c r="J57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K57" s="11"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>284</v>
       </c>
@@ -7744,11 +8230,14 @@
         <v>7</v>
       </c>
       <c r="J58" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>300</v>
       </c>
@@ -7767,11 +8256,14 @@
         <v>7</v>
       </c>
       <c r="J59" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>286</v>
       </c>
@@ -7790,11 +8282,14 @@
         <v>7</v>
       </c>
       <c r="J60" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>277</v>
       </c>
@@ -7813,11 +8308,14 @@
         <v>7</v>
       </c>
       <c r="J61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>287</v>
       </c>
@@ -7836,11 +8334,14 @@
         <v>7</v>
       </c>
       <c r="J62" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>302</v>
       </c>
@@ -7859,11 +8360,14 @@
         <v>7</v>
       </c>
       <c r="J63" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K63" s="11"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>288</v>
       </c>
@@ -7882,11 +8386,14 @@
         <v>7</v>
       </c>
       <c r="J64" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K64" s="11"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>278</v>
       </c>
@@ -7905,11 +8412,14 @@
         <v>7</v>
       </c>
       <c r="J65" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K65" s="11"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>289</v>
       </c>
@@ -7928,11 +8438,14 @@
         <v>7</v>
       </c>
       <c r="J66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>304</v>
       </c>
@@ -7951,11 +8464,14 @@
         <v>7</v>
       </c>
       <c r="J67" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K67" s="11"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>291</v>
       </c>
@@ -7974,11 +8490,14 @@
         <v>7</v>
       </c>
       <c r="J68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K68" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>279</v>
       </c>
@@ -7997,11 +8516,14 @@
         <v>7</v>
       </c>
       <c r="J69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>292</v>
       </c>
@@ -8020,11 +8542,14 @@
         <v>7</v>
       </c>
       <c r="J70" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K70" s="11"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>306</v>
       </c>
@@ -8043,11 +8568,14 @@
         <v>7</v>
       </c>
       <c r="J71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="11"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>294</v>
       </c>
@@ -8066,11 +8594,14 @@
         <v>7</v>
       </c>
       <c r="J72" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K72" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K72" s="11"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>280</v>
       </c>
@@ -8089,11 +8620,14 @@
         <v>7</v>
       </c>
       <c r="J73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K73" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K73" s="11"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>295</v>
       </c>
@@ -8112,11 +8646,14 @@
         <v>7</v>
       </c>
       <c r="J74" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K74" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K74" s="11"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>308</v>
       </c>
@@ -8135,11 +8672,14 @@
         <v>7</v>
       </c>
       <c r="J75" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K75" s="11"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>297</v>
       </c>
@@ -8158,11 +8698,14 @@
         <v>7</v>
       </c>
       <c r="J76" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K76" s="11"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>299</v>
       </c>
@@ -8181,11 +8724,14 @@
         <v>7</v>
       </c>
       <c r="J77" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K77" s="11"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>301</v>
       </c>
@@ -8204,11 +8750,14 @@
         <v>7</v>
       </c>
       <c r="J78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K78" s="11"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="11"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>303</v>
       </c>
@@ -8227,11 +8776,14 @@
         <v>7</v>
       </c>
       <c r="J79" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K79" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K79" s="11"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="11"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>305</v>
       </c>
@@ -8250,11 +8802,14 @@
         <v>7</v>
       </c>
       <c r="J80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K80" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K80" s="11"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="11"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>307</v>
       </c>
@@ -8273,11 +8828,14 @@
         <v>7</v>
       </c>
       <c r="J81" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K81" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K81" s="11"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>290</v>
       </c>
@@ -8296,11 +8854,14 @@
         <v>7</v>
       </c>
       <c r="J82" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K82" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K82" s="11"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="11"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>293</v>
       </c>
@@ -8319,11 +8880,14 @@
         <v>7</v>
       </c>
       <c r="J83" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K83" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K83" s="11"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="11"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>282</v>
       </c>
@@ -8342,11 +8906,14 @@
         <v>7</v>
       </c>
       <c r="J84" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K84" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K84" s="11"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="11"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>285</v>
       </c>
@@ -8365,11 +8932,14 @@
         <v>7</v>
       </c>
       <c r="J85" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K85" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K85" s="11"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="11"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>309</v>
       </c>
@@ -8388,11 +8958,14 @@
         <v>7</v>
       </c>
       <c r="J86" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K86" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K86" s="11"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="11"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>311</v>
       </c>
@@ -8411,11 +8984,14 @@
         <v>7</v>
       </c>
       <c r="J87" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K87" s="11"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="11"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>313</v>
       </c>
@@ -8434,11 +9010,14 @@
         <v>7</v>
       </c>
       <c r="J88" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K88" s="11"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="11"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>310</v>
       </c>
@@ -8457,11 +9036,14 @@
         <v>7</v>
       </c>
       <c r="J89" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K89" s="11"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="11"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>312</v>
       </c>
@@ -8480,11 +9062,14 @@
         <v>7</v>
       </c>
       <c r="J90" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K90" s="11"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="11"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>314</v>
       </c>
@@ -8503,11 +9088,14 @@
         <v>7</v>
       </c>
       <c r="J91" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K91" s="11"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="11"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>315</v>
       </c>
@@ -8526,11 +9114,14 @@
         <v>7</v>
       </c>
       <c r="J92" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K92" s="11"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="11"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>317</v>
       </c>
@@ -8549,11 +9140,14 @@
         <v>7</v>
       </c>
       <c r="J93" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K93" s="11"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="11"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>319</v>
       </c>
@@ -8572,11 +9166,14 @@
         <v>7</v>
       </c>
       <c r="J94" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K94" s="11"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="11"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>316</v>
       </c>
@@ -8595,11 +9192,14 @@
         <v>7</v>
       </c>
       <c r="J95" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K95" s="11"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="11"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>318</v>
       </c>
@@ -8618,11 +9218,14 @@
         <v>7</v>
       </c>
       <c r="J96" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K96" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K96" s="11"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="11"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>320</v>
       </c>
@@ -8641,236 +9244,283 @@
         <v>7</v>
       </c>
       <c r="J97" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K97" s="11"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="11"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="I98" s="11"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="I99" s="11"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="I100" s="11"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="I101" s="11"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="I102" s="11"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J102" s="11"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="I103" s="11"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J103" s="11"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="I104" s="11"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J104" s="11"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="I105" s="11"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J105" s="11"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="I106" s="11"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="11"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="I107" s="11"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J107" s="11"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="I108" s="11"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J108" s="11"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="I109" s="11"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J109" s="11"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="I110" s="11"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J110" s="11"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="I111" s="11"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J111" s="11"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="I112" s="11"/>
-    </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="11"/>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="I113" s="11"/>
-    </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="11"/>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="I114" s="11"/>
-    </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="11"/>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="I115" s="11"/>
-    </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="11"/>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="I116" s="11"/>
-    </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="11"/>
+    </row>
+    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="I117" s="11"/>
-    </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="11"/>
+    </row>
+    <row r="118" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="I118" s="11"/>
-    </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="11"/>
+    </row>
+    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="I119" s="11"/>
-    </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="11"/>
+    </row>
+    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="I120" s="11"/>
-    </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="11"/>
+    </row>
+    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="I121" s="11"/>
-    </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="11"/>
+    </row>
+    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="I122" s="11"/>
-    </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="11"/>
+    </row>
+    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="I123" s="11"/>
-    </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="11"/>
+    </row>
+    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="I124" s="11"/>
-    </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="11"/>
+    </row>
+    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="I125" s="11"/>
-    </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="11"/>
+    </row>
+    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="I126" s="11"/>
-    </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="11"/>
+    </row>
+    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="I127" s="11"/>
-    </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="11"/>
+    </row>
+    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="I128" s="11"/>
-    </row>
-    <row r="129" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="11"/>
+    </row>
+    <row r="129" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="I129" s="11"/>
-    </row>
-    <row r="130" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="11"/>
+    </row>
+    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="I130" s="11"/>
-    </row>
-    <row r="131" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="11"/>
+    </row>
+    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="I131" s="11"/>
-    </row>
-    <row r="132" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="11"/>
+    </row>
+    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="I132" s="11"/>
-    </row>
-    <row r="133" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="11"/>
+    </row>
+    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="I133" s="11"/>
-    </row>
-    <row r="134" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="11"/>
+    </row>
+    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="I134" s="11"/>
-    </row>
-    <row r="135" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="11"/>
+    </row>
+    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="I135" s="11"/>
-    </row>
-    <row r="136" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="11"/>
+    </row>
+    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="I136" s="11"/>
-    </row>
-    <row r="137" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="11"/>
+    </row>
+    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="I137" s="11"/>
-    </row>
-    <row r="138" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="11"/>
+    </row>
+    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="I138" s="11"/>
-    </row>
-    <row r="139" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="11"/>
+    </row>
+    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="I139" s="11"/>
-    </row>
-    <row r="140" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="11"/>
+    </row>
+    <row r="140" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="I140" s="11"/>
-    </row>
-    <row r="141" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="11"/>
+    </row>
+    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H97" xr:uid="{5D10CA16-7EA3-4965-B521-FB9DA3769325}">
       <formula1>"n,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I141" xr:uid="{92A1E8F5-AEF7-4AE4-8A9A-A8D8ADDCA859}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J141" xr:uid="{92A1E8F5-AEF7-4AE4-8A9A-A8D8ADDCA859}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8885,7 +9535,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8934,6 +9584,7 @@
         <v>43</v>
       </c>
     </row>
+    <row r="6" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>507</v>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167F4E0E-18C7-4DE6-AC2C-3C8EC0C0C9EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5A7C29-D688-48A3-859C-6F2F10988DD6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6392,10 +6392,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="E33" sqref="E33"/>
+      <selection pane="topRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6406,7 +6406,7 @@
     <col min="4" max="4" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="10" bestFit="1" customWidth="1"/>
@@ -7376,9 +7376,7 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="11">
-        <v>0.1</v>
-      </c>
+      <c r="E39" s="11"/>
       <c r="G39" s="13" t="s">
         <v>464</v>
       </c>
@@ -7405,9 +7403,7 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="11">
-        <v>0.01</v>
-      </c>
+      <c r="F40" s="11"/>
       <c r="G40" s="11" t="s">
         <v>458</v>
       </c>

--- a/tests/frameworks/framework_tb.xlsx
+++ b/tests/frameworks/framework_tb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F03BBA-47DA-40AB-96D1-419552006D04}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645DB66D-0252-424A-A981-E45166BA7AC9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="7" r:id="rId1"/>
@@ -2257,12 +2257,6 @@
     <t>Constituents</t>
   </si>
   <si>
-    <t>main cascade</t>
-  </si>
-  <si>
-    <t>secondary cascade</t>
-  </si>
-  <si>
     <t>Plot Group</t>
   </si>
   <si>
@@ -2372,6 +2366,12 @@
   </si>
   <si>
     <t>Export</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>secondary</t>
   </si>
 </sst>
 </file>
@@ -2931,7 +2931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -2977,7 +2977,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4794,7 +4794,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5005,7 +5005,7 @@
         <v>131</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11">
@@ -5030,7 +5030,7 @@
         <v>132</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11">
@@ -5055,7 +5055,7 @@
         <v>133</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11">
@@ -5080,7 +5080,7 @@
         <v>241</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
@@ -5131,7 +5131,7 @@
         <v>134</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
@@ -5156,7 +5156,7 @@
         <v>135</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11">
@@ -5181,7 +5181,7 @@
         <v>136</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11">
@@ -5206,7 +5206,7 @@
         <v>137</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11">
@@ -5231,7 +5231,7 @@
         <v>138</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11">
@@ -5256,7 +5256,7 @@
         <v>139</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="11">
@@ -5281,7 +5281,7 @@
         <v>148</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
@@ -5306,7 +5306,7 @@
         <v>149</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11">
@@ -5331,7 +5331,7 @@
         <v>199</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="11">
@@ -5356,7 +5356,7 @@
         <v>200</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="11">
@@ -5381,7 +5381,7 @@
         <v>201</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="11">
@@ -5431,7 +5431,7 @@
         <v>198</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="11">
@@ -5482,7 +5482,7 @@
         <v>150</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7">
@@ -5507,7 +5507,7 @@
         <v>158</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7">
@@ -5532,7 +5532,7 @@
         <v>159</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="11">
@@ -5557,7 +5557,7 @@
         <v>160</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="11">
@@ -5582,7 +5582,7 @@
         <v>161</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="11">
@@ -5607,7 +5607,7 @@
         <v>162</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="11">
@@ -5632,7 +5632,7 @@
         <v>163</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="11">
@@ -6189,7 +6189,7 @@
         <v>224</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="11">
@@ -6214,7 +6214,7 @@
         <v>225</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="11">
@@ -6239,7 +6239,7 @@
         <v>226</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="11">
@@ -6264,7 +6264,7 @@
         <v>227</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="11">
@@ -6289,7 +6289,7 @@
         <v>228</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="11">
@@ -6314,7 +6314,7 @@
         <v>229</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="11">
@@ -6339,7 +6339,7 @@
         <v>230</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="11">
@@ -6364,7 +6364,7 @@
         <v>231</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="11">
@@ -6389,7 +6389,7 @@
         <v>232</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="11">
@@ -6414,7 +6414,7 @@
         <v>243</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -6593,10 +6593,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC8421-05BA-4BE1-A1F1-3F12A4E7E369}">
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2:J97"/>
+      <selection pane="topRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6644,7 +6644,7 @@
         <v>457</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>96</v>
@@ -7691,9 +7691,7 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="11">
-        <v>0.1</v>
-      </c>
+      <c r="E39" s="11"/>
       <c r="G39" s="13" t="s">
         <v>453</v>
       </c>
@@ -7723,9 +7721,7 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="11">
-        <v>0.01</v>
-      </c>
+      <c r="F40" s="11"/>
       <c r="G40" s="11" t="s">
         <v>447</v>
       </c>
@@ -9534,8 +9530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096AAE64-6D86-4469-8C78-6B6ADE320367}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9546,7 +9542,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>505</v>
@@ -9587,7 +9583,7 @@
     <row r="6" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>505</v>
@@ -9661,7 +9657,7 @@
         <v>494</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9675,7 +9671,7 @@
         <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9689,7 +9685,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9802,7 +9798,7 @@
         <v>488</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9860,7 +9856,7 @@
 